--- a/data_clean/Yara International 11.12.2020.xlsx
+++ b/data_clean/Yara International 11.12.2020.xlsx
@@ -1587,7 +1587,7 @@
         <v>1.050855426322399</v>
       </c>
       <c r="K2">
-        <v>46.85322269853405</v>
+        <v>-0.03146777301465926</v>
       </c>
       <c r="L2">
         <v>-0.002001860088441103</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.02222748316498964</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.01810852183642187</v>
@@ -1759,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9996734313039423</v>
+        <v>-0.0003265686960577385</v>
       </c>
       <c r="V4">
-        <v>0.9996734313039423</v>
+        <v>-0.0003265686960577385</v>
       </c>
       <c r="W4">
-        <v>0.999719887955182</v>
+        <v>-0.0002801120448180372</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.02115290558592295</v>
@@ -1830,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9993466492439796</v>
+        <v>-0.0006533507560203544</v>
       </c>
       <c r="V5">
-        <v>0.9993466492439796</v>
+        <v>-0.0006533507560203544</v>
       </c>
       <c r="W5">
-        <v>0.9980386662930794</v>
+        <v>-0.001961333706920643</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1871,7 +1871,7 @@
         <v>0.084463918070018</v>
       </c>
       <c r="K6">
-        <v>7.788541108895117</v>
+        <v>-0.4221145889110488</v>
       </c>
       <c r="L6">
         <v>-0.0215586757507888</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.999663771364528</v>
+        <v>-0.0003362286354720023</v>
       </c>
       <c r="V6">
-        <v>0.999663771364528</v>
+        <v>-0.0003362286354720023</v>
       </c>
       <c r="W6">
-        <v>1.000280741156654</v>
+        <v>0.0002807411566536633</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1942,7 +1942,7 @@
         <v>0.05508074583679495</v>
       </c>
       <c r="K7">
-        <v>5.220524216192558</v>
+        <v>-0.4477947578380744</v>
       </c>
       <c r="L7">
         <v>-0.02327530498564424</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9994954874152137</v>
+        <v>-0.000504512584786343</v>
       </c>
       <c r="V7">
-        <v>0.9994954874152137</v>
+        <v>-0.000504512584786343</v>
       </c>
       <c r="W7">
-        <v>0.9983160258209374</v>
+        <v>-0.001683974179062631</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2013,7 +2013,7 @@
         <v>0.04908883523906334</v>
       </c>
       <c r="K8">
-        <v>4.679187652195068</v>
+        <v>-0.4532081234780493</v>
       </c>
       <c r="L8">
         <v>-0.02498822938582862</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9995593301818765</v>
+        <v>-0.000440669818123518</v>
       </c>
       <c r="V8">
-        <v>0.9995593301818765</v>
+        <v>-0.000440669818123518</v>
       </c>
       <c r="W8">
-        <v>0.9994377284228283</v>
+        <v>-0.0005622715771717024</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2084,7 +2084,7 @@
         <v>0.04908883523906334</v>
       </c>
       <c r="K9">
-        <v>4.679187652195068</v>
+        <v>-0.4532081234780493</v>
       </c>
       <c r="L9">
         <v>-0.02600182806482076</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9996693519297823</v>
+        <v>-0.000330648070217654</v>
       </c>
       <c r="V9">
-        <v>0.9996693519297823</v>
+        <v>-0.000330648070217654</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2155,7 +2155,7 @@
         <v>0.04157235986334756</v>
       </c>
       <c r="K10">
-        <v>3.99130789807073</v>
+        <v>-0.4600869210192927</v>
       </c>
       <c r="L10">
         <v>-0.02699317010101832</v>
@@ -2185,13 +2185,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U10">
-        <v>0.9996491966603523</v>
+        <v>-0.000350803339647654</v>
       </c>
       <c r="V10">
-        <v>0.9996491966603523</v>
+        <v>-0.000350803339647654</v>
       </c>
       <c r="W10">
-        <v>0.9991561181434598</v>
+        <v>-0.0008438818565401629</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2226,7 +2226,7 @@
         <v>0.09529862507435578</v>
       </c>
       <c r="K11">
-        <v>8.700697955124909</v>
+        <v>-0.4129930204487509</v>
       </c>
       <c r="L11">
         <v>-0.02740552298336331</v>
@@ -2256,13 +2256,13 @@
         <v>-0.285000000000025</v>
       </c>
       <c r="U11">
-        <v>0.9997473329590117</v>
+        <v>-0.0002526670409882525</v>
       </c>
       <c r="V11">
-        <v>0.9997473329590117</v>
+        <v>-0.0002526670409882525</v>
       </c>
       <c r="W11">
-        <v>1.000281531531532</v>
+        <v>0.0002815315315316536</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2297,7 +2297,7 @@
         <v>0.3215144785943261</v>
       </c>
       <c r="K12">
-        <v>24.32924374285447</v>
+        <v>-0.2567075625714553</v>
       </c>
       <c r="L12">
         <v>-0.02664015386033575</v>
@@ -2327,13 +2327,13 @@
         <v>-0.3977272727273089</v>
       </c>
       <c r="U12">
-        <v>0.9998953336686059</v>
+        <v>-0.0001046663313940543</v>
       </c>
       <c r="V12">
-        <v>0.9998953336686059</v>
+        <v>-0.0001046663313940543</v>
       </c>
       <c r="W12">
-        <v>1.001125809175345</v>
+        <v>0.001125809175344772</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2368,7 +2368,7 @@
         <v>0.3215144785943261</v>
       </c>
       <c r="K13">
-        <v>24.32924374285447</v>
+        <v>-0.2567075625714553</v>
       </c>
       <c r="L13">
         <v>-0.02527236155377366</v>
@@ -2398,13 +2398,13 @@
         <v>-0.4291666666666742</v>
       </c>
       <c r="U13">
-        <v>0.9999127689270153</v>
+        <v>-8.723107298469479E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999127689270153</v>
+        <v>-8.723107298469479E-05</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2439,7 +2439,7 @@
         <v>0.2570769392726044</v>
       </c>
       <c r="K14">
-        <v>20.45037429621131</v>
+        <v>-0.295496257037887</v>
       </c>
       <c r="L14">
         <v>-0.0242028806570844</v>
@@ -2469,13 +2469,13 @@
         <v>-0.4971153846154266</v>
       </c>
       <c r="U14">
-        <v>0.9998397623441508</v>
+        <v>-0.0001602376558491603</v>
       </c>
       <c r="V14">
-        <v>0.9998397623441508</v>
+        <v>-0.0001602376558491603</v>
       </c>
       <c r="W14">
-        <v>0.9988754568456565</v>
+        <v>-0.001124543154343516</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2510,7 +2510,7 @@
         <v>0.3098187232944615</v>
       </c>
       <c r="K15">
-        <v>23.65355738045982</v>
+        <v>-0.2634644261954018</v>
       </c>
       <c r="L15">
         <v>-0.02310823017562195</v>
@@ -2540,13 +2540,13 @@
         <v>-0.4928571428571331</v>
       </c>
       <c r="U15">
-        <v>0.9998826964987991</v>
+        <v>-0.0001173035012008716</v>
       </c>
       <c r="V15">
-        <v>0.9998826964987991</v>
+        <v>-0.0001173035012008716</v>
       </c>
       <c r="W15">
-        <v>1.000281452293836</v>
+        <v>0.0002814522938361375</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2581,7 +2581,7 @@
         <v>0.3098187232944615</v>
       </c>
       <c r="K16">
-        <v>23.65355738045982</v>
+        <v>-0.2634644261954018</v>
       </c>
       <c r="L16">
         <v>-0.02197938360417348</v>
@@ -2611,13 +2611,13 @@
         <v>-0.4691666666666947</v>
       </c>
       <c r="U16">
-        <v>0.9998983250387972</v>
+        <v>-0.0001016749612028356</v>
       </c>
       <c r="V16">
-        <v>0.9998983250387972</v>
+        <v>-0.0001016749612028356</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2652,7 +2652,7 @@
         <v>0.3682583731802089</v>
       </c>
       <c r="K17">
-        <v>26.9143884224348</v>
+        <v>-0.230856115775652</v>
       </c>
       <c r="L17">
         <v>-0.02069419712902913</v>
@@ -2682,13 +2682,13 @@
         <v>-0.4437500000000227</v>
       </c>
       <c r="U17">
-        <v>0.9999285861461806</v>
+        <v>-7.141385381936871E-05</v>
       </c>
       <c r="V17">
-        <v>0.9996253699471772</v>
+        <v>-0.0003746300528227886</v>
       </c>
       <c r="W17">
-        <v>1.000281373100732</v>
+        <v>0.0002813731007316189</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2723,7 +2723,7 @@
         <v>0.4297737941125747</v>
       </c>
       <c r="K18">
-        <v>30.0588663662929</v>
+        <v>-0.199411336337071</v>
       </c>
       <c r="L18">
         <v>-0.01921036559669916</v>
@@ -2753,13 +2753,13 @@
         <v>-0.2749999999999773</v>
       </c>
       <c r="U18">
-        <v>0.9999535122526206</v>
+        <v>-4.648774737936456E-05</v>
       </c>
       <c r="V18">
-        <v>0.9997376606828317</v>
+        <v>-0.0002623393171683475</v>
       </c>
       <c r="W18">
-        <v>1.00028129395218</v>
+        <v>0.0002812939521801283</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2794,7 +2794,7 @@
         <v>0.5592799434438341</v>
       </c>
       <c r="K19">
-        <v>35.86783411121196</v>
+        <v>-0.1413216588878804</v>
       </c>
       <c r="L19">
         <v>-0.01740927845590611</v>
@@ -2824,13 +2824,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U19">
-        <v>0.9999898984889976</v>
+        <v>-1.010151100244716E-05</v>
       </c>
       <c r="V19">
-        <v>0.9997938221622432</v>
+        <v>-0.0002061778377567824</v>
       </c>
       <c r="W19">
-        <v>1.000562429696288</v>
+        <v>0.0005624296962878361</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2865,7 +2865,7 @@
         <v>0.5592799434438341</v>
       </c>
       <c r="K20">
-        <v>35.86783411121196</v>
+        <v>-0.1413216588878804</v>
       </c>
       <c r="L20">
         <v>-0.01549210726286226</v>
@@ -2895,13 +2895,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U20">
-        <v>0.9999909617146451</v>
+        <v>-9.038285354923126E-06</v>
       </c>
       <c r="V20">
-        <v>0.9999250107797003</v>
+        <v>-7.498922029969268E-05</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2936,7 +2936,7 @@
         <v>0.4890960671941137</v>
       </c>
       <c r="K21">
-        <v>32.84516546442244</v>
+        <v>-0.1715483453557756</v>
       </c>
       <c r="L21">
         <v>-0.01381251495120588</v>
@@ -2966,13 +2966,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U21">
-        <v>0.9999637643648409</v>
+        <v>-3.623563515908756E-05</v>
       </c>
       <c r="V21">
-        <v>0.9998687590228174</v>
+        <v>-0.000131240977182645</v>
       </c>
       <c r="W21">
-        <v>0.9994378864530635</v>
+        <v>-0.0005621135469364713</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3007,7 +3007,7 @@
         <v>0.4890960671941137</v>
       </c>
       <c r="K22">
-        <v>32.84516546442244</v>
+        <v>-0.1715483453557756</v>
       </c>
       <c r="L22">
         <v>-0.01233156881287798</v>
@@ -3037,13 +3037,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U22">
-        <v>0.9999672141896987</v>
+        <v>-3.278581030130567E-05</v>
       </c>
       <c r="V22">
-        <v>0.9999812488280516</v>
+        <v>-1.875117194838349E-05</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3078,7 +3078,7 @@
         <v>0.429390681273043</v>
       </c>
       <c r="K23">
-        <v>30.04012037427159</v>
+        <v>-0.1995987962572841</v>
       </c>
       <c r="L23">
         <v>-0.01124009404158087</v>
@@ -3108,13 +3108,13 @@
         <v>0.06875000000007958</v>
       </c>
       <c r="U23">
-        <v>0.9999446455184161</v>
+        <v>-5.535448158389134E-05</v>
       </c>
       <c r="V23">
-        <v>0.9999812484764385</v>
+        <v>-1.875152356145549E-05</v>
       </c>
       <c r="W23">
-        <v>0.9994375703037119</v>
+        <v>-0.0005624296962880582</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3149,7 +3149,7 @@
         <v>0.4936395874381538</v>
       </c>
       <c r="K24">
-        <v>33.04944456412204</v>
+        <v>-0.1695055543587796</v>
       </c>
       <c r="L24">
         <v>-0.01029613854003237</v>
@@ -3179,13 +3179,13 @@
         <v>0.08125000000006821</v>
       </c>
       <c r="U24">
-        <v>0.9999616755451654</v>
+        <v>-3.832445483464841E-05</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.000281373100732</v>
+        <v>0.0002813731007316189</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3220,7 +3220,7 @@
         <v>0.5612700149803758</v>
       </c>
       <c r="K25">
-        <v>35.94958012355285</v>
+        <v>-0.1405041987644715</v>
       </c>
       <c r="L25">
         <v>-0.009354318022192132</v>
@@ -3250,13 +3250,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U25">
-        <v>0.999976578602211</v>
+        <v>-2.342139778899188E-05</v>
       </c>
       <c r="V25">
-        <v>1.00007500750075</v>
+        <v>7.500750075029039E-05</v>
       </c>
       <c r="W25">
-        <v>1.00028129395218</v>
+        <v>0.0002812939521801283</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3291,7 +3291,7 @@
         <v>0.4368677015647613</v>
       </c>
       <c r="K26">
-        <v>30.40417020223981</v>
+        <v>-0.1959582979776019</v>
       </c>
       <c r="L26">
         <v>-0.00886986619754182</v>
@@ -3321,13 +3321,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U26">
-        <v>0.999933481672327</v>
+        <v>-6.651832767301524E-05</v>
       </c>
       <c r="V26">
-        <v>0.9999812495312381</v>
+        <v>-1.875046876187447E-05</v>
       </c>
       <c r="W26">
-        <v>0.998875140607424</v>
+        <v>-0.001124859392576005</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3362,7 +3362,7 @@
         <v>0.4368677015647613</v>
       </c>
       <c r="K27">
-        <v>30.40417020223981</v>
+        <v>-0.1959582979776019</v>
       </c>
       <c r="L27">
         <v>-0.008653744602790595</v>
@@ -3392,13 +3392,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U27">
-        <v>0.9999385943821643</v>
+        <v>-6.140561783574139E-05</v>
       </c>
       <c r="V27">
-        <v>0.9999062458982579</v>
+        <v>-9.375410174206067E-05</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3433,7 +3433,7 @@
         <v>0.3507317450413612</v>
       </c>
       <c r="K28">
-        <v>25.96605479429384</v>
+        <v>-0.2403394520570616</v>
       </c>
       <c r="L28">
         <v>-0.009001245969756218</v>
@@ -3463,13 +3463,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U28">
-        <v>0.9999014951119954</v>
+        <v>-9.850488800455803E-05</v>
       </c>
       <c r="V28">
-        <v>0.9998312267936843</v>
+        <v>-0.0001687732063156977</v>
       </c>
       <c r="W28">
-        <v>0.9988738738738739</v>
+        <v>-0.001126126126126059</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3504,7 +3504,7 @@
         <v>0.3334312985983919</v>
       </c>
       <c r="K29">
-        <v>25.0055101413077</v>
+        <v>-0.249944898586923</v>
       </c>
       <c r="L29">
         <v>-0.009732272395955251</v>
@@ -3534,13 +3534,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U29">
-        <v>0.9998984819141624</v>
+        <v>-0.0001015180858375819</v>
       </c>
       <c r="V29">
-        <v>0.9998874655363205</v>
+        <v>-0.0001125344636795367</v>
       </c>
       <c r="W29">
-        <v>0.9997181510710259</v>
+        <v>-0.0002818489289740933</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3575,7 +3575,7 @@
         <v>0.3169731454742075</v>
       </c>
       <c r="K30">
-        <v>24.06830743386752</v>
+        <v>-0.2593169256613248</v>
       </c>
       <c r="L30">
         <v>-0.01071238317476638</v>
@@ -3605,13 +3605,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U30">
-        <v>0.9998957785463772</v>
+        <v>-0.0001042214536227659</v>
       </c>
       <c r="V30">
-        <v>0.9998499371611864</v>
+        <v>-0.0001500628388135805</v>
       </c>
       <c r="W30">
-        <v>0.9997180716098112</v>
+        <v>-0.0002819283901888125</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3646,7 +3646,7 @@
         <v>0.5767623701585439</v>
       </c>
       <c r="K31">
-        <v>36.57890250770953</v>
+        <v>-0.1342109749229047</v>
       </c>
       <c r="L31">
         <v>-0.01121520109544164</v>
@@ -3676,13 +3676,13 @@
         <v>-0.2500000000000568</v>
       </c>
       <c r="U31">
-        <v>0.9999495806467252</v>
+        <v>-5.041935327476654E-05</v>
       </c>
       <c r="V31">
-        <v>0.9999437179896065</v>
+        <v>-5.628201039353797E-05</v>
       </c>
       <c r="W31">
-        <v>1.001410039481105</v>
+        <v>0.001410039481105407</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3717,7 +3717,7 @@
         <v>0.5198938178026831</v>
       </c>
       <c r="K32">
-        <v>34.20593015861435</v>
+        <v>-0.1579406984138565</v>
       </c>
       <c r="L32">
         <v>-0.01156586523874143</v>
@@ -3747,13 +3747,13 @@
         <v>-0.2937499999999886</v>
       </c>
       <c r="U32">
-        <v>0.9997562941716814</v>
+        <v>-0.0002437058283185634</v>
       </c>
       <c r="V32">
-        <v>0.9998874296435272</v>
+        <v>-0.0001125703564728298</v>
       </c>
       <c r="W32">
-        <v>0.9994367783722894</v>
+        <v>-0.0005632216277106084</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3788,7 +3788,7 @@
         <v>0.5198938178026832</v>
       </c>
       <c r="K33">
-        <v>34.20593015861435</v>
+        <v>-0.1579406984138565</v>
       </c>
       <c r="L33">
         <v>-0.01175959296377718</v>
@@ -3818,13 +3818,13 @@
         <v>-0.3437499999999432</v>
       </c>
       <c r="U33">
-        <v>0.9998031126945433</v>
+        <v>-0.0001968873054567499</v>
       </c>
       <c r="V33">
-        <v>0.9998686531316847</v>
+        <v>-0.0001313468683152852</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3859,7 +3859,7 @@
         <v>0.5745196478133719</v>
       </c>
       <c r="K34">
-        <v>36.48856644064373</v>
+        <v>-0.1351143355935627</v>
       </c>
       <c r="L34">
         <v>-0.01169932894815409</v>
@@ -3889,13 +3889,13 @@
         <v>-0.3312499999999545</v>
       </c>
       <c r="U34">
-        <v>0.9998218287868416</v>
+        <v>-0.0001781712131584401</v>
       </c>
       <c r="V34">
-        <v>0.9998498695741925</v>
+        <v>-0.0001501304258074709</v>
       </c>
       <c r="W34">
-        <v>1.000281769512539</v>
+        <v>0.0002817695125387765</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3930,7 +3930,7 @@
         <v>0.4670878174336399</v>
       </c>
       <c r="K35">
-        <v>31.837754487711</v>
+        <v>-0.18162245512289</v>
       </c>
       <c r="L35">
         <v>-0.01186084076788963</v>
@@ -3960,13 +3960,13 @@
         <v>-0.3312500000000114</v>
       </c>
       <c r="U35">
-        <v>0.9998499343462764</v>
+        <v>-0.0001500656537235523</v>
       </c>
       <c r="V35">
-        <v>0.9997747705474953</v>
+        <v>-0.0002252294525046938</v>
       </c>
       <c r="W35">
-        <v>0.9988732394366198</v>
+        <v>-0.001126760563380236</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4001,7 +4001,7 @@
         <v>0.4451809122761222</v>
       </c>
       <c r="K36">
-        <v>30.80451094354505</v>
+        <v>-0.1919548905645495</v>
       </c>
       <c r="L36">
         <v>-0.01220530905747244</v>
@@ -4031,13 +4031,13 @@
         <v>-0.2874999999999659</v>
       </c>
       <c r="U36">
-        <v>0.9998311508010957</v>
+        <v>-0.0001688491989042529</v>
       </c>
       <c r="V36">
-        <v>0.9997934931571142</v>
+        <v>-0.0002065068428858119</v>
       </c>
       <c r="W36">
-        <v>0.9997179921037789</v>
+        <v>-0.0002820078962211259</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4072,7 +4072,7 @@
         <v>0.3717653988529607</v>
       </c>
       <c r="K37">
-        <v>27.10123751217392</v>
+        <v>-0.2289876248782607</v>
       </c>
       <c r="L37">
         <v>-0.01300601609454632</v>
@@ -4102,13 +4102,13 @@
         <v>-0.2687500000000682</v>
       </c>
       <c r="U37">
-        <v>0.999849886476648</v>
+        <v>-0.0001501135233520356</v>
       </c>
       <c r="V37">
-        <v>0.9997183415953131</v>
+        <v>-0.0002816584046868575</v>
       </c>
       <c r="W37">
-        <v>0.9988716502115657</v>
+        <v>-0.001128349788434346</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4143,7 +4143,7 @@
         <v>0.3563026479891871</v>
       </c>
       <c r="K38">
-        <v>26.27014321010363</v>
+        <v>-0.2372985678989638</v>
       </c>
       <c r="L38">
         <v>-0.01408623104889117</v>
@@ -4173,13 +4173,13 @@
         <v>-0.2437500000000341</v>
       </c>
       <c r="U38">
-        <v>0.9998592474429951</v>
+        <v>-0.0001407525570048529</v>
       </c>
       <c r="V38">
-        <v>0.9997370447587386</v>
+        <v>-0.0002629552412614089</v>
       </c>
       <c r="W38">
-        <v>0.9997175939000281</v>
+        <v>-0.0002824060999718769</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4214,7 +4214,7 @@
         <v>0.4438663637455135</v>
       </c>
       <c r="K39">
-        <v>30.7415128498517</v>
+        <v>-0.192584871501483</v>
       </c>
       <c r="L39">
         <v>-0.0150085648339277</v>
@@ -4244,13 +4244,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U39">
-        <v>0.9998779972784008</v>
+        <v>-0.0001220027215992348</v>
       </c>
       <c r="V39">
-        <v>0.9997557630525862</v>
+        <v>-0.0002442369474138228</v>
       </c>
       <c r="W39">
-        <v>1.000564971751412</v>
+        <v>0.0005649717514124575</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4285,7 +4285,7 @@
         <v>0.3747780329125287</v>
       </c>
       <c r="K40">
-        <v>27.26098496922771</v>
+        <v>-0.2273901503077229</v>
       </c>
       <c r="L40">
         <v>-0.01613345998595006</v>
@@ -4315,13 +4315,13 @@
         <v>-0.3125000000000568</v>
       </c>
       <c r="U40">
-        <v>0.9998685964220684</v>
+        <v>-0.0001314035779316214</v>
       </c>
       <c r="V40">
-        <v>0.9996617431502988</v>
+        <v>-0.000338256849701235</v>
       </c>
       <c r="W40">
-        <v>0.9988706945228685</v>
+        <v>-0.001129305477131526</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4356,7 +4356,7 @@
         <v>0.4157388742330247</v>
       </c>
       <c r="K41">
-        <v>29.36550530607214</v>
+        <v>-0.2063449469392786</v>
       </c>
       <c r="L41">
         <v>-0.01714721796303699</v>
@@ -4386,13 +4386,13 @@
         <v>-0.3312500000000114</v>
       </c>
       <c r="U41">
-        <v>0.9998685791528987</v>
+        <v>-0.0001314208471012712</v>
       </c>
       <c r="V41">
-        <v>0.9997556207233625</v>
+        <v>-0.000244379276637452</v>
       </c>
       <c r="W41">
-        <v>1.000282645562464</v>
+        <v>0.0002826455624644897</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4427,7 +4427,7 @@
         <v>0.3420076998882152</v>
       </c>
       <c r="K42">
-        <v>25.48477925400154</v>
+        <v>-0.2451522074599846</v>
       </c>
       <c r="L42">
         <v>-0.01848079352095836</v>
@@ -4457,13 +4457,13 @@
         <v>-0.4187499999999886</v>
       </c>
       <c r="U42">
-        <v>0.999784065944383</v>
+        <v>-0.0002159340556170397</v>
       </c>
       <c r="V42">
-        <v>0.9996615459827388</v>
+        <v>-0.0003384540172611805</v>
       </c>
       <c r="W42">
-        <v>0.9985871715173777</v>
+        <v>-0.001412828482622253</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4498,7 +4498,7 @@
         <v>0.3296978427895425</v>
       </c>
       <c r="K43">
-        <v>24.7949445490471</v>
+        <v>-0.252050554509529</v>
       </c>
       <c r="L43">
         <v>-0.01995838515830342</v>
@@ -4528,13 +4528,13 @@
         <v>-0.4625000000000341</v>
       </c>
       <c r="U43">
-        <v>0.999774628841874</v>
+        <v>-0.000225371158126042</v>
       </c>
       <c r="V43">
-        <v>0.9997178594940279</v>
+        <v>-0.0002821405059720838</v>
       </c>
       <c r="W43">
-        <v>0.9997170345217884</v>
+        <v>-0.0002829654782116053</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4569,7 +4569,7 @@
         <v>0.40547241931885</v>
       </c>
       <c r="K44">
-        <v>28.8495465115821</v>
+        <v>-0.211504534884179</v>
       </c>
       <c r="L44">
         <v>-0.02115078832211826</v>
@@ -4599,13 +4599,13 @@
         <v>-0.5062500000000227</v>
       </c>
       <c r="U44">
-        <v>0.999830933528699</v>
+        <v>-0.0001690664713009937</v>
       </c>
       <c r="V44">
-        <v>0.9997742238946379</v>
+        <v>-0.0002257761053621188</v>
       </c>
       <c r="W44">
-        <v>1.000566091140674</v>
+        <v>0.0005660911406735192</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4640,7 +4640,7 @@
         <v>0.40547241931885</v>
       </c>
       <c r="K45">
-        <v>28.8495465115821</v>
+        <v>-0.211504534884179</v>
       </c>
       <c r="L45">
         <v>-0.02201764978005663</v>
@@ -4670,13 +4670,13 @@
         <v>-0.5062500000000227</v>
       </c>
       <c r="U45">
-        <v>0.9998215107704157</v>
+        <v>-0.0001784892295842999</v>
       </c>
       <c r="V45">
-        <v>0.9997929918325869</v>
+        <v>-0.0002070081674131474</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4711,7 +4711,7 @@
         <v>0.3891363303203983</v>
       </c>
       <c r="K46">
-        <v>28.01282507892121</v>
+        <v>-0.2198717492107879</v>
       </c>
       <c r="L46">
         <v>-0.02265489817923844</v>
@@ -4741,13 +4741,13 @@
         <v>-0.5062500000000227</v>
       </c>
       <c r="U46">
-        <v>0.9998120830592878</v>
+        <v>-0.000187916940712185</v>
       </c>
       <c r="V46">
-        <v>0.9996800120466053</v>
+        <v>-0.0003199879533947181</v>
       </c>
       <c r="W46">
-        <v>0.9997171145685997</v>
+        <v>-0.0002828854314003149</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4782,7 +4782,7 @@
         <v>0.3452151261395492</v>
       </c>
       <c r="K47">
-        <v>25.66244754697603</v>
+        <v>-0.2433755245302398</v>
       </c>
       <c r="L47">
         <v>-0.023338495555531</v>
@@ -4812,13 +4812,13 @@
         <v>-0.5187500000000114</v>
       </c>
       <c r="U47">
-        <v>0.999774457287849</v>
+        <v>-0.0002255427121510278</v>
       </c>
       <c r="V47">
-        <v>0.9996610807757484</v>
+        <v>-0.0003389192242515549</v>
       </c>
       <c r="W47">
-        <v>0.9991511035653652</v>
+        <v>-0.000848896434634816</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4853,7 +4853,7 @@
         <v>0.4640239931196403</v>
       </c>
       <c r="K48">
-        <v>31.69510850234545</v>
+        <v>-0.1830489149765455</v>
       </c>
       <c r="L48">
         <v>-0.02361359297868947</v>
@@ -4883,13 +4883,13 @@
         <v>-0.4750000000000227</v>
       </c>
       <c r="U48">
-        <v>0.9997932058729533</v>
+        <v>-0.0002067941270467166</v>
       </c>
       <c r="V48">
-        <v>0.9997174715588036</v>
+        <v>-0.0002825284411963613</v>
       </c>
       <c r="W48">
-        <v>1.000849617672047</v>
+        <v>0.0008496176720473869</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4924,7 +4924,7 @@
         <v>0.5473986366144726</v>
       </c>
       <c r="K49">
-        <v>35.37541158832327</v>
+        <v>-0.1462458841167673</v>
       </c>
       <c r="L49">
         <v>-0.02333232544330774</v>
@@ -4954,13 +4954,13 @@
         <v>-0.4312500000000341</v>
       </c>
       <c r="U49">
-        <v>0.9997931631002971</v>
+        <v>-0.0002068368997029113</v>
       </c>
       <c r="V49">
-        <v>0.99973623226633</v>
+        <v>-0.000263767733669984</v>
       </c>
       <c r="W49">
-        <v>1.000565930956423</v>
+        <v>0.0005659309564234327</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4995,7 +4995,7 @@
         <v>0.5243877716087219</v>
       </c>
       <c r="K50">
-        <v>34.39989360812854</v>
+        <v>-0.1560010639187147</v>
       </c>
       <c r="L50">
         <v>-0.02274980368795898</v>
@@ -5025,13 +5025,13 @@
         <v>-0.3250000000000455</v>
       </c>
       <c r="U50">
-        <v>0.9997837166876681</v>
+        <v>-0.0002162833123319219</v>
       </c>
       <c r="V50">
-        <v>0.9997926992442946</v>
+        <v>-0.0002073007557054085</v>
       </c>
       <c r="W50">
-        <v>0.9997171945701356</v>
+        <v>-0.0002828054298643634</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5066,7 +5066,7 @@
         <v>0.5686369924576362</v>
       </c>
       <c r="K51">
-        <v>36.25038776923994</v>
+        <v>-0.1374961223076006</v>
       </c>
       <c r="L51">
         <v>-0.0218363058602188</v>
@@ -5096,13 +5096,13 @@
         <v>-0.2249999999999659</v>
       </c>
       <c r="U51">
-        <v>0.9998118868687628</v>
+        <v>-0.0001881131312372331</v>
       </c>
       <c r="V51">
-        <v>0.9998303551232752</v>
+        <v>-0.0001696448767247727</v>
       </c>
       <c r="W51">
-        <v>1.0002828854314</v>
+        <v>0.0002828854314003149</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5137,7 +5137,7 @@
         <v>0.4989206271423801</v>
       </c>
       <c r="K52">
-        <v>33.2853266615957</v>
+        <v>-0.167146733384043</v>
       </c>
       <c r="L52">
         <v>-0.02100940211730866</v>
@@ -5167,13 +5167,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U52">
-        <v>0.999783629196888</v>
+        <v>-0.0002163708031119871</v>
       </c>
       <c r="V52">
-        <v>0.9998491789680071</v>
+        <v>-0.0001508210319929315</v>
       </c>
       <c r="W52">
-        <v>0.9991515837104072</v>
+        <v>-0.0008484162895927572</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5208,7 +5208,7 @@
         <v>0.4783430501055163</v>
       </c>
       <c r="K53">
-        <v>32.35670165130988</v>
+        <v>-0.1764329834869012</v>
       </c>
       <c r="L53">
         <v>-0.02031408551556489</v>
@@ -5238,13 +5238,13 @@
         <v>-0.1562499999999432</v>
       </c>
       <c r="U53">
-        <v>0.9997929918325869</v>
+        <v>-0.0002070081674131474</v>
       </c>
       <c r="V53">
-        <v>0.9998491562175922</v>
+        <v>-0.0001508437824078168</v>
       </c>
       <c r="W53">
-        <v>0.9997169544296631</v>
+        <v>-0.0002830455703368706</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5279,7 +5279,7 @@
         <v>0.4783430501055163</v>
       </c>
       <c r="K54">
-        <v>32.35670165130988</v>
+        <v>-0.1764329834869012</v>
       </c>
       <c r="L54">
         <v>-0.01966896526155995</v>
@@ -5309,13 +5309,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U54">
-        <v>0.999783537560939</v>
+        <v>-0.0002164624390610381</v>
       </c>
       <c r="V54">
-        <v>0.9998114168253909</v>
+        <v>-0.0001885831746091249</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5350,7 +5350,7 @@
         <v>0.4783430501055162</v>
       </c>
       <c r="K55">
-        <v>32.35670165130986</v>
+        <v>-0.1764329834869014</v>
       </c>
       <c r="L55">
         <v>-0.01902385631192943</v>
@@ -5380,13 +5380,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U55">
-        <v>0.9997740772467547</v>
+        <v>-0.000225922753245289</v>
       </c>
       <c r="V55">
-        <v>0.9998868287530415</v>
+        <v>-0.0001131712469585322</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5421,7 +5421,7 @@
         <v>0.4363606259092663</v>
       </c>
       <c r="K56">
-        <v>30.3796009190265</v>
+        <v>-0.196203990809735</v>
       </c>
       <c r="L56">
         <v>-0.01855640667896765</v>
@@ -5451,13 +5451,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U56">
-        <v>0.9997928573446193</v>
+        <v>-0.0002071426553806877</v>
       </c>
       <c r="V56">
-        <v>0.999830223915791</v>
+        <v>-0.0001697760842089835</v>
       </c>
       <c r="W56">
-        <v>0.9994337485843715</v>
+        <v>-0.0005662514156284937</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5492,7 +5492,7 @@
         <v>0.4825534424036224</v>
       </c>
       <c r="K57">
-        <v>32.54880590484967</v>
+        <v>-0.1745119409515033</v>
       </c>
       <c r="L57">
         <v>-0.0180561003884457</v>
@@ -5522,13 +5522,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U57">
-        <v>0.9998022319536658</v>
+        <v>-0.0001977680463342013</v>
       </c>
       <c r="V57">
-        <v>0.9999433983623262</v>
+        <v>-5.660163767384763E-05</v>
       </c>
       <c r="W57">
-        <v>1.00028328611898</v>
+        <v>0.0002832861189803193</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5563,7 +5563,7 @@
         <v>0.5311774597660748</v>
       </c>
       <c r="K58">
-        <v>34.69078364353831</v>
+        <v>-0.1530921635646169</v>
       </c>
       <c r="L58">
         <v>-0.0173992157348596</v>
@@ -5593,13 +5593,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U58">
-        <v>0.9998492897780792</v>
+        <v>-0.0001507102219208134</v>
       </c>
       <c r="V58">
-        <v>0.9999811317194662</v>
+        <v>-1.88682805337681E-05</v>
       </c>
       <c r="W58">
-        <v>1.000283205890683</v>
+        <v>0.0002832058906825363</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5634,7 +5634,7 @@
         <v>0.6847269882791408</v>
       </c>
       <c r="K59">
-        <v>40.64320172009312</v>
+        <v>-0.09356798279906881</v>
       </c>
       <c r="L59">
         <v>-0.01631726428831022</v>
@@ -5664,13 +5664,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U59">
-        <v>0.9998869502958135</v>
+        <v>-0.0001130497041864631</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>1.000849377123443</v>
+        <v>0.000849377123442796</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5705,7 +5705,7 @@
         <v>0.6181218521644304</v>
       </c>
       <c r="K60">
-        <v>38.19995702657491</v>
+        <v>-0.1180004297342508</v>
       </c>
       <c r="L60">
         <v>-0.01519301611604584</v>
@@ -5735,13 +5735,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U60">
-        <v>0.9998775156403104</v>
+        <v>-0.0001224843596896452</v>
       </c>
       <c r="V60">
-        <v>0.9999622627268954</v>
+        <v>-3.773727310463215E-05</v>
       </c>
       <c r="W60">
-        <v>0.9994342291371995</v>
+        <v>-0.0005657708628005187</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5776,7 +5776,7 @@
         <v>0.6181218521644304</v>
       </c>
       <c r="K61">
-        <v>38.19995702657491</v>
+        <v>-0.1180004297342508</v>
       </c>
       <c r="L61">
         <v>-0.01405943669701869</v>
@@ -5806,13 +5806,13 @@
         <v>-0.08125000000006821</v>
       </c>
       <c r="U61">
-        <v>0.9998303854960755</v>
+        <v>-0.0001696145039244978</v>
       </c>
       <c r="V61">
-        <v>0.99998113065137</v>
+        <v>-1.886934863004619E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5847,7 +5847,7 @@
         <v>0.7259030643840927</v>
       </c>
       <c r="K62">
-        <v>42.05931835709088</v>
+        <v>-0.0794068164290912</v>
       </c>
       <c r="L62">
         <v>-0.01273533070431136</v>
@@ -5877,13 +5877,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U62">
-        <v>0.9998680552283116</v>
+        <v>-0.0001319447716884303</v>
       </c>
       <c r="V62">
-        <v>1.000075478818756</v>
+        <v>7.547881875646922E-05</v>
       </c>
       <c r="W62">
-        <v>1.000566091140674</v>
+        <v>0.0005660911406735192</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5918,7 +5918,7 @@
         <v>0.7259030643840927</v>
       </c>
       <c r="K63">
-        <v>42.05931835709088</v>
+        <v>-0.0794068164290912</v>
       </c>
       <c r="L63">
         <v>-0.01133370303442302</v>
@@ -5948,13 +5948,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U63">
-        <v>0.9998680378165915</v>
+        <v>-0.0001319621834084961</v>
       </c>
       <c r="V63">
-        <v>1.000018868280533</v>
+        <v>1.886828053332401E-05</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5989,7 +5989,7 @@
         <v>0.785615647331291</v>
       </c>
       <c r="K64">
-        <v>43.99690652943372</v>
+        <v>-0.06003093470566279</v>
       </c>
       <c r="L64">
         <v>-0.009830120714825356</v>
@@ -6019,13 +6019,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U64">
-        <v>0.9998680204002752</v>
+        <v>-0.0001319795997247741</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1.0002828854314</v>
+        <v>0.0002828854314003149</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6060,7 +6060,7 @@
         <v>0.9741816987434245</v>
       </c>
       <c r="K65">
-        <v>49.34610119035626</v>
+        <v>-0.006538988096437326</v>
       </c>
       <c r="L65">
         <v>-0.00801578374761531</v>
@@ -6090,13 +6090,13 @@
         <v>0.1062499999999318</v>
       </c>
       <c r="U65">
-        <v>0.9999340014896807</v>
+        <v>-6.599851031929838E-05</v>
       </c>
       <c r="V65">
-        <v>1.000075471698113</v>
+        <v>7.547169811328303E-05</v>
       </c>
       <c r="W65">
-        <v>1.000848416289593</v>
+        <v>0.0008484162895925351</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6131,7 +6131,7 @@
         <v>1.172672279177287</v>
       </c>
       <c r="K66">
-        <v>53.97373043399513</v>
+        <v>0.03973730433995126</v>
       </c>
       <c r="L66">
         <v>-0.005790538915807133</v>
@@ -6161,13 +6161,13 @@
         <v>0.1875</v>
       </c>
       <c r="U66">
-        <v>0.9999717130572526</v>
+        <v>-2.828694274736865E-05</v>
       </c>
       <c r="V66">
-        <v>1.000113199003849</v>
+        <v>0.0001131990038487629</v>
       </c>
       <c r="W66">
-        <v>1.000847697089573</v>
+        <v>0.0008476970895734404</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6202,7 +6202,7 @@
         <v>0.8270632860973277</v>
       </c>
       <c r="K67">
-        <v>45.2673584101164</v>
+        <v>-0.04732641589883602</v>
       </c>
       <c r="L67">
         <v>-0.004054901111603918</v>
@@ -6232,13 +6232,13 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="U67">
-        <v>0.9999528537617982</v>
+        <v>-4.714623820178954E-05</v>
       </c>
       <c r="V67">
-        <v>1.000056593095642</v>
+        <v>5.659309564221005E-05</v>
       </c>
       <c r="W67">
-        <v>0.9983060417843027</v>
+        <v>-0.001693958215697289</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6273,7 +6273,7 @@
         <v>0.8270632860973277</v>
       </c>
       <c r="K68">
-        <v>45.2673584101164</v>
+        <v>-0.04732641589883602</v>
       </c>
       <c r="L68">
         <v>-0.00271177232782691</v>
@@ -6303,13 +6303,13 @@
         <v>0.21875</v>
       </c>
       <c r="U68">
-        <v>0.9999622812311406</v>
+        <v>-3.771876885938497E-05</v>
       </c>
       <c r="V68">
-        <v>1.000075453190727</v>
+        <v>7.545319072699286E-05</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6344,7 +6344,7 @@
         <v>0.7843726750892859</v>
       </c>
       <c r="K69">
-        <v>43.95789545757518</v>
+        <v>-0.06042104542424825</v>
       </c>
       <c r="L69">
         <v>-0.001785180010897175</v>
@@ -6374,13 +6374,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U69">
-        <v>0.9999339896646677</v>
+        <v>-6.601033533226719E-05</v>
       </c>
       <c r="V69">
-        <v>1.000056585623479</v>
+        <v>5.658562347909957E-05</v>
       </c>
       <c r="W69">
-        <v>0.9997171945701356</v>
+        <v>-0.0002828054298643634</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6415,7 +6415,7 @@
         <v>0.784372675089286</v>
       </c>
       <c r="K70">
-        <v>43.95789545757518</v>
+        <v>-0.06042104542424814</v>
       </c>
       <c r="L70">
         <v>-0.001163507449378384</v>
@@ -6445,13 +6445,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U70">
-        <v>0.9999717079887208</v>
+        <v>-2.829201127918513E-05</v>
       </c>
       <c r="V70">
-        <v>1.000056582421728</v>
+        <v>5.658242172779104E-05</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6486,7 +6486,7 @@
         <v>0.6694996571154077</v>
       </c>
       <c r="K71">
-        <v>40.10181459229417</v>
+        <v>-0.09898185407705834</v>
       </c>
       <c r="L71">
         <v>-0.001070943503337804</v>
@@ -6516,13 +6516,13 @@
         <v>0.1687500000000455</v>
       </c>
       <c r="U71">
-        <v>0.9999339834392743</v>
+        <v>-6.601656072569018E-05</v>
       </c>
       <c r="V71">
-        <v>1.000037719480225</v>
+        <v>3.771948022546212E-05</v>
       </c>
       <c r="W71">
-        <v>0.9991513437057992</v>
+        <v>-0.0008486562942008335</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6557,7 +6557,7 @@
         <v>0.6694996571154077</v>
       </c>
       <c r="K72">
-        <v>40.10181459229417</v>
+        <v>-0.09898185407705834</v>
       </c>
       <c r="L72">
         <v>-0.00130093846485194</v>
@@ -6587,13 +6587,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U72">
-        <v>0.9999811368802286</v>
+        <v>-1.88631197713951E-05</v>
       </c>
       <c r="V72">
-        <v>1.00001885902876</v>
+        <v>1.885902875975454E-05</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6628,7 +6628,7 @@
         <v>0.6694996571154076</v>
       </c>
       <c r="K73">
-        <v>40.10181459229416</v>
+        <v>-0.0989818540770584</v>
       </c>
       <c r="L73">
         <v>-0.00170696540304167</v>
@@ -6658,13 +6658,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U73">
-        <v>0.9999905682622021</v>
+        <v>-9.431737797882533E-06</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6699,7 +6699,7 @@
         <v>0.7833759970828328</v>
       </c>
       <c r="K74">
-        <v>43.92657512292665</v>
+        <v>-0.06073424877073352</v>
       </c>
       <c r="L74">
         <v>-0.001981563331156198</v>
@@ -6729,13 +6729,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U74">
-        <v>0.9999905681732438</v>
+        <v>-9.431826756167716E-06</v>
       </c>
       <c r="V74">
-        <v>0.9999811413268961</v>
+        <v>-1.885867310391642E-05</v>
       </c>
       <c r="W74">
-        <v>1.000566251415629</v>
+        <v>0.0005662514156286047</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6770,7 +6770,7 @@
         <v>0.7390793391422839</v>
       </c>
       <c r="K75">
-        <v>42.49831060075722</v>
+        <v>-0.07501689399242778</v>
       </c>
       <c r="L75">
         <v>-0.002254829894275544</v>
@@ -6800,13 +6800,13 @@
         <v>-0.125</v>
       </c>
       <c r="U75">
-        <v>0.9999811361685672</v>
+        <v>-1.886383143279158E-05</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.9997170345217884</v>
+        <v>-0.0002829654782116053</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6841,7 +6841,7 @@
         <v>0.6975592572019067</v>
       </c>
       <c r="K76">
-        <v>41.09189439146273</v>
+        <v>-0.0890810560853727</v>
       </c>
       <c r="L76">
         <v>-0.0026046793749984</v>
@@ -6871,13 +6871,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U76">
-        <v>0.9999811358127164</v>
+        <v>-1.886418728358485E-05</v>
       </c>
       <c r="V76">
-        <v>0.9999811409712398</v>
+        <v>-1.885902876019863E-05</v>
       </c>
       <c r="W76">
-        <v>0.9997169544296631</v>
+        <v>-0.0002830455703368706</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6912,7 +6912,7 @@
         <v>0.6975592572019066</v>
       </c>
       <c r="K77">
-        <v>41.09189439146272</v>
+        <v>-0.08908105608537276</v>
       </c>
       <c r="L77">
         <v>-0.002969165065932785</v>
@@ -6942,13 +6942,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U77">
-        <v>1.000009432271574</v>
+        <v>9.432271574016937E-06</v>
       </c>
       <c r="V77">
-        <v>0.9999434218467109</v>
+        <v>-5.657815328907745E-05</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6983,7 +6983,7 @@
         <v>0.6975592572019066</v>
       </c>
       <c r="K78">
-        <v>41.09189439146272</v>
+        <v>-0.08908105608537276</v>
       </c>
       <c r="L78">
         <v>-0.00330849833275026</v>
@@ -7013,13 +7013,13 @@
         <v>-0.2187499999999432</v>
       </c>
       <c r="U78">
-        <v>0.9999811356347859</v>
+        <v>-1.886436521414403E-05</v>
       </c>
       <c r="V78">
-        <v>0.9999434186454422</v>
+        <v>-5.658135455777202E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7054,7 +7054,7 @@
         <v>0.6975592572019066</v>
       </c>
       <c r="K79">
-        <v>41.09189439146272</v>
+        <v>-0.08908105608537276</v>
       </c>
       <c r="L79">
         <v>-0.003598940289879189</v>
@@ -7084,13 +7084,13 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="U79">
-        <v>0.9999622705578298</v>
+        <v>-3.772944217017571E-05</v>
       </c>
       <c r="V79">
-        <v>0.9999245539250823</v>
+        <v>-7.544607491771771E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7125,7 +7125,7 @@
         <v>0.6525514864971587</v>
       </c>
       <c r="K80">
-        <v>39.48751320785433</v>
+        <v>-0.1051248679214566</v>
       </c>
       <c r="L80">
         <v>-0.003931181201119134</v>
@@ -7155,13 +7155,13 @@
         <v>-0.1812500000000341</v>
       </c>
       <c r="U80">
-        <v>0.9999622691342653</v>
+        <v>-3.773086573466422E-05</v>
       </c>
       <c r="V80">
-        <v>0.9998490964650845</v>
+        <v>-0.0001509035349155363</v>
       </c>
       <c r="W80">
-        <v>0.9997168742921858</v>
+        <v>-0.0002831257078141913</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7196,7 +7196,7 @@
         <v>0.6110503680993634</v>
       </c>
       <c r="K81">
-        <v>37.92869423568986</v>
+        <v>-0.1207130576431014</v>
       </c>
       <c r="L81">
         <v>-0.004356305885056493</v>
@@ -7226,13 +7226,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U81">
-        <v>0.99994340156589</v>
+        <v>-5.659843410998899E-05</v>
       </c>
       <c r="V81">
-        <v>0.9997736105346565</v>
+        <v>-0.0002263894653434795</v>
       </c>
       <c r="W81">
-        <v>0.9997167941093175</v>
+        <v>-0.0002832058906825363</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7267,7 +7267,7 @@
         <v>0.6779958715440836</v>
       </c>
       <c r="K82">
-        <v>40.40509771458467</v>
+        <v>-0.0959490228541533</v>
       </c>
       <c r="L82">
         <v>-0.004691765304734894</v>
@@ -7297,13 +7297,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U82">
-        <v>0.9999811327874418</v>
+        <v>-1.886721255817125E-05</v>
       </c>
       <c r="V82">
-        <v>0.9999056496961922</v>
+        <v>-9.435030380777754E-05</v>
       </c>
       <c r="W82">
-        <v>1.00028328611898</v>
+        <v>0.0002832861189803193</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7338,7 +7338,7 @@
         <v>0.7484648225384858</v>
       </c>
       <c r="K83">
-        <v>42.80697060017695</v>
+        <v>-0.07193029399823048</v>
       </c>
       <c r="L83">
         <v>-0.0048314344369346</v>
@@ -7368,13 +7368,13 @@
         <v>-0.1062500000000455</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V83">
-        <v>0.9999245126346977</v>
+        <v>-7.548736530227362E-05</v>
       </c>
       <c r="W83">
-        <v>1.000283205890683</v>
+        <v>0.0002832058906825363</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7409,7 +7409,7 @@
         <v>0.8968205088425324</v>
       </c>
       <c r="K84">
-        <v>47.28019887289101</v>
+        <v>-0.02719801127108995</v>
       </c>
       <c r="L84">
         <v>-0.004619926869413196</v>
@@ -7439,13 +7439,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U84">
-        <v>1.000018867568536</v>
+        <v>1.886756853619609E-05</v>
       </c>
       <c r="V84">
-        <v>0.9999811267339812</v>
+        <v>-1.887326601879291E-05</v>
       </c>
       <c r="W84">
-        <v>1.000566251415629</v>
+        <v>0.0005662514156286047</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7480,7 +7480,7 @@
         <v>0.7266141752003019</v>
       </c>
       <c r="K85">
-        <v>42.08318138683232</v>
+        <v>-0.07916818613167675</v>
       </c>
       <c r="L85">
         <v>-0.004501402117130023</v>
@@ -7510,13 +7510,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U85">
-        <v>0.999990566393721</v>
+        <v>-9.433606279030116E-06</v>
       </c>
       <c r="V85">
-        <v>0.9999245055110978</v>
+        <v>-7.549448890220578E-05</v>
       </c>
       <c r="W85">
-        <v>0.9991511035653652</v>
+        <v>-0.000848896434634816</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7551,7 +7551,7 @@
         <v>0.7932066761381859</v>
       </c>
       <c r="K86">
-        <v>44.23397964625137</v>
+        <v>-0.0576602035374863</v>
       </c>
       <c r="L86">
         <v>-0.004327344647624191</v>
@@ -7581,13 +7581,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U86">
-        <v>1.000018867390546</v>
+        <v>1.886739054568487E-05</v>
       </c>
       <c r="V86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>1.000283205890683</v>
+        <v>0.0002832058906825363</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7622,7 +7622,7 @@
         <v>0.6956764920362842</v>
       </c>
       <c r="K87">
-        <v>41.02648679176229</v>
+        <v>-0.0897351320823771</v>
       </c>
       <c r="L87">
         <v>-0.004321071946932117</v>
@@ -7652,13 +7652,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U87">
-        <v>0.9999905664827131</v>
+        <v>-9.433517286883131E-06</v>
       </c>
       <c r="V87">
-        <v>0.9999622499056248</v>
+        <v>-3.775009437523291E-05</v>
       </c>
       <c r="W87">
-        <v>0.9994337485843715</v>
+        <v>-0.0005662514156284937</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7693,7 +7693,7 @@
         <v>0.6956764920362842</v>
       </c>
       <c r="K88">
-        <v>41.02648679176229</v>
+        <v>-0.0897351320823771</v>
       </c>
       <c r="L88">
         <v>-0.004401141505984252</v>
@@ -7723,13 +7723,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U88">
-        <v>0.9999811327874421</v>
+        <v>-1.886721255794921E-05</v>
       </c>
       <c r="V88">
-        <v>0.9999622484805012</v>
+        <v>-3.775151949880762E-05</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7764,7 +7764,7 @@
         <v>0.6956764920362842</v>
       </c>
       <c r="K89">
-        <v>41.02648679176229</v>
+        <v>-0.0897351320823771</v>
       </c>
       <c r="L89">
         <v>-0.004512415354786438</v>
@@ -7794,13 +7794,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U89">
-        <v>0.999952831078659</v>
+        <v>-4.716892134104533E-05</v>
       </c>
       <c r="V89">
-        <v>0.9999244941105407</v>
+        <v>-7.550588945925973E-05</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7835,7 +7835,7 @@
         <v>0.6956764920362843</v>
       </c>
       <c r="K90">
-        <v>41.02648679176229</v>
+        <v>-0.0897351320823771</v>
       </c>
       <c r="L90">
         <v>-0.004619092315553206</v>
@@ -7865,13 +7865,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U90">
-        <v>0.9999716973121882</v>
+        <v>-2.830268781184309E-05</v>
       </c>
       <c r="V90">
-        <v>0.9999433663067281</v>
+        <v>-5.663369327191248E-05</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7906,7 +7906,7 @@
         <v>0.7711558619902397</v>
       </c>
       <c r="K91">
-        <v>43.53969509626868</v>
+        <v>-0.06460304903731318</v>
       </c>
       <c r="L91">
         <v>-0.004596318175105116</v>
@@ -7936,13 +7936,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U91">
-        <v>0.9999811310074153</v>
+        <v>-1.886899258474184E-05</v>
       </c>
       <c r="V91">
-        <v>0.9999811210330571</v>
+        <v>-1.887896694285907E-05</v>
       </c>
       <c r="W91">
-        <v>1.00028328611898</v>
+        <v>0.0002832861189803193</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7977,7 +7977,7 @@
         <v>0.8506078303627791</v>
       </c>
       <c r="K92">
-        <v>45.9636999480345</v>
+        <v>-0.04036300051965497</v>
       </c>
       <c r="L92">
         <v>-0.004376760171555006</v>
@@ -8007,13 +8007,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U92">
-        <v>0.999971695977055</v>
+        <v>-2.830402294495826E-05</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>1.000283205890683</v>
+        <v>0.0002832058906825363</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8048,7 +8048,7 @@
         <v>0.9342414812812891</v>
       </c>
       <c r="K93">
-        <v>48.30014712860075</v>
+        <v>-0.01699852871399249</v>
       </c>
       <c r="L93">
         <v>-0.003932944573522255</v>
@@ -8078,13 +8078,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U93">
-        <v>0.9999811301172762</v>
+        <v>-1.88698827238154E-05</v>
       </c>
       <c r="V93">
-        <v>1.000018879323365</v>
+        <v>1.887932336508413E-05</v>
       </c>
       <c r="W93">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8119,7 +8119,7 @@
         <v>0.9342414812812893</v>
       </c>
       <c r="K94">
-        <v>48.30014712860075</v>
+        <v>-0.01699852871399249</v>
       </c>
       <c r="L94">
         <v>-0.003367198986277525</v>
@@ -8149,13 +8149,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U94">
-        <v>0.9999716946417957</v>
+        <v>-2.83053582043058E-05</v>
       </c>
       <c r="V94">
-        <v>1.000018878966943</v>
+        <v>1.887896694285907E-05</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8190,7 +8190,7 @@
         <v>1.026910346564904</v>
       </c>
       <c r="K95">
-        <v>50.66382676003678</v>
+        <v>0.006638267600367787</v>
       </c>
       <c r="L95">
         <v>-0.002648273051563142</v>
@@ -8220,13 +8220,13 @@
         <v>0.01250000000004547</v>
       </c>
       <c r="U95">
-        <v>0.9999528230676329</v>
+        <v>-4.717693236711007E-05</v>
       </c>
       <c r="V95">
-        <v>1.000056635831603</v>
+        <v>5.663583160298025E-05</v>
       </c>
       <c r="W95">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8261,7 +8261,7 @@
         <v>0.8592727987197328</v>
       </c>
       <c r="K96">
-        <v>46.21553111041129</v>
+        <v>-0.0378446888958871</v>
       </c>
       <c r="L96">
         <v>-0.002078866659770684</v>
@@ -8291,13 +8291,13 @@
         <v>0.03125</v>
       </c>
       <c r="U96">
-        <v>0.9999056416837301</v>
+        <v>-9.435831626991575E-05</v>
       </c>
       <c r="V96">
-        <v>1.000037755082778</v>
+        <v>3.775508277792383E-05</v>
       </c>
       <c r="W96">
-        <v>0.9994340690435767</v>
+        <v>-0.0005659309564233217</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8332,7 +8332,7 @@
         <v>0.7912868564803838</v>
       </c>
       <c r="K97">
-        <v>44.17421216583627</v>
+        <v>-0.05825787834163726</v>
       </c>
       <c r="L97">
         <v>-0.001731851310706795</v>
@@ -8362,13 +8362,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U97">
-        <v>0.9999528163896986</v>
+        <v>-4.71836103014267E-05</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>0.9997168742921858</v>
+        <v>-0.0002831257078141913</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8403,7 +8403,7 @@
         <v>0.8745714080596461</v>
       </c>
       <c r="K98">
-        <v>46.65447281973152</v>
+        <v>-0.03345527180268476</v>
       </c>
       <c r="L98">
         <v>-0.001432293100467438</v>
@@ -8433,13 +8433,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U98">
-        <v>0.9999622513306407</v>
+        <v>-3.774866935934984E-05</v>
       </c>
       <c r="V98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98">
-        <v>1.000283205890683</v>
+        <v>0.0002832058906825363</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8474,7 +8474,7 @@
         <v>0.8040794148976791</v>
       </c>
       <c r="K99">
-        <v>44.57006760665708</v>
+        <v>-0.05429932393342918</v>
       </c>
       <c r="L99">
         <v>-0.00127845037728649</v>
@@ -8504,13 +8504,13 @@
         <v>0.06249999999994316</v>
       </c>
       <c r="U99">
-        <v>0.9999622499056248</v>
+        <v>-3.775009437523291E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999433695139217</v>
+        <v>-5.663048607829069E-05</v>
       </c>
       <c r="W99">
-        <v>0.9997168742921858</v>
+        <v>-0.0002831257078141913</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8545,7 +8545,7 @@
         <v>0.8040794148976791</v>
       </c>
       <c r="K100">
-        <v>44.57006760665708</v>
+        <v>-0.05429932393342918</v>
       </c>
       <c r="L100">
         <v>-0.001218038700341097</v>
@@ -8575,13 +8575,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U100">
-        <v>0.9999622484805014</v>
+        <v>-3.775151949858557E-05</v>
       </c>
       <c r="V100">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8616,7 +8616,7 @@
         <v>0.8933888422672532</v>
       </c>
       <c r="K101">
-        <v>47.18464703729096</v>
+        <v>-0.02815352962709033</v>
       </c>
       <c r="L101">
         <v>-0.001110554033085947</v>
@@ -8646,13 +8646,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U101">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W101">
-        <v>1.000283205890683</v>
+        <v>0.0002832058906825363</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8687,7 +8687,7 @@
         <v>0.893388842267253</v>
       </c>
       <c r="K102">
-        <v>47.18464703729096</v>
+        <v>-0.02815352962709033</v>
       </c>
       <c r="L102">
         <v>-0.000977355024887156</v>
@@ -8717,13 +8717,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U102">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V102">
-        <v>1.000037755795515</v>
+        <v>3.775579551468233E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8758,7 +8758,7 @@
         <v>0.8933888422672531</v>
       </c>
       <c r="K103">
-        <v>47.18464703729096</v>
+        <v>-0.02815352962709033</v>
       </c>
       <c r="L103">
         <v>-0.0008335054410833069</v>
@@ -8788,13 +8788,13 @@
         <v>0</v>
       </c>
       <c r="U103">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V103">
-        <v>1.000037754370068</v>
+        <v>3.775437006825477E-05</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8829,7 +8829,7 @@
         <v>0.9975549625409077</v>
       </c>
       <c r="K104">
-        <v>49.93879924445277</v>
+        <v>-0.0006120075554722493</v>
       </c>
       <c r="L104">
         <v>-0.000586237729022844</v>
@@ -8859,13 +8859,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U104">
-        <v>0.9999905617638177</v>
+        <v>-9.438236182268689E-06</v>
       </c>
       <c r="V104">
-        <v>1.000056629417095</v>
+        <v>5.662941709472236E-05</v>
       </c>
       <c r="W104">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8900,7 +8900,7 @@
         <v>0.9975549625409077</v>
       </c>
       <c r="K105">
-        <v>49.93879924445277</v>
+        <v>-0.0006120075554722493</v>
       </c>
       <c r="L105">
         <v>-0.0002899361374980245</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="U105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V105">
-        <v>1.000056626210385</v>
+        <v>5.662621038493576E-05</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8971,7 +8971,7 @@
         <v>0.9975549625409077</v>
       </c>
       <c r="K106">
-        <v>49.93879924445277</v>
+        <v>-0.0006120075554722493</v>
       </c>
       <c r="L106">
         <v>1.824617166157681E-05</v>
@@ -9001,13 +9001,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U106">
-        <v>1.000009438325264</v>
+        <v>9.438325263566583E-06</v>
       </c>
       <c r="V106">
-        <v>1.000037748669359</v>
+        <v>3.774866935946086E-05</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9042,7 +9042,7 @@
         <v>1.119049198171286</v>
       </c>
       <c r="K107">
-        <v>52.80902393096923</v>
+        <v>0.02809023930969234</v>
       </c>
       <c r="L107">
         <v>0.000417017328450137</v>
@@ -9072,13 +9072,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U107">
-        <v>1.000018876472365</v>
+        <v>1.887647236475942E-05</v>
       </c>
       <c r="V107">
-        <v>1.000037747244451</v>
+        <v>3.774724445126942E-05</v>
       </c>
       <c r="W107">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9113,7 +9113,7 @@
         <v>0.9921628161044502</v>
       </c>
       <c r="K108">
-        <v>49.8032996140628</v>
+        <v>-0.001967003859371985</v>
       </c>
       <c r="L108">
         <v>0.0007406391343054753</v>
@@ -9143,13 +9143,13 @@
         <v>0.03125</v>
       </c>
       <c r="U108">
-        <v>1.000009438058025</v>
+        <v>9.438058025112994E-06</v>
       </c>
       <c r="V108">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W108">
-        <v>0.9997170345217884</v>
+        <v>-0.0002829654782116053</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9184,7 +9184,7 @@
         <v>0.9921628161044503</v>
       </c>
       <c r="K109">
-        <v>49.8032996140628</v>
+        <v>-0.001967003859371985</v>
       </c>
       <c r="L109">
         <v>0.0009954106678139647</v>
@@ -9214,13 +9214,13 @@
         <v>0.04375000000004547</v>
       </c>
       <c r="U109">
-        <v>1.000009437968949</v>
+        <v>9.437968949033149E-06</v>
       </c>
       <c r="V109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9255,7 +9255,7 @@
         <v>0.9921628161044505</v>
       </c>
       <c r="K110">
-        <v>49.8032996140628</v>
+        <v>-0.001967003859371985</v>
       </c>
       <c r="L110">
         <v>0.001188608443437547</v>
@@ -9285,13 +9285,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U110">
-        <v>1.000018875759749</v>
+        <v>1.887575974923728E-05</v>
       </c>
       <c r="V110">
-        <v>0.9999811270901749</v>
+        <v>-1.887290982505174E-05</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9326,7 +9326,7 @@
         <v>0.9921628161044505</v>
       </c>
       <c r="K111">
-        <v>49.8032996140628</v>
+        <v>-0.001967003859371985</v>
       </c>
       <c r="L111">
         <v>0.001327861631325025</v>
@@ -9356,13 +9356,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U111">
-        <v>1.000028313105192</v>
+        <v>2.831310519235686E-05</v>
       </c>
       <c r="V111">
-        <v>1.000018873266019</v>
+        <v>1.887326601868189E-05</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9397,7 +9397,7 @@
         <v>0.9921628161044502</v>
       </c>
       <c r="K112">
-        <v>49.8032996140628</v>
+        <v>-0.001967003859371985</v>
       </c>
       <c r="L112">
         <v>0.001420723240265162</v>
@@ -9427,13 +9427,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U112">
-        <v>1.000018874869056</v>
+        <v>1.887486905594038E-05</v>
       </c>
       <c r="V112">
-        <v>1.000037745819651</v>
+        <v>3.774581965054757E-05</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9468,7 +9468,7 @@
         <v>0.9921628161044501</v>
       </c>
       <c r="K113">
-        <v>49.8032996140628</v>
+        <v>-0.001967003859371985</v>
       </c>
       <c r="L113">
         <v>0.001474387658117297</v>
@@ -9498,13 +9498,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U113">
-        <v>1.000009437256401</v>
+        <v>9.437256400568472E-06</v>
       </c>
       <c r="V113">
-        <v>1.000018872197479</v>
+        <v>1.887219747875868E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9539,7 +9539,7 @@
         <v>0.9921628161044502</v>
       </c>
       <c r="K114">
-        <v>49.8032996140628</v>
+        <v>-0.001967003859371985</v>
       </c>
       <c r="L114">
         <v>0.001495516185404836</v>
@@ -9569,13 +9569,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U114">
-        <v>0.9999905628326603</v>
+        <v>-9.437167339698682E-06</v>
       </c>
       <c r="V114">
-        <v>1.000037743682651</v>
+        <v>3.77436826510813E-05</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9610,7 +9610,7 @@
         <v>1.154530874365742</v>
       </c>
       <c r="K115">
-        <v>53.5861838000171</v>
+        <v>0.03586183800017106</v>
       </c>
       <c r="L115">
         <v>0.00159322910331155</v>
@@ -9640,13 +9640,13 @@
         <v>0.03125</v>
       </c>
       <c r="U115">
-        <v>1.000028311769202</v>
+        <v>2.831176920237155E-05</v>
       </c>
       <c r="V115">
-        <v>1.000056613387179</v>
+        <v>5.661338717910525E-05</v>
       </c>
       <c r="W115">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9681,7 +9681,7 @@
         <v>1.154530874365742</v>
       </c>
       <c r="K116">
-        <v>53.5861838000171</v>
+        <v>0.03586183800017106</v>
       </c>
       <c r="L116">
         <v>0.001725304812134215</v>
@@ -9711,13 +9711,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U116">
-        <v>1.000018873978446</v>
+        <v>1.887397844568817E-05</v>
       </c>
       <c r="V116">
-        <v>1.000037740121523</v>
+        <v>3.774012152324424E-05</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9752,7 +9752,7 @@
         <v>2.233986109344269</v>
       </c>
       <c r="K117">
-        <v>69.07840769289011</v>
+        <v>0.1907840769289011</v>
       </c>
       <c r="L117">
         <v>0.002482001799588239</v>
@@ -9782,13 +9782,13 @@
         <v>0.0625</v>
       </c>
       <c r="U117">
-        <v>1.000094368111128</v>
+        <v>9.436811112806254E-05</v>
       </c>
       <c r="V117">
-        <v>1.000150954789041</v>
+        <v>0.0001509547890405916</v>
       </c>
       <c r="W117">
-        <v>1.00169779286927</v>
+        <v>0.001697792869270076</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9823,7 +9823,7 @@
         <v>2.612742332143717</v>
       </c>
       <c r="K118">
-        <v>72.32019590484818</v>
+        <v>0.2232019590484817</v>
       </c>
       <c r="L118">
         <v>0.003765961361764902</v>
@@ -9853,13 +9853,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U118">
-        <v>1.000113231047953</v>
+        <v>0.0001132310479534659</v>
       </c>
       <c r="V118">
-        <v>1.000188665006415</v>
+        <v>0.0001886650064146789</v>
       </c>
       <c r="W118">
-        <v>1.000564971751412</v>
+        <v>0.0005649717514124575</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9894,7 +9894,7 @@
         <v>3.011433092985241</v>
       </c>
       <c r="K119">
-        <v>75.07125317012786</v>
+        <v>0.2507125317012786</v>
       </c>
       <c r="L119">
         <v>0.00547986526397057</v>
@@ -9924,13 +9924,13 @@
         <v>0.1749999999999545</v>
       </c>
       <c r="U119">
-        <v>1.000132087932824</v>
+        <v>0.0001320879328237101</v>
       </c>
       <c r="V119">
-        <v>1.000207492360509</v>
+        <v>0.0002074923605086543</v>
       </c>
       <c r="W119">
-        <v>1.000564652738566</v>
+        <v>0.0005646527385656519</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9965,7 +9965,7 @@
         <v>3.22127033553347</v>
       </c>
       <c r="K120">
-        <v>76.31044873903762</v>
+        <v>0.2631044873903763</v>
       </c>
       <c r="L120">
         <v>0.007427952953210273</v>
@@ -9995,13 +9995,13 @@
         <v>0.25</v>
       </c>
       <c r="U120">
-        <v>1.000141504094185</v>
+        <v>0.0001415040941852297</v>
       </c>
       <c r="V120">
-        <v>1.00022630834512</v>
+        <v>0.0002263083451203851</v>
       </c>
       <c r="W120">
-        <v>1.000282167042889</v>
+        <v>0.0002821670428894141</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10036,7 +10036,7 @@
         <v>3.883914259369861</v>
       </c>
       <c r="K121">
-        <v>79.52462007125769</v>
+        <v>0.2952462007125769</v>
       </c>
       <c r="L121">
         <v>0.009675662099335245</v>
@@ -10066,13 +10066,13 @@
         <v>0.34375</v>
       </c>
       <c r="U121">
-        <v>1.000160348616757</v>
+        <v>0.0001603486167573998</v>
       </c>
       <c r="V121">
-        <v>1.000282821426551</v>
+        <v>0.0002828214265511164</v>
       </c>
       <c r="W121">
-        <v>1.000846262341326</v>
+        <v>0.0008462623413258985</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10107,7 +10107,7 @@
         <v>3.883914259369861</v>
       </c>
       <c r="K122">
-        <v>79.52462007125769</v>
+        <v>0.2952462007125769</v>
       </c>
       <c r="L122">
         <v>0.01192602874914167</v>
@@ -10137,13 +10137,13 @@
         <v>0.4375</v>
       </c>
       <c r="U122">
-        <v>1.000150892149836</v>
+        <v>0.0001508921498361016</v>
       </c>
       <c r="V122">
-        <v>1.000263892030461</v>
+        <v>0.0002638920304605108</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10178,7 +10178,7 @@
         <v>3.883914259369861</v>
       </c>
       <c r="K123">
-        <v>79.52462007125769</v>
+        <v>0.2952462007125769</v>
       </c>
       <c r="L123">
         <v>0.01399075064137425</v>
@@ -10208,13 +10208,13 @@
         <v>0.5250000000000341</v>
       </c>
       <c r="U123">
-        <v>1.000141440048278</v>
+        <v>0.0001414400482779854</v>
       </c>
       <c r="V123">
-        <v>1.000282666867674</v>
+        <v>0.0002826668676743083</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10249,7 +10249,7 @@
         <v>3.088292610568739</v>
       </c>
       <c r="K124">
-        <v>75.53991127213162</v>
+        <v>0.2553991127213162</v>
       </c>
       <c r="L124">
         <v>0.01565704380515016</v>
@@ -10279,13 +10279,13 @@
         <v>0.5999999999999659</v>
       </c>
       <c r="U124">
-        <v>1.000131992042765</v>
+        <v>0.000131992042765372</v>
       </c>
       <c r="V124">
-        <v>1.000263747857049</v>
+        <v>0.0002637478570486351</v>
       </c>
       <c r="W124">
-        <v>0.9997181510710259</v>
+        <v>-0.0002818489289740933</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10320,7 +10320,7 @@
         <v>3.30392468081895</v>
       </c>
       <c r="K125">
-        <v>76.76539265529804</v>
+        <v>0.2676539265529805</v>
       </c>
       <c r="L125">
         <v>0.01702145914079495</v>
@@ -10350,13 +10350,13 @@
         <v>0.6062499999999886</v>
       </c>
       <c r="U125">
-        <v>1.000131974623165</v>
+        <v>0.0001319746231651653</v>
       </c>
       <c r="V125">
-        <v>1.000282512477634</v>
+        <v>0.0002825124776344445</v>
       </c>
       <c r="W125">
-        <v>1.000281928390189</v>
+        <v>0.0002819283901889236</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10391,7 +10391,7 @@
         <v>1.547574108152883</v>
       </c>
       <c r="K126">
-        <v>60.74697113619791</v>
+        <v>0.107469711361979</v>
       </c>
       <c r="L126">
         <v>0.01753876986505495</v>
@@ -10421,13 +10421,13 @@
         <v>0.5562500000000341</v>
       </c>
       <c r="U126">
-        <v>1.000103680663556</v>
+        <v>0.0001036806635561494</v>
       </c>
       <c r="V126">
-        <v>1.000188288457918</v>
+        <v>0.0001882884579176292</v>
       </c>
       <c r="W126">
-        <v>0.9985907553551296</v>
+        <v>-0.001409244644870356</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10462,7 +10462,7 @@
         <v>1.547574108152883</v>
       </c>
       <c r="K127">
-        <v>60.74697113619791</v>
+        <v>0.107469711361979</v>
       </c>
       <c r="L127">
         <v>0.01744611668716907</v>
@@ -10492,13 +10492,13 @@
         <v>0.4812499999999886</v>
       </c>
       <c r="U127">
-        <v>1.000113094452717</v>
+        <v>0.0001130944527172328</v>
       </c>
       <c r="V127">
-        <v>1.000188253012048</v>
+        <v>0.0001882530120482784</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10533,7 +10533,7 @@
         <v>1.783184178643477</v>
       </c>
       <c r="K128">
-        <v>64.0699308485075</v>
+        <v>0.1406993084850749</v>
       </c>
       <c r="L128">
         <v>0.0171323156946367</v>
@@ -10563,13 +10563,13 @@
         <v>0.40625</v>
       </c>
       <c r="U128">
-        <v>1.000122505135792</v>
+        <v>0.0001225051357922613</v>
       </c>
       <c r="V128">
-        <v>1.000225861095426</v>
+        <v>0.0002258610954264384</v>
       </c>
       <c r="W128">
-        <v>1.000564493367203</v>
+        <v>0.0005644933672028785</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10604,7 +10604,7 @@
         <v>1.58645531140626</v>
       </c>
       <c r="K129">
-        <v>61.33704705470831</v>
+        <v>0.1133704705470832</v>
       </c>
       <c r="L129">
         <v>0.01653917766213477</v>
@@ -10634,13 +10634,13 @@
         <v>0.2874999999999659</v>
       </c>
       <c r="U129">
-        <v>1.000122490130122</v>
+        <v>0.0001224901301219994</v>
       </c>
       <c r="V129">
-        <v>1.000206992585902</v>
+        <v>0.000206992585901844</v>
       </c>
       <c r="W129">
-        <v>0.9997179125528913</v>
+        <v>-0.0002820874471086698</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10675,7 +10675,7 @@
         <v>1.42138805080561</v>
       </c>
       <c r="K130">
-        <v>58.70137379808684</v>
+        <v>0.08701373798086842</v>
       </c>
       <c r="L130">
         <v>0.01565150222811626</v>
@@ -10705,13 +10705,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U130">
-        <v>1.000113053964426</v>
+        <v>0.0001130539644256245</v>
       </c>
       <c r="V130">
-        <v>1.000169322521777</v>
+        <v>0.0001693225217767047</v>
       </c>
       <c r="W130">
-        <v>0.9997178329571107</v>
+        <v>-0.0002821670428893031</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10746,7 +10746,7 @@
         <v>1.530912101000607</v>
       </c>
       <c r="K131">
-        <v>60.48855273936043</v>
+        <v>0.1048855273936042</v>
       </c>
       <c r="L131">
         <v>0.01468796722928649</v>
@@ -10776,13 +10776,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U131">
-        <v>1.000113041184672</v>
+        <v>0.0001130411846719248</v>
       </c>
       <c r="V131">
-        <v>1.000188104285016</v>
+        <v>0.000188104285015589</v>
       </c>
       <c r="W131">
-        <v>1.000282246683601</v>
+        <v>0.0002822466836014392</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10817,7 +10817,7 @@
         <v>1.372660201231781</v>
       </c>
       <c r="K132">
-        <v>57.85321473842551</v>
+        <v>0.07853214738425507</v>
       </c>
       <c r="L132">
         <v>0.01358352376184223</v>
@@ -10847,13 +10847,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U132">
-        <v>1.000103609373822</v>
+        <v>0.0001036093738224775</v>
       </c>
       <c r="V132">
-        <v>1.000056420672534</v>
+        <v>5.642067253441851E-05</v>
       </c>
       <c r="W132">
-        <v>0.9997178329571107</v>
+        <v>-0.0002821670428893031</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10888,7 +10888,7 @@
         <v>1.237956240791597</v>
       </c>
       <c r="K133">
-        <v>55.31637385160465</v>
+        <v>0.0531637385160465</v>
       </c>
       <c r="L133">
         <v>0.01231182292557588</v>
@@ -10918,13 +10918,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U133">
-        <v>1.000094180581848</v>
+        <v>9.418058184773592E-05</v>
       </c>
       <c r="V133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>0.9997177533163984</v>
+        <v>-0.0002822466836015503</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10959,7 +10959,7 @@
         <v>1.122050216028366</v>
       </c>
       <c r="K134">
-        <v>52.87576173048335</v>
+        <v>0.0287576173048335</v>
       </c>
       <c r="L134">
         <v>0.0108722289827575</v>
@@ -10989,13 +10989,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U134">
-        <v>1.000075337370161</v>
+        <v>7.5337370160522E-05</v>
       </c>
       <c r="V134">
-        <v>0.9999435825105781</v>
+        <v>-5.64174894218672E-05</v>
       </c>
       <c r="W134">
-        <v>0.9997176736307172</v>
+        <v>-0.000282326369282826</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11030,7 +11030,7 @@
         <v>1.122050216028366</v>
       </c>
       <c r="K135">
-        <v>52.87576173048335</v>
+        <v>0.0287576173048335</v>
       </c>
       <c r="L135">
         <v>0.00938317197520442</v>
@@ -11060,13 +11060,13 @@
         <v>-0.1687499999999318</v>
       </c>
       <c r="U135">
-        <v>1.000075331694869</v>
+        <v>7.533169486895197E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999247724366207</v>
+        <v>-7.52275633792987E-05</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11101,7 +11101,7 @@
         <v>0.8557265462550048</v>
       </c>
       <c r="K136">
-        <v>46.11275017765549</v>
+        <v>-0.03887249822344513</v>
       </c>
       <c r="L136">
         <v>0.007616399926337172</v>
@@ -11131,13 +11131,13 @@
         <v>-0.2124999999999204</v>
       </c>
       <c r="U136">
-        <v>1.00004707876277</v>
+        <v>4.707876277021406E-05</v>
       </c>
       <c r="V136">
-        <v>0.999811916942522</v>
+        <v>-0.0001880830574779724</v>
       </c>
       <c r="W136">
-        <v>0.9991527817000847</v>
+        <v>-0.0008472182999152977</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11172,7 +11172,7 @@
         <v>0.9390088275111815</v>
       </c>
       <c r="K137">
-        <v>48.42725902988529</v>
+        <v>-0.01572740970114705</v>
       </c>
       <c r="L137">
         <v>0.005869186636903024</v>
@@ -11202,13 +11202,13 @@
         <v>-0.2187500000000568</v>
       </c>
       <c r="U137">
-        <v>1.000047076546464</v>
+        <v>4.707654646440851E-05</v>
       </c>
       <c r="V137">
-        <v>0.9998306934045676</v>
+        <v>-0.0001693065954323503</v>
       </c>
       <c r="W137">
-        <v>1.000282645562464</v>
+        <v>0.0002826455624644897</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11243,7 +11243,7 @@
         <v>0.9390088275111816</v>
       </c>
       <c r="K138">
-        <v>48.42725902988529</v>
+        <v>-0.01572740970114705</v>
       </c>
       <c r="L138">
         <v>0.004223820815925585</v>
@@ -11273,13 +11273,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U138">
-        <v>1.000056489196441</v>
+        <v>5.648919644118955E-05</v>
       </c>
       <c r="V138">
-        <v>0.9998306647349902</v>
+        <v>-0.0001693352650098401</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11314,7 +11314,7 @@
         <v>0.9390088275111819</v>
       </c>
       <c r="K139">
-        <v>48.4272590298853</v>
+        <v>-0.015727409701147</v>
       </c>
       <c r="L139">
         <v>0.002729626979198913</v>
@@ -11344,13 +11344,13 @@
         <v>-0.2187499999999432</v>
       </c>
       <c r="U139">
-        <v>1.000056486005592</v>
+        <v>5.648600559204908E-05</v>
       </c>
       <c r="V139">
-        <v>0.999849454271735</v>
+        <v>-0.0001505457282650058</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11385,7 +11385,7 @@
         <v>0.9390088275111816</v>
       </c>
       <c r="K140">
-        <v>48.42725902988529</v>
+        <v>-0.01572740970114705</v>
       </c>
       <c r="L140">
         <v>0.001412278299158276</v>
@@ -11415,13 +11415,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U140">
-        <v>1.000056482815104</v>
+        <v>5.648281510350905E-05</v>
       </c>
       <c r="V140">
-        <v>0.9998306105548447</v>
+        <v>-0.0001693894451553213</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11456,7 +11456,7 @@
         <v>0.9390088275111816</v>
       </c>
       <c r="K141">
-        <v>48.42725902988529</v>
+        <v>-0.01572740970114705</v>
       </c>
       <c r="L141">
         <v>0.0002808483625811389</v>
@@ -11486,13 +11486,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U141">
-        <v>1.000056479624976</v>
+        <v>5.647962497556946E-05</v>
       </c>
       <c r="V141">
-        <v>0.999924703047644</v>
+        <v>-7.529695235597433E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11527,7 +11527,7 @@
         <v>0.9390088275111815</v>
       </c>
       <c r="K142">
-        <v>48.42725902988529</v>
+        <v>-0.01572740970114705</v>
       </c>
       <c r="L142">
         <v>-0.0006668951783947424</v>
@@ -11557,13 +11557,13 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="U142">
-        <v>1.000056476435207</v>
+        <v>5.647643520712009E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999246973775863</v>
+        <v>-7.530262241373098E-05</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11598,7 +11598,7 @@
         <v>0.9390088275111815</v>
       </c>
       <c r="K143">
-        <v>48.42725902988529</v>
+        <v>-0.01572740970114705</v>
       </c>
       <c r="L143">
         <v>-0.001440557408838452</v>
@@ -11628,13 +11628,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U143">
-        <v>1.0000564732458</v>
+        <v>5.647324579993729E-05</v>
       </c>
       <c r="V143">
-        <v>0.9998870375600113</v>
+        <v>-0.0001129624399887064</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11669,7 +11669,7 @@
         <v>0.8389565776174869</v>
       </c>
       <c r="K144">
-        <v>45.62133700320543</v>
+        <v>-0.04378662996794569</v>
       </c>
       <c r="L144">
         <v>-0.002157054767400774</v>
@@ -11699,13 +11699,13 @@
         <v>-0.1562500000000568</v>
       </c>
       <c r="U144">
-        <v>1.000047058380627</v>
+        <v>4.705838062690759E-05</v>
       </c>
       <c r="V144">
-        <v>0.9998870247980569</v>
+        <v>-0.0001129752019430885</v>
       </c>
       <c r="W144">
-        <v>0.9997174343034757</v>
+        <v>-0.0002825656965242951</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11740,7 +11740,7 @@
         <v>0.7543495891371154</v>
       </c>
       <c r="K145">
-        <v>42.99881812655969</v>
+        <v>-0.0700118187344031</v>
       </c>
       <c r="L145">
         <v>-0.002888258875393877</v>
@@ -11770,13 +11770,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U145">
-        <v>1.000028233699744</v>
+        <v>2.823369974414014E-05</v>
       </c>
       <c r="V145">
-        <v>0.9998870120332183</v>
+        <v>-0.0001129879667817191</v>
       </c>
       <c r="W145">
-        <v>0.9997173544375353</v>
+        <v>-0.0002826455624647117</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11811,7 +11811,7 @@
         <v>0.7543495891371154</v>
       </c>
       <c r="K146">
-        <v>42.99881812655969</v>
+        <v>-0.0700118187344031</v>
       </c>
       <c r="L146">
         <v>-0.003571295510283709</v>
@@ -11841,13 +11841,13 @@
         <v>-0.125</v>
       </c>
       <c r="U146">
-        <v>1.000028232902625</v>
+        <v>2.823290262488065E-05</v>
       </c>
       <c r="V146">
-        <v>0.9998681658097446</v>
+        <v>-0.0001318341902554199</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11882,7 +11882,7 @@
         <v>0.7543495891371155</v>
       </c>
       <c r="K147">
-        <v>42.99881812655969</v>
+        <v>-0.0700118187344031</v>
       </c>
       <c r="L147">
         <v>-0.004168657072368454</v>
@@ -11912,13 +11912,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U147">
-        <v>0.9999717678944494</v>
+        <v>-2.82321055505852E-05</v>
       </c>
       <c r="V147">
-        <v>0.9998869843661706</v>
+        <v>-0.000113015633829372</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11953,7 +11953,7 @@
         <v>0.989597585612686</v>
       </c>
       <c r="K148">
-        <v>49.73857994042271</v>
+        <v>-0.002614200595772886</v>
       </c>
       <c r="L148">
         <v>-0.004455227087301189</v>
@@ -11983,13 +11983,13 @@
         <v>-0.08125000000006821</v>
       </c>
       <c r="U148">
-        <v>0.9999717670973751</v>
+        <v>-2.823290262488065E-05</v>
       </c>
       <c r="V148">
-        <v>0.9999434857960968</v>
+        <v>-5.651420390317963E-05</v>
       </c>
       <c r="W148">
-        <v>1.00056545094713</v>
+        <v>0.0005654509471302305</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12024,7 +12024,7 @@
         <v>0.8805700395306161</v>
       </c>
       <c r="K149">
-        <v>46.82463407480444</v>
+        <v>-0.03175365925195561</v>
       </c>
       <c r="L149">
         <v>-0.004621865169620236</v>
@@ -12054,13 +12054,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U149">
-        <v>0.9999435326005122</v>
+        <v>-5.646739948783619E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999434826020609</v>
+        <v>-5.651739793910426E-05</v>
       </c>
       <c r="W149">
-        <v>0.9997174343034757</v>
+        <v>-0.0002825656965242951</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12095,7 +12095,7 @@
         <v>1.112514497863352</v>
       </c>
       <c r="K150">
-        <v>52.66304676197848</v>
+        <v>0.02663046761978483</v>
       </c>
       <c r="L150">
         <v>-0.004482710924653741</v>
@@ -12125,13 +12125,13 @@
         <v>-0.04999999999995453</v>
       </c>
       <c r="U150">
-        <v>0.9999529411764705</v>
+        <v>-4.705882352951107E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999811598025546</v>
+        <v>-1.884019744535781E-05</v>
       </c>
       <c r="W150">
-        <v>1.000565291124929</v>
+        <v>0.0005652911249292014</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12166,7 +12166,7 @@
         <v>0.814296312813905</v>
       </c>
       <c r="K151">
-        <v>44.88221174582901</v>
+        <v>-0.05117788254170991</v>
       </c>
       <c r="L151">
         <v>-0.004459371267379469</v>
@@ -12196,13 +12196,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U151">
-        <v>0.9998964657160337</v>
+        <v>-0.0001035342839662556</v>
       </c>
       <c r="V151">
-        <v>0.9999811594475954</v>
+        <v>-1.8840552404642E-05</v>
       </c>
       <c r="W151">
-        <v>0.9991525423728813</v>
+        <v>-0.0008474576271186862</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12237,7 +12237,7 @@
         <v>0.6853707227532562</v>
       </c>
       <c r="K152">
-        <v>40.66587330018528</v>
+        <v>-0.09334126699814715</v>
       </c>
       <c r="L152">
         <v>-0.004697180463624246</v>
@@ -12267,13 +12267,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U152">
-        <v>0.9998776286311348</v>
+        <v>-0.0001223713688651706</v>
       </c>
       <c r="V152">
-        <v>0.9999246363704876</v>
+        <v>-7.536362951243714E-05</v>
       </c>
       <c r="W152">
-        <v>0.9994345490528697</v>
+        <v>-0.0005654509471303415</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12308,7 +12308,7 @@
         <v>0.5874636524474907</v>
       </c>
       <c r="K153">
-        <v>37.00643170895673</v>
+        <v>-0.1299356829104327</v>
       </c>
       <c r="L153">
         <v>-0.00526671810082392</v>
@@ -12338,13 +12338,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U153">
-        <v>0.99985878498602</v>
+        <v>-0.0001412150139800117</v>
       </c>
       <c r="V153">
-        <v>0.9998869460355744</v>
+        <v>-0.0001130539644256245</v>
       </c>
       <c r="W153">
-        <v>0.9994342291371995</v>
+        <v>-0.0005657708628005187</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12379,7 +12379,7 @@
         <v>0.6626492932872604</v>
       </c>
       <c r="K154">
-        <v>39.85502510737679</v>
+        <v>-0.1014497489262321</v>
       </c>
       <c r="L154">
         <v>-0.005878976849943556</v>
@@ -12409,13 +12409,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U154">
-        <v>0.9998775963693198</v>
+        <v>-0.0001224036306801679</v>
       </c>
       <c r="V154">
-        <v>0.9999057777107752</v>
+        <v>-9.422228922484344E-05</v>
       </c>
       <c r="W154">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12450,7 +12450,7 @@
         <v>0.6140515469054322</v>
       </c>
       <c r="K155">
-        <v>38.04411005848809</v>
+        <v>-0.119558899415119</v>
       </c>
       <c r="L155">
         <v>-0.006559634625762197</v>
@@ -12480,13 +12480,13 @@
         <v>-0.1000000000000796</v>
       </c>
       <c r="U155">
-        <v>0.999858747751735</v>
+        <v>-0.0001412522482650003</v>
       </c>
       <c r="V155">
-        <v>0.9998869225985186</v>
+        <v>-0.0001130774014813651</v>
       </c>
       <c r="W155">
-        <v>0.9997170345217884</v>
+        <v>-0.0002829654782116053</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12521,7 +12521,7 @@
         <v>0.5700449402907796</v>
       </c>
       <c r="K156">
-        <v>36.30755564138213</v>
+        <v>-0.1369244435861787</v>
       </c>
       <c r="L156">
         <v>-0.007317436585467739</v>
@@ -12551,13 +12551,13 @@
         <v>-0.1437499999999545</v>
       </c>
       <c r="U156">
-        <v>0.9998964003842606</v>
+        <v>-0.0001035996157393582</v>
       </c>
       <c r="V156">
-        <v>0.9998680614456698</v>
+        <v>-0.0001319385543302465</v>
       </c>
       <c r="W156">
-        <v>0.9997169544296631</v>
+        <v>-0.0002830455703368706</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12592,7 +12592,7 @@
         <v>0.6454828152352285</v>
       </c>
       <c r="K157">
-        <v>39.22756343966766</v>
+        <v>-0.1077243656033234</v>
       </c>
       <c r="L157">
         <v>-0.007944260489531113</v>
@@ -12622,13 +12622,13 @@
         <v>-0.1687500000000455</v>
       </c>
       <c r="U157">
-        <v>0.9999058087729706</v>
+        <v>-9.4191227029361E-05</v>
       </c>
       <c r="V157">
-        <v>0.9998868948876488</v>
+        <v>-0.0001131051123511861</v>
       </c>
       <c r="W157">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12663,7 +12663,7 @@
         <v>0.5979969040120411</v>
       </c>
       <c r="K158">
-        <v>37.42165598135195</v>
+        <v>-0.1257834401864805</v>
       </c>
       <c r="L158">
         <v>-0.0085258290209046</v>
@@ -12693,13 +12693,13 @@
         <v>-0.2249999999999659</v>
       </c>
       <c r="U158">
-        <v>0.9998775398701923</v>
+        <v>-0.0001224601298076555</v>
       </c>
       <c r="V158">
-        <v>0.999868029109008</v>
+        <v>-0.0001319708909920392</v>
       </c>
       <c r="W158">
-        <v>0.9997169544296631</v>
+        <v>-0.0002830455703368706</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12734,7 +12734,7 @@
         <v>0.6754353245692214</v>
       </c>
       <c r="K159">
-        <v>40.31401956640049</v>
+        <v>-0.09685980433599511</v>
       </c>
       <c r="L159">
         <v>-0.008909061392476393</v>
@@ -12764,13 +12764,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U159">
-        <v>0.9998963671992764</v>
+        <v>-0.0001036328007235632</v>
       </c>
       <c r="V159">
-        <v>0.9999057226359952</v>
+        <v>-9.427736400480224E-05</v>
       </c>
       <c r="W159">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12805,7 +12805,7 @@
         <v>0.6245275098752739</v>
       </c>
       <c r="K160">
-        <v>38.44364014021672</v>
+        <v>-0.1155635985978328</v>
       </c>
       <c r="L160">
         <v>-0.00921823124992955</v>
@@ -12835,13 +12835,13 @@
         <v>-0.2374999999999545</v>
       </c>
       <c r="U160">
-        <v>0.999896356458406</v>
+        <v>-0.0001036435415939785</v>
       </c>
       <c r="V160">
-        <v>0.9999057137469356</v>
+        <v>-9.428625306440175E-05</v>
       </c>
       <c r="W160">
-        <v>0.9997169544296631</v>
+        <v>-0.0002830455703368706</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12876,7 +12876,7 @@
         <v>0.7038647482647923</v>
       </c>
       <c r="K161">
-        <v>41.30989557601944</v>
+        <v>-0.08690104423980555</v>
       </c>
       <c r="L161">
         <v>-0.00932640662893487</v>
@@ -12906,13 +12906,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U161">
-        <v>0.9998963457153086</v>
+        <v>-0.0001036542846913902</v>
       </c>
       <c r="V161">
-        <v>0.99992456388496</v>
+        <v>-7.543611504001735E-05</v>
       </c>
       <c r="W161">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12947,7 +12947,7 @@
         <v>0.6496136406157262</v>
       </c>
       <c r="K162">
-        <v>39.37974472454379</v>
+        <v>-0.1062025527545621</v>
       </c>
       <c r="L162">
         <v>-0.009374910409780708</v>
@@ -12977,13 +12977,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U162">
-        <v>0.9998963349699845</v>
+        <v>-0.0001036650300154651</v>
       </c>
       <c r="V162">
-        <v>0.9999056977424039</v>
+        <v>-9.430225759610167E-05</v>
       </c>
       <c r="W162">
-        <v>0.9997169544296631</v>
+        <v>-0.0002830455703368706</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13018,7 +13018,7 @@
         <v>0.7307463145350579</v>
       </c>
       <c r="K163">
-        <v>42.22145720595471</v>
+        <v>-0.07778542794045284</v>
       </c>
       <c r="L163">
         <v>-0.009247137816894308</v>
@@ -13048,13 +13048,13 @@
         <v>-0.1812500000000341</v>
       </c>
       <c r="U163">
-        <v>0.9999151743638075</v>
+        <v>-8.482563619249817E-05</v>
       </c>
       <c r="V163">
-        <v>0.9998868266183794</v>
+        <v>-0.0001131733816206459</v>
       </c>
       <c r="W163">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13089,7 +13089,7 @@
         <v>0.6241397344233638</v>
       </c>
       <c r="K164">
-        <v>38.4289431010663</v>
+        <v>-0.115710568989337</v>
       </c>
       <c r="L164">
         <v>-0.009192944892337688</v>
@@ -13119,13 +13119,13 @@
         <v>-0.1437499999999545</v>
       </c>
       <c r="U164">
-        <v>0.9999057412975656</v>
+        <v>-9.425870243440215E-05</v>
       </c>
       <c r="V164">
-        <v>0.9998679494435013</v>
+        <v>-0.0001320505564986751</v>
       </c>
       <c r="W164">
-        <v>0.9994339088593264</v>
+        <v>-0.0005660911406736302</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13160,7 +13160,7 @@
         <v>0.6241397344233638</v>
       </c>
       <c r="K165">
-        <v>38.4289431010663</v>
+        <v>-0.115710568989337</v>
       </c>
       <c r="L165">
         <v>-0.009153369674371793</v>
@@ -13190,13 +13190,13 @@
         <v>-0.1249999999999432</v>
       </c>
       <c r="U165">
-        <v>0.9999057324120247</v>
+        <v>-9.42675879752608E-05</v>
       </c>
       <c r="V165">
-        <v>0.9998301982906627</v>
+        <v>-0.0001698017093373361</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13231,7 +13231,7 @@
         <v>0.6241397344233637</v>
       </c>
       <c r="K166">
-        <v>38.4289431010663</v>
+        <v>-0.1157105689893371</v>
       </c>
       <c r="L166">
         <v>-0.009091891688753399</v>
@@ -13261,13 +13261,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U166">
-        <v>0.9999340064673663</v>
+        <v>-6.599353263370134E-05</v>
       </c>
       <c r="V166">
-        <v>0.9998867796354305</v>
+        <v>-0.0001132203645695107</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13302,7 +13302,7 @@
         <v>0.7092175961879991</v>
       </c>
       <c r="K167">
-        <v>41.49369850683373</v>
+        <v>-0.08506301493166268</v>
       </c>
       <c r="L167">
         <v>-0.008885015282446779</v>
@@ -13332,13 +13332,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U167">
-        <v>0.9999340021119323</v>
+        <v>-6.599788806771478E-05</v>
       </c>
       <c r="V167">
-        <v>0.9999433834075641</v>
+        <v>-5.661659243594297E-05</v>
       </c>
       <c r="W167">
-        <v>1.000283205890683</v>
+        <v>0.0002832058906825363</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13373,7 +13373,7 @@
         <v>0.7092175961879992</v>
       </c>
       <c r="K168">
-        <v>41.49369850683373</v>
+        <v>-0.08506301493166268</v>
       </c>
       <c r="L168">
         <v>-0.008570880021403549</v>
@@ -13403,13 +13403,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U168">
-        <v>0.9999339977559237</v>
+        <v>-6.600224407626865E-05</v>
       </c>
       <c r="V168">
-        <v>0.9999811267339813</v>
+        <v>-1.887326601868189E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13444,7 +13444,7 @@
         <v>0.709217596187999</v>
       </c>
       <c r="K169">
-        <v>41.49369850683372</v>
+        <v>-0.08506301493166274</v>
       </c>
       <c r="L169">
         <v>-0.008180568538101764</v>
@@ -13474,13 +13474,13 @@
         <v>-0.04999999999995453</v>
       </c>
       <c r="U169">
-        <v>0.99993399339934</v>
+        <v>-6.600660066002906E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999622527555487</v>
+        <v>-3.774724445126942E-05</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13515,7 +13515,7 @@
         <v>0.709217596187999</v>
       </c>
       <c r="K170">
-        <v>41.49369850683372</v>
+        <v>-0.08506301493166274</v>
       </c>
       <c r="L170">
         <v>-0.007739186127096263</v>
@@ -13545,13 +13545,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U170">
-        <v>0.9999339890421809</v>
+        <v>-6.601095781910704E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999811256653203</v>
+        <v>-1.887433467973043E-05</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13586,7 +13586,7 @@
         <v>0.813670891377181</v>
       </c>
       <c r="K171">
-        <v>44.86320507461712</v>
+        <v>-0.05136794925382882</v>
       </c>
       <c r="L171">
         <v>-0.007163789948180794</v>
@@ -13616,13 +13616,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U171">
-        <v>0.9999434154438116</v>
+        <v>-5.65845561883993E-05</v>
       </c>
       <c r="V171">
-        <v>1.000018874690927</v>
+        <v>1.887469092687333E-05</v>
       </c>
       <c r="W171">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13657,7 +13657,7 @@
         <v>0.9236217284183628</v>
       </c>
       <c r="K172">
-        <v>48.01472736418826</v>
+        <v>-0.01985272635811741</v>
       </c>
       <c r="L172">
         <v>-0.00641473331131583</v>
@@ -13687,13 +13687,13 @@
         <v>-0.01250000000004547</v>
       </c>
       <c r="U172">
-        <v>0.9999528435348487</v>
+        <v>-4.715646515129901E-05</v>
       </c>
       <c r="V172">
-        <v>1.00001887433468</v>
+        <v>1.887433467961941E-05</v>
       </c>
       <c r="W172">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13728,7 +13728,7 @@
         <v>1.039359451619673</v>
       </c>
       <c r="K173">
-        <v>50.96499544473175</v>
+        <v>0.009649954447317532</v>
       </c>
       <c r="L173">
         <v>-0.00548176966013211</v>
@@ -13758,13 +13758,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U173">
-        <v>0.9999622730488092</v>
+        <v>-3.772695119075298E-05</v>
       </c>
       <c r="V173">
-        <v>1.000056621935338</v>
+        <v>5.662193533795268E-05</v>
       </c>
       <c r="W173">
-        <v>1.000282965478212</v>
+        <v>0.0002829654782117164</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13799,7 +13799,7 @@
         <v>1.161188633936841</v>
       </c>
       <c r="K174">
-        <v>53.72916624226406</v>
+        <v>0.03729166242264059</v>
       </c>
       <c r="L174">
         <v>-0.004373798296944396</v>
@@ -13829,13 +13829,13 @@
         <v>0.0625</v>
       </c>
       <c r="U174">
-        <v>0.9999811358127164</v>
+        <v>-1.886418728358485E-05</v>
       </c>
       <c r="V174">
-        <v>1.000056618729476</v>
+        <v>5.661872947571034E-05</v>
       </c>
       <c r="W174">
-        <v>1.0002828854314</v>
+        <v>0.0002828854314003149</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13870,7 +13870,7 @@
         <v>1.289429878481156</v>
       </c>
       <c r="K175">
-        <v>56.32100334676264</v>
+        <v>0.06321003346762644</v>
       </c>
       <c r="L175">
         <v>-0.003111399293772473</v>
@@ -13900,13 +13900,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U175">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V175">
-        <v>1.000094359206628</v>
+        <v>9.435920662781427E-05</v>
       </c>
       <c r="W175">
-        <v>1.000282805429864</v>
+        <v>0.0002828054298642524</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13941,7 +13941,7 @@
         <v>1.42442066221209</v>
       </c>
       <c r="K176">
-        <v>58.7530326074857</v>
+        <v>0.087530326074857</v>
       </c>
       <c r="L176">
         <v>-0.001721490535429004</v>
@@ -13971,13 +13971,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U176">
-        <v>1.000009432271574</v>
+        <v>9.432271574016937E-06</v>
       </c>
       <c r="V176">
-        <v>1.000094350303808</v>
+        <v>9.435030380799958E-05</v>
       </c>
       <c r="W176">
-        <v>1.000282725473565</v>
+        <v>0.0002827254735653373</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14012,7 +14012,7 @@
         <v>1.42442066221209</v>
       </c>
       <c r="K177">
-        <v>58.7530326074857</v>
+        <v>0.087530326074857</v>
       </c>
       <c r="L177">
         <v>-0.0003366302411012065</v>
@@ -14042,13 +14042,13 @@
         <v>0.1812500000000341</v>
       </c>
       <c r="U177">
-        <v>1.000009432182607</v>
+        <v>9.432182607183037E-06</v>
       </c>
       <c r="V177">
-        <v>1.000113209683202</v>
+        <v>0.0001132096832017204</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14083,7 +14083,7 @@
         <v>1.723569213416292</v>
       </c>
       <c r="K178">
-        <v>63.28347394022507</v>
+        <v>0.1328347394022508</v>
       </c>
       <c r="L178">
         <v>0.001164211918735935</v>
@@ -14113,13 +14113,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U178">
-        <v>1.000009432093642</v>
+        <v>9.43209364190345E-06</v>
       </c>
       <c r="V178">
-        <v>1.000132063012923</v>
+        <v>0.0001320630129231226</v>
       </c>
       <c r="W178">
-        <v>1.000565291124929</v>
+        <v>0.0005652911249292014</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14154,7 +14154,7 @@
         <v>2.353355637004085</v>
       </c>
       <c r="K179">
-        <v>70.17912478578</v>
+        <v>0.2017912478578</v>
       </c>
       <c r="L179">
         <v>0.003047559794478268</v>
@@ -14184,13 +14184,13 @@
         <v>0.3000000000000682</v>
       </c>
       <c r="U179">
-        <v>1.00005659202807</v>
+        <v>5.659202806951313E-05</v>
       </c>
       <c r="V179">
-        <v>1.000245227495661</v>
+        <v>0.0002452274956614708</v>
       </c>
       <c r="W179">
-        <v>1.001129943502825</v>
+        <v>0.001129943502824693</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14225,7 +14225,7 @@
         <v>2.018777106949759</v>
       </c>
       <c r="K180">
-        <v>66.87400345994996</v>
+        <v>0.1687400345994996</v>
       </c>
       <c r="L180">
         <v>0.004928367895006333</v>
@@ -14255,13 +14255,13 @@
         <v>0.3374999999999773</v>
       </c>
       <c r="U180">
-        <v>1.000028294412797</v>
+        <v>2.829441279672551E-05</v>
       </c>
       <c r="V180">
-        <v>1.00022630834512</v>
+        <v>0.0002263083451201631</v>
       </c>
       <c r="W180">
-        <v>0.9997178329571107</v>
+        <v>-0.0002821670428893031</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14296,7 +14296,7 @@
         <v>2.617391138480368</v>
       </c>
       <c r="K181">
-        <v>72.35576796320426</v>
+        <v>0.2235576796320425</v>
       </c>
       <c r="L181">
         <v>0.007081816920455762</v>
@@ -14326,13 +14326,13 @@
         <v>0.3875000000000455</v>
       </c>
       <c r="U181">
-        <v>1.000094312040818</v>
+        <v>9.4312040818334E-05</v>
       </c>
       <c r="V181">
-        <v>1.000301676188321</v>
+        <v>0.0003016761883212205</v>
       </c>
       <c r="W181">
-        <v>1.001128986734406</v>
+        <v>0.001128986734405757</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14367,7 +14367,7 @@
         <v>2.617391138480368</v>
       </c>
       <c r="K182">
-        <v>72.35576796320426</v>
+        <v>0.2235576796320425</v>
       </c>
       <c r="L182">
         <v>0.009237147198375779</v>
@@ -14397,13 +14397,13 @@
         <v>0.4250000000000114</v>
       </c>
       <c r="U182">
-        <v>1.000113163776275</v>
+        <v>0.000113163776275238</v>
       </c>
       <c r="V182">
-        <v>1.000282736131793</v>
+        <v>0.000282736131792749</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14438,7 +14438,7 @@
         <v>1.747883464699549</v>
       </c>
       <c r="K183">
-        <v>63.60835483577034</v>
+        <v>0.1360835483577034</v>
       </c>
       <c r="L183">
         <v>0.01091326777802259</v>
@@ -14468,13 +14468,13 @@
         <v>0.4375</v>
       </c>
       <c r="U183">
-        <v>1.000103721724044</v>
+        <v>0.0001037217240436039</v>
       </c>
       <c r="V183">
-        <v>1.000226124971735</v>
+        <v>0.0002261249717345759</v>
       </c>
       <c r="W183">
-        <v>0.9991542148294333</v>
+        <v>-0.0008457851705666597</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14509,7 +14509,7 @@
         <v>2.097571832671237</v>
       </c>
       <c r="K184">
-        <v>67.71664858736673</v>
+        <v>0.1771664858736673</v>
       </c>
       <c r="L184">
         <v>0.01246134771340012</v>
@@ -14539,13 +14539,13 @@
         <v>0.4562500000000114</v>
       </c>
       <c r="U184">
-        <v>1.000122567506411</v>
+        <v>0.0001225675064113751</v>
       </c>
       <c r="V184">
-        <v>1.000282592313489</v>
+        <v>0.0002825923134890385</v>
       </c>
       <c r="W184">
-        <v>1.000846501128668</v>
+        <v>0.0008465011286682422</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14580,7 +14580,7 @@
         <v>2.711060197533823</v>
       </c>
       <c r="K185">
-        <v>73.05352253071649</v>
+        <v>0.230535225307165</v>
       </c>
       <c r="L185">
         <v>0.01430251001701487</v>
@@ -14610,13 +14610,13 @@
         <v>0.5062499999999659</v>
       </c>
       <c r="U185">
-        <v>1.000179115171055</v>
+        <v>0.0001791151710550665</v>
       </c>
       <c r="V185">
-        <v>1.000376683303513</v>
+        <v>0.0003766833035128148</v>
       </c>
       <c r="W185">
-        <v>1.001409641950944</v>
+        <v>0.001409641950944396</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14651,7 +14651,7 @@
         <v>2.969371088002266</v>
       </c>
       <c r="K186">
-        <v>74.80709216070581</v>
+        <v>0.248070921607058</v>
       </c>
       <c r="L186">
         <v>0.01635726061508545</v>
@@ -14681,13 +14681,13 @@
         <v>0.5437499999999318</v>
       </c>
       <c r="U186">
-        <v>1.000207359372643</v>
+        <v>0.0002073593726434897</v>
       </c>
       <c r="V186">
-        <v>1.00039536853996</v>
+        <v>0.0003953685399604723</v>
       </c>
       <c r="W186">
-        <v>1.000563063063063</v>
+        <v>0.0005630630630630851</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14722,7 +14722,7 @@
         <v>3.105324188248853</v>
       </c>
       <c r="K187">
-        <v>75.64138776512665</v>
+        <v>0.2564138776512666</v>
       </c>
       <c r="L187">
         <v>0.01845324394017596</v>
@@ -14752,13 +14752,13 @@
         <v>0.5437499999999318</v>
       </c>
       <c r="U187">
-        <v>1.000207316383648</v>
+        <v>0.0002073163836484593</v>
       </c>
       <c r="V187">
-        <v>1.000395212285456</v>
+        <v>0.0003952122854562479</v>
       </c>
       <c r="W187">
-        <v>1.000281373100732</v>
+        <v>0.0002813731007316189</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14793,7 +14793,7 @@
         <v>2.414308052161386</v>
       </c>
       <c r="K188">
-        <v>70.7114886904548</v>
+        <v>0.207114886904548</v>
       </c>
       <c r="L188">
         <v>0.02016689565511588</v>
@@ -14823,13 +14823,13 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="U188">
-        <v>1.000197851893725</v>
+        <v>0.0001978518937253426</v>
       </c>
       <c r="V188">
-        <v>1.000338619560923</v>
+        <v>0.0003386195609231812</v>
       </c>
       <c r="W188">
-        <v>0.99943741209564</v>
+        <v>-0.0005625879043600346</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14864,7 +14864,7 @@
         <v>2.765665283635235</v>
       </c>
       <c r="K189">
-        <v>73.44426748851569</v>
+        <v>0.2344426748851569</v>
       </c>
       <c r="L189">
         <v>0.0217745872799903</v>
@@ -14894,13 +14894,13 @@
         <v>0.5312499999999432</v>
       </c>
       <c r="U189">
-        <v>1.000216652066201</v>
+        <v>0.0002166520662014726</v>
       </c>
       <c r="V189">
-        <v>1.000376116596145</v>
+        <v>0.0003761165961448931</v>
       </c>
       <c r="W189">
-        <v>1.000844356881509</v>
+        <v>0.0008443568815086344</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14935,7 +14935,7 @@
         <v>3.505364718316951</v>
       </c>
       <c r="K190">
-        <v>77.80423866830552</v>
+        <v>0.2780423866830551</v>
       </c>
       <c r="L190">
         <v>0.02375312531087948</v>
@@ -14965,13 +14965,13 @@
         <v>0.5562500000000341</v>
       </c>
       <c r="U190">
-        <v>1.000282528441196</v>
+        <v>0.0002825284411962503</v>
       </c>
       <c r="V190">
-        <v>1.000469968982047</v>
+        <v>0.0004699689820473196</v>
       </c>
       <c r="W190">
-        <v>1.001687289088864</v>
+        <v>0.00168728908886373</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15006,7 +15006,7 @@
         <v>4.024452040900686</v>
       </c>
       <c r="K191">
-        <v>80.09733216956451</v>
+        <v>0.3009733216956451</v>
       </c>
       <c r="L191">
         <v>0.02615420375725097</v>
@@ -15036,13 +15036,13 @@
         <v>0.6499999999999773</v>
       </c>
       <c r="U191">
-        <v>1.000310693505564</v>
+        <v>0.0003106935055643412</v>
       </c>
       <c r="V191">
-        <v>1.000526118000752</v>
+        <v>0.0005261180007516408</v>
       </c>
       <c r="W191">
-        <v>1.001122964626614</v>
+        <v>0.001122964626614431</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15077,7 +15077,7 @@
         <v>4.161053967896347</v>
       </c>
       <c r="K192">
-        <v>80.6241127060409</v>
+        <v>0.3062411270604091</v>
       </c>
       <c r="L192">
         <v>0.02866451766234198</v>
@@ -15107,13 +15107,13 @@
         <v>0.71875</v>
       </c>
       <c r="U192">
-        <v>1.000329421066007</v>
+        <v>0.00032942106600653</v>
       </c>
       <c r="V192">
-        <v>1.000544621394231</v>
+        <v>0.0005446213942308376</v>
       </c>
       <c r="W192">
-        <v>1.000280426247897</v>
+        <v>0.0002804262478968145</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15148,7 +15148,7 @@
         <v>4.161053967896347</v>
       </c>
       <c r="K193">
-        <v>80.6241127060409</v>
+        <v>0.3062411270604091</v>
       </c>
       <c r="L193">
         <v>0.03097529781326051</v>
@@ -15178,13 +15178,13 @@
         <v>0.7250000000000227</v>
       </c>
       <c r="U193">
-        <v>1.000319903652547</v>
+        <v>0.0003199036525469712</v>
       </c>
       <c r="V193">
-        <v>1.000506785291964</v>
+        <v>0.0005067852919644622</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15219,7 +15219,7 @@
         <v>2.020403482468721</v>
       </c>
       <c r="K194">
-        <v>66.89184058340933</v>
+        <v>0.1689184058340933</v>
       </c>
       <c r="L194">
         <v>0.03218441615104783</v>
@@ -15249,13 +15249,13 @@
         <v>0.6750000000000682</v>
       </c>
       <c r="U194">
-        <v>1.000272771737086</v>
+        <v>0.0002727717370858418</v>
       </c>
       <c r="V194">
-        <v>1.0003001650908</v>
+        <v>0.0003001650907998865</v>
       </c>
       <c r="W194">
-        <v>0.9980375665825624</v>
+        <v>-0.001962433417437626</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15290,7 +15290,7 @@
         <v>2.020403482468721</v>
       </c>
       <c r="K195">
-        <v>66.89184058340933</v>
+        <v>0.1689184058340933</v>
       </c>
       <c r="L195">
         <v>0.03253165593099887</v>
@@ -15320,13 +15320,13 @@
         <v>0.6375000000000455</v>
       </c>
       <c r="U195">
-        <v>1.000272697352955</v>
+        <v>0.000272697352954987</v>
       </c>
       <c r="V195">
-        <v>1.000318829707427</v>
+        <v>0.0003188297074268043</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15361,7 +15361,7 @@
         <v>1.623730686267428</v>
       </c>
       <c r="K196">
-        <v>61.88633211350589</v>
+        <v>0.1188633211350589</v>
       </c>
       <c r="L196">
         <v>0.03190791577582885</v>
@@ -15391,13 +15391,13 @@
         <v>0.6000000000000227</v>
       </c>
       <c r="U196">
-        <v>1.000244420629101</v>
+        <v>0.0002444206291012385</v>
       </c>
       <c r="V196">
-        <v>1.000187487110261</v>
+        <v>0.0001874871102611753</v>
       </c>
       <c r="W196">
-        <v>0.9991573033707865</v>
+        <v>-0.0008426966292135463</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15432,7 +15432,7 @@
         <v>1.27295942683936</v>
       </c>
       <c r="K197">
-        <v>56.0044940445532</v>
+        <v>0.06004494044553199</v>
       </c>
       <c r="L197">
         <v>0.03020908250902746</v>
@@ -15462,13 +15462,13 @@
         <v>0.5249999999999773</v>
       </c>
       <c r="U197">
-        <v>1.000197368421053</v>
+        <v>0.0001973684210525573</v>
       </c>
       <c r="V197">
-        <v>1.00011247117926</v>
+        <v>0.0001124711792603872</v>
       </c>
       <c r="W197">
-        <v>0.9988754568456565</v>
+        <v>-0.001124543154343516</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15503,7 +15503,7 @@
         <v>1.037120443715376</v>
       </c>
       <c r="K198">
-        <v>50.91110085881016</v>
+        <v>0.009111008588101543</v>
       </c>
       <c r="L198">
         <v>0.02744731012010212</v>
@@ -15533,13 +15533,13 @@
         <v>0.3500000000000227</v>
       </c>
       <c r="U198">
-        <v>1.000159742907885</v>
+        <v>0.0001597429078845636</v>
       </c>
       <c r="V198">
-        <v>1.000093715442431</v>
+        <v>9.371544243075292E-05</v>
       </c>
       <c r="W198">
-        <v>0.9988741908246551</v>
+        <v>-0.001125809175344883</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15574,7 +15574,7 @@
         <v>1.134630056334987</v>
       </c>
       <c r="K199">
-        <v>53.15347514046855</v>
+        <v>0.03153475140468553</v>
       </c>
       <c r="L199">
         <v>0.02432385617550202</v>
@@ -15604,13 +15604,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U199">
-        <v>1.00017850767583</v>
+        <v>0.000178507675830053</v>
       </c>
       <c r="V199">
-        <v>1.000074965328535</v>
+        <v>7.496532853545901E-05</v>
       </c>
       <c r="W199">
-        <v>1.000563539025078</v>
+        <v>0.0005635390250775529</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15645,7 +15645,7 @@
         <v>1.079242419369027</v>
       </c>
       <c r="K200">
-        <v>51.90555989601909</v>
+        <v>0.01905559896019093</v>
       </c>
       <c r="L200">
         <v>0.02098964760632065</v>
@@ -15675,13 +15675,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U200">
-        <v>1.000169082352499</v>
+        <v>0.0001690823524993501</v>
       </c>
       <c r="V200">
-        <v>0.9999625201454219</v>
+        <v>-3.747985457813741E-05</v>
       </c>
       <c r="W200">
-        <v>0.9997183891861446</v>
+        <v>-0.0002816108138553597</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15716,7 +15716,7 @@
         <v>1.079242419369027</v>
       </c>
       <c r="K201">
-        <v>51.90555989601909</v>
+        <v>0.01905559896019093</v>
       </c>
       <c r="L201">
         <v>0.01766418696350091</v>
@@ -15746,13 +15746,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U201">
-        <v>1.000159661892463</v>
+        <v>0.000159661892462859</v>
       </c>
       <c r="V201">
-        <v>0.9999250374812593</v>
+        <v>-7.496251874072879E-05</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15787,7 +15787,7 @@
         <v>1.079242419369027</v>
       </c>
       <c r="K202">
-        <v>51.90555989601909</v>
+        <v>0.01905559896019093</v>
       </c>
       <c r="L202">
         <v>0.01449184015579295</v>
@@ -15817,13 +15817,13 @@
         <v>-0.4124999999999659</v>
       </c>
       <c r="U202">
-        <v>1.000150246027871</v>
+        <v>0.0001502460278706153</v>
       </c>
       <c r="V202">
-        <v>0.9999062898268235</v>
+        <v>-9.371017317649777E-05</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15858,7 +15858,7 @@
         <v>1.079242419369027</v>
       </c>
       <c r="K203">
-        <v>51.90555989601909</v>
+        <v>0.01905559896019093</v>
       </c>
       <c r="L203">
         <v>0.01156174795423342</v>
@@ -15888,13 +15888,13 @@
         <v>-0.5062499999999659</v>
       </c>
       <c r="U203">
-        <v>1.000140834491306</v>
+        <v>0.0001408344913058635</v>
       </c>
       <c r="V203">
-        <v>0.9999437686266426</v>
+        <v>-5.623137335741824E-05</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15929,7 +15929,7 @@
         <v>1.079242419369027</v>
       </c>
       <c r="K204">
-        <v>51.90555989601909</v>
+        <v>0.01905559896019093</v>
       </c>
       <c r="L204">
         <v>0.0089230731189688</v>
@@ -15959,13 +15959,13 @@
         <v>-0.5749999999999886</v>
       </c>
       <c r="U204">
-        <v>1.000131427015762</v>
+        <v>0.0001314270157617425</v>
       </c>
       <c r="V204">
-        <v>0.9998875309289945</v>
+        <v>-0.0001124690710054832</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16000,7 +16000,7 @@
         <v>1.079242419369027</v>
       </c>
       <c r="K205">
-        <v>51.90555989601909</v>
+        <v>0.01905559896019093</v>
       </c>
       <c r="L205">
         <v>0.00659659498899497</v>
@@ -16030,13 +16030,13 @@
         <v>-0.5749999999999886</v>
       </c>
       <c r="U205">
-        <v>1.000122023334616</v>
+        <v>0.0001220233346164168</v>
       </c>
       <c r="V205">
-        <v>0.9997750365565596</v>
+        <v>-0.0002249634434403625</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16071,7 +16071,7 @@
         <v>1.47768722714189</v>
       </c>
       <c r="K206">
-        <v>59.63978063714122</v>
+        <v>0.09639780637141226</v>
       </c>
       <c r="L206">
         <v>0.005198583006366084</v>
@@ -16101,13 +16101,13 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="U206">
-        <v>1.000168934772407</v>
+        <v>0.0001689347724072032</v>
       </c>
       <c r="V206">
-        <v>0.9998124882805174</v>
+        <v>-0.0001875117194826137</v>
       </c>
       <c r="W206">
-        <v>1.00169014084507</v>
+        <v>0.001690140845070465</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16142,7 +16142,7 @@
         <v>1.687395020706516</v>
       </c>
       <c r="K207">
-        <v>62.78924414554061</v>
+        <v>0.1278924414554061</v>
       </c>
       <c r="L207">
         <v>0.00474062837232958</v>
@@ -16172,13 +16172,13 @@
         <v>-0.3062499999999773</v>
       </c>
       <c r="U207">
-        <v>1.000197057277982</v>
+        <v>0.0001970572779823598</v>
       </c>
       <c r="V207">
-        <v>0.9998499624906226</v>
+        <v>-0.0001500375093773654</v>
       </c>
       <c r="W207">
-        <v>1.000843644544432</v>
+        <v>0.0008436445444317542</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16213,7 +16213,7 @@
         <v>1.687395020706516</v>
       </c>
       <c r="K208">
-        <v>62.78924414554061</v>
+        <v>0.1278924414554061</v>
       </c>
       <c r="L208">
         <v>0.004863983744799062</v>
@@ -16243,13 +16243,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U208">
-        <v>1.00017825479177</v>
+        <v>0.0001782547917701383</v>
       </c>
       <c r="V208">
-        <v>0.9998499399759906</v>
+        <v>-0.000150060024009413</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16284,7 +16284,7 @@
         <v>1.764849422761808</v>
       </c>
       <c r="K209">
-        <v>63.83166505316952</v>
+        <v>0.1383166505316953</v>
       </c>
       <c r="L209">
         <v>0.005416356940545729</v>
@@ -16314,13 +16314,13 @@
         <v>0.02499999999992042</v>
       </c>
       <c r="U209">
-        <v>1.0001500825454</v>
+        <v>0.0001500825453999433</v>
       </c>
       <c r="V209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W209">
-        <v>1.000280977802754</v>
+        <v>0.0002809778027537124</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16355,7 +16355,7 @@
         <v>1.631806675089306</v>
       </c>
       <c r="K210">
-        <v>62.00328810374847</v>
+        <v>0.1200328810374848</v>
       </c>
       <c r="L210">
         <v>0.006071116282997994</v>
@@ -16385,13 +16385,13 @@
         <v>0.1437499999999545</v>
       </c>
       <c r="U210">
-        <v>1.00015006002401</v>
+        <v>0.000150060024009635</v>
       </c>
       <c r="V210">
-        <v>0.9999812396818251</v>
+        <v>-1.87603181749374E-05</v>
       </c>
       <c r="W210">
-        <v>0.9997191011235954</v>
+        <v>-0.0002808988764045894</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16426,7 +16426,7 @@
         <v>1.51183868138946</v>
       </c>
       <c r="K211">
-        <v>60.18852614186052</v>
+        <v>0.1018852614186052</v>
       </c>
       <c r="L211">
         <v>0.006621498458303179</v>
@@ -16456,13 +16456,13 @@
         <v>0.2562500000000227</v>
       </c>
       <c r="U211">
-        <v>1.000103150787697</v>
+        <v>0.0001031507876969595</v>
       </c>
       <c r="V211">
-        <v>1.000018760670131</v>
+        <v>1.876067013117932E-05</v>
       </c>
       <c r="W211">
-        <v>0.9997190221972465</v>
+        <v>-0.0002809778027534904</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16497,7 +16497,7 @@
         <v>1.51183868138946</v>
       </c>
       <c r="K212">
-        <v>60.18852614186052</v>
+        <v>0.1018852614186052</v>
       </c>
       <c r="L212">
         <v>0.007049410972600828</v>
@@ -16527,13 +16527,13 @@
         <v>0.3499999999999659</v>
       </c>
       <c r="U212">
-        <v>1.000103140148709</v>
+        <v>0.0001031401487092687</v>
       </c>
       <c r="V212">
-        <v>1.000093801590875</v>
+        <v>9.380159087513107E-05</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16568,7 +16568,7 @@
         <v>1.51183868138946</v>
       </c>
       <c r="K213">
-        <v>60.18852614186052</v>
+        <v>0.1018852614186052</v>
       </c>
       <c r="L213">
         <v>0.007350147704960831</v>
@@ -16598,13 +16598,13 @@
         <v>0.4187499999999886</v>
       </c>
       <c r="U213">
-        <v>1.000131255742439</v>
+        <v>0.0001312557424388849</v>
       </c>
       <c r="V213">
-        <v>1.000168827027331</v>
+        <v>0.0001688270273310088</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16639,7 +16639,7 @@
         <v>1.597587051685128</v>
       </c>
       <c r="K214">
-        <v>61.50273387945663</v>
+        <v>0.1150273387945664</v>
       </c>
       <c r="L214">
         <v>0.007630347922814639</v>
@@ -16669,13 +16669,13 @@
         <v>0.3937500000000114</v>
       </c>
       <c r="U214">
-        <v>1.000112490157111</v>
+        <v>0.0001124901571112336</v>
       </c>
       <c r="V214">
-        <v>1.000150043137402</v>
+        <v>0.0001500431374024114</v>
       </c>
       <c r="W214">
-        <v>1.000281056773468</v>
+        <v>0.0002810567734681246</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16710,7 +16710,7 @@
         <v>1.958632821351253</v>
       </c>
       <c r="K215">
-        <v>66.20060479342331</v>
+        <v>0.1620060479342331</v>
       </c>
       <c r="L215">
         <v>0.008262271558734458</v>
@@ -16740,13 +16740,13 @@
         <v>0.3687499999999773</v>
       </c>
       <c r="U215">
-        <v>1.000103104379124</v>
+        <v>0.000103104379123975</v>
       </c>
       <c r="V215">
-        <v>1.000243783520234</v>
+        <v>0.0002437835202340199</v>
       </c>
       <c r="W215">
-        <v>1.001123911211014</v>
+        <v>0.001123911211014406</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16781,7 +16781,7 @@
         <v>1.958632821351253</v>
       </c>
       <c r="K216">
-        <v>66.20060479342331</v>
+        <v>0.1620060479342331</v>
       </c>
       <c r="L216">
         <v>0.00903676138865306</v>
@@ -16811,13 +16811,13 @@
         <v>0.3375000000000341</v>
       </c>
       <c r="U216">
-        <v>1.000084349431579</v>
+        <v>8.43494315787563E-05</v>
       </c>
       <c r="V216">
-        <v>1.000243724104314</v>
+        <v>0.0002437241043138361</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16852,7 +16852,7 @@
         <v>1.632159528689937</v>
       </c>
       <c r="K217">
-        <v>62.00838174509453</v>
+        <v>0.1200838174509453</v>
       </c>
       <c r="L217">
         <v>0.00961031346941818</v>
@@ -16882,13 +16882,13 @@
         <v>0.28125</v>
       </c>
       <c r="U217">
-        <v>1.000056228211568</v>
+        <v>5.622821156792135E-05</v>
       </c>
       <c r="V217">
-        <v>1.000206177837757</v>
+        <v>0.0002061778377566714</v>
       </c>
       <c r="W217">
-        <v>0.9994386752736458</v>
+        <v>-0.0005613247263541732</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16923,7 +16923,7 @@
         <v>1.500520975253874</v>
       </c>
       <c r="K218">
-        <v>60.00833386736652</v>
+        <v>0.1000833386736651</v>
       </c>
       <c r="L218">
         <v>0.009888080205008707</v>
@@ -16953,13 +16953,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U218">
-        <v>1.000065595891823</v>
+        <v>6.55958918229782E-05</v>
       </c>
       <c r="V218">
-        <v>1.000187395761108</v>
+        <v>0.0001873957611078225</v>
       </c>
       <c r="W218">
-        <v>0.9997191800056163</v>
+        <v>-0.0002808199943836742</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16994,7 +16994,7 @@
         <v>1.383098806430873</v>
       </c>
       <c r="K219">
-        <v>58.03782884278796</v>
+        <v>0.08037828842787964</v>
       </c>
       <c r="L219">
         <v>0.009830500233372957</v>
@@ -17024,13 +17024,13 @@
         <v>0.1875</v>
       </c>
       <c r="U219">
-        <v>1.000028110681122</v>
+        <v>2.81106811217402E-05</v>
       </c>
       <c r="V219">
-        <v>1.000168624585465</v>
+        <v>0.0001686245854646273</v>
       </c>
       <c r="W219">
-        <v>0.9997191011235954</v>
+        <v>-0.0002808988764045894</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17065,7 +17065,7 @@
         <v>1.465471718912598</v>
       </c>
       <c r="K220">
-        <v>59.43981055110005</v>
+        <v>0.09439810551100047</v>
       </c>
       <c r="L220">
         <v>0.009640075692678969</v>
@@ -17095,13 +17095,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U220">
-        <v>0.9999812600727109</v>
+        <v>-1.87399272890687E-05</v>
       </c>
       <c r="V220">
-        <v>1.000187329062231</v>
+        <v>0.0001873290622307344</v>
       </c>
       <c r="W220">
-        <v>1.000280977802754</v>
+        <v>0.0002809778027537124</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17136,7 +17136,7 @@
         <v>1.55218004784073</v>
       </c>
       <c r="K221">
-        <v>60.81781139046011</v>
+        <v>0.1081781139046012</v>
       </c>
       <c r="L221">
         <v>0.009448602726259402</v>
@@ -17166,13 +17166,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U221">
-        <v>0.9999531493037987</v>
+        <v>-4.685069620125049E-05</v>
       </c>
       <c r="V221">
-        <v>1.000093646988313</v>
+        <v>9.364698831282325E-05</v>
       </c>
       <c r="W221">
-        <v>1.000280898876404</v>
+        <v>0.0002808988764044784</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17207,7 +17207,7 @@
         <v>1.55218004784073</v>
       </c>
       <c r="K222">
-        <v>60.81781139046012</v>
+        <v>0.1081781139046012</v>
       </c>
       <c r="L222">
         <v>0.00923425438322497</v>
@@ -17237,13 +17237,13 @@
         <v>0.1124999999999545</v>
       </c>
       <c r="U222">
-        <v>0.9999437765304494</v>
+        <v>-5.622346955058699E-05</v>
       </c>
       <c r="V222">
-        <v>1.00003745528775</v>
+        <v>3.745528775045415E-05</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17278,7 +17278,7 @@
         <v>1.416124846718747</v>
       </c>
       <c r="K223">
-        <v>58.61141027716079</v>
+        <v>0.08611410277160791</v>
       </c>
       <c r="L223">
         <v>0.008883666624497201</v>
@@ -17308,13 +17308,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U223">
-        <v>0.9999344022640593</v>
+        <v>-6.55977359407256E-05</v>
       </c>
       <c r="V223">
-        <v>1.000018726942452</v>
+        <v>1.872694245186324E-05</v>
       </c>
       <c r="W223">
-        <v>0.9997191800056163</v>
+        <v>-0.0002808199943836742</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17349,7 +17349,7 @@
         <v>1.416124846718747</v>
       </c>
       <c r="K224">
-        <v>58.61141027716079</v>
+        <v>0.08611410277160791</v>
       </c>
       <c r="L224">
         <v>0.008440545984226729</v>
@@ -17379,13 +17379,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17420,7 +17420,7 @@
         <v>1.998867882219334</v>
       </c>
       <c r="K225">
-        <v>66.65408283142028</v>
+        <v>0.1665408283142028</v>
       </c>
       <c r="L225">
         <v>0.008553101130052136</v>
@@ -17450,13 +17450,13 @@
         <v>0.05000000000006821</v>
       </c>
       <c r="U225">
-        <v>1.000056230319388</v>
+        <v>5.6230319388062E-05</v>
       </c>
       <c r="V225">
-        <v>1.000131086142322</v>
+        <v>0.0001310861423220455</v>
       </c>
       <c r="W225">
-        <v>1.001685393258427</v>
+        <v>0.001685393258427093</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17491,7 +17491,7 @@
         <v>1.813466962482925</v>
       </c>
       <c r="K226">
-        <v>64.45666455889408</v>
+        <v>0.1445666455889407</v>
       </c>
       <c r="L226">
         <v>0.008861451928119008</v>
@@ -17521,13 +17521,13 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="U226">
-        <v>1.000074969543623</v>
+        <v>7.496954362284924E-05</v>
       </c>
       <c r="V226">
-        <v>1.000131068960997</v>
+        <v>0.0001310689609974602</v>
       </c>
       <c r="W226">
-        <v>0.9997195737521032</v>
+        <v>-0.0002804262478968145</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17562,7 +17562,7 @@
         <v>1.652158924164868</v>
       </c>
       <c r="K227">
-        <v>62.29486887499068</v>
+        <v>0.1229486887499068</v>
       </c>
       <c r="L227">
         <v>0.009134035802252194</v>
@@ -17592,13 +17592,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U227">
-        <v>1.000103075394966</v>
+        <v>0.0001030753949662344</v>
       </c>
       <c r="V227">
-        <v>1.000112330100723</v>
+        <v>0.0001123301007226463</v>
       </c>
       <c r="W227">
-        <v>0.999719495091164</v>
+        <v>-0.0002805049088360212</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17633,7 +17633,7 @@
         <v>1.201983898724554</v>
       </c>
       <c r="K228">
-        <v>54.58640725850785</v>
+        <v>0.04586407258507852</v>
       </c>
       <c r="L228">
         <v>0.008924880955878255</v>
@@ -17663,13 +17663,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U228">
-        <v>1.000103064771524</v>
+        <v>0.0001030647715241084</v>
       </c>
       <c r="V228">
-        <v>1.000037439161363</v>
+        <v>3.743916136289549E-05</v>
       </c>
       <c r="W228">
-        <v>0.9988776655443323</v>
+        <v>-0.001122334455667673</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17704,7 +17704,7 @@
         <v>1.273688327532996</v>
       </c>
       <c r="K229">
-        <v>56.01859815654579</v>
+        <v>0.06018598156545796</v>
       </c>
       <c r="L229">
         <v>0.008507115439432382</v>
@@ -17734,13 +17734,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U229">
-        <v>1.000093685591156</v>
+        <v>9.368559115596753E-05</v>
       </c>
       <c r="V229">
-        <v>1.000037437759724</v>
+        <v>3.743775972431251E-05</v>
       </c>
       <c r="W229">
-        <v>1.000280898876404</v>
+        <v>0.0002808988764044784</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17775,7 +17775,7 @@
         <v>1.273688327532996</v>
       </c>
       <c r="K230">
-        <v>56.01859815654579</v>
+        <v>0.06018598156545796</v>
       </c>
       <c r="L230">
         <v>0.007958646819103566</v>
@@ -17805,13 +17805,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U230">
-        <v>1.000103044496487</v>
+        <v>0.0001030444964871258</v>
       </c>
       <c r="V230">
-        <v>0.9999625636418089</v>
+        <v>-3.74363581910897E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17846,7 +17846,7 @@
         <v>1.273688327532995</v>
       </c>
       <c r="K231">
-        <v>56.01859815654579</v>
+        <v>0.06018598156545796</v>
       </c>
       <c r="L231">
         <v>0.007336993007925233</v>
@@ -17876,13 +17876,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U231">
-        <v>1.000103033879413</v>
+        <v>0.000103033879413017</v>
       </c>
       <c r="V231">
-        <v>0.9999625622402757</v>
+        <v>-3.743775972431251E-05</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17917,7 +17917,7 @@
         <v>1.273688327532996</v>
       </c>
       <c r="K232">
-        <v>56.01859815654579</v>
+        <v>0.06018598156545796</v>
       </c>
       <c r="L232">
         <v>0.006683920576215729</v>
@@ -17947,13 +17947,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U232">
-        <v>1.000103023264526</v>
+        <v>0.0001030232645262696</v>
       </c>
       <c r="V232">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17988,7 +17988,7 @@
         <v>1.273688327532996</v>
       </c>
       <c r="K233">
-        <v>56.01859815654579</v>
+        <v>0.06018598156545796</v>
       </c>
       <c r="L233">
         <v>0.006029107265488872</v>
@@ -18018,13 +18018,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U233">
-        <v>1.000103012651826</v>
+        <v>0.0001030126518264396</v>
       </c>
       <c r="V233">
-        <v>1.000018719580682</v>
+        <v>1.871958068155877E-05</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18059,7 +18059,7 @@
         <v>1.273688327532996</v>
       </c>
       <c r="K234">
-        <v>56.01859815654579</v>
+        <v>0.06018598156545796</v>
       </c>
       <c r="L234">
         <v>0.005393023371004527</v>
@@ -18089,13 +18089,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U234">
-        <v>1.000103002041313</v>
+        <v>0.0001030020413133048</v>
       </c>
       <c r="V234">
-        <v>1.00003743846053</v>
+        <v>3.743846053039235E-05</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18130,7 +18130,7 @@
         <v>0.985342937890221</v>
       </c>
       <c r="K235">
-        <v>49.63086825379008</v>
+        <v>-0.00369131746209922</v>
       </c>
       <c r="L235">
         <v>0.004482316626917292</v>
@@ -18160,13 +18160,13 @@
         <v>-0.08124999999995453</v>
       </c>
       <c r="U235">
-        <v>1.000074902860353</v>
+        <v>7.490286035305438E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999625629410553</v>
+        <v>-3.743705894465599E-05</v>
       </c>
       <c r="W235">
-        <v>0.9991575400168492</v>
+        <v>-0.0008424599831508006</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18201,7 +18201,7 @@
         <v>1.064776672768843</v>
       </c>
       <c r="K236">
-        <v>51.56861208340701</v>
+        <v>0.01568612083407006</v>
       </c>
       <c r="L236">
         <v>0.003549287188356092</v>
@@ -18231,13 +18231,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U236">
-        <v>1.000028086468876</v>
+        <v>2.808646887553223E-05</v>
       </c>
       <c r="V236">
-        <v>0.9999625615394695</v>
+        <v>-3.743846053050337E-05</v>
       </c>
       <c r="W236">
-        <v>1.000281056773468</v>
+        <v>0.0002810567734681246</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18272,7 +18272,7 @@
         <v>1.064776672768843</v>
       </c>
       <c r="K237">
-        <v>51.56861208340701</v>
+        <v>0.01568612083407006</v>
       </c>
       <c r="L237">
         <v>0.002649280499584079</v>
@@ -18302,13 +18302,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V237">
-        <v>0.9999625601377786</v>
+        <v>-3.743986222137785E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18343,7 +18343,7 @@
         <v>0.9053989071227434</v>
       </c>
       <c r="K238">
-        <v>47.51755150788584</v>
+        <v>-0.02482448492114159</v>
       </c>
       <c r="L238">
         <v>0.001612428585906404</v>
@@ -18373,13 +18373,13 @@
         <v>-0.125</v>
       </c>
       <c r="U238">
-        <v>0.9999812762133016</v>
+        <v>-1.872378669842689E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999438381039742</v>
+        <v>-5.616189602575261E-05</v>
       </c>
       <c r="W238">
-        <v>0.9994380443944929</v>
+        <v>-0.0005619556055070918</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18414,7 +18414,7 @@
         <v>0.5835788111313717</v>
       </c>
       <c r="K239">
-        <v>36.8518956574343</v>
+        <v>-0.131481043425657</v>
       </c>
       <c r="L239">
         <v>-0.000163067712463108</v>
@@ -18444,13 +18444,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U239">
-        <v>0.9999063793135731</v>
+        <v>-9.362068642693178E-05</v>
       </c>
       <c r="V239">
-        <v>0.9998127831654623</v>
+        <v>-0.0001872168345377068</v>
       </c>
       <c r="W239">
-        <v>0.9980320494798989</v>
+        <v>-0.001967950520101125</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18485,7 +18485,7 @@
         <v>0.5539689110775325</v>
       </c>
       <c r="K240">
-        <v>35.64864825342012</v>
+        <v>-0.1435135174657988</v>
       </c>
       <c r="L240">
         <v>-0.002374614700727162</v>
@@ -18515,13 +18515,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U240">
-        <v>0.9999063705479193</v>
+        <v>-9.362945208069018E-05</v>
       </c>
       <c r="V240">
-        <v>0.9996816717848852</v>
+        <v>-0.0003183282151147937</v>
       </c>
       <c r="W240">
-        <v>0.9997183098591549</v>
+        <v>-0.0002816901408451145</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18556,7 +18556,7 @@
         <v>0.5005059441172595</v>
       </c>
       <c r="K241">
-        <v>33.35581215652596</v>
+        <v>-0.1664418784347405</v>
       </c>
       <c r="L241">
         <v>-0.004905446040402218</v>
@@ -18586,13 +18586,13 @@
         <v>-0.3375000000000341</v>
       </c>
       <c r="U241">
-        <v>0.9998969979586869</v>
+        <v>-0.0001030020413130828</v>
       </c>
       <c r="V241">
-        <v>0.9996628392679866</v>
+        <v>-0.0003371607320133974</v>
       </c>
       <c r="W241">
-        <v>0.9994364609749226</v>
+        <v>-0.0005635390250774419</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18627,7 +18627,7 @@
         <v>0.4543493292760012</v>
       </c>
       <c r="K242">
-        <v>31.24072876646382</v>
+        <v>-0.1875927123353618</v>
       </c>
       <c r="L242">
         <v>-0.007655391907132788</v>
@@ -18657,13 +18657,13 @@
         <v>-0.4125000000000796</v>
       </c>
       <c r="U242">
-        <v>0.999878257775114</v>
+        <v>-0.0001217422248860345</v>
       </c>
       <c r="V242">
-        <v>0.9996439880829695</v>
+        <v>-0.0003560119170304965</v>
       </c>
       <c r="W242">
-        <v>0.9994361432196223</v>
+        <v>-0.0005638567803777361</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18698,7 +18698,7 @@
         <v>0.5028861258218683</v>
       </c>
       <c r="K243">
-        <v>33.46135925946218</v>
+        <v>-0.1653864074053781</v>
       </c>
       <c r="L243">
         <v>-0.01023305698952599</v>
@@ -18728,13 +18728,13 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="U243">
-        <v>0.9998876088788985</v>
+        <v>-0.0001123911211015072</v>
       </c>
       <c r="V243">
-        <v>0.9997375820056231</v>
+        <v>-0.0002624179943768734</v>
       </c>
       <c r="W243">
-        <v>1.000282087447109</v>
+        <v>0.0002820874471085588</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18769,7 +18769,7 @@
         <v>0.5028861258218683</v>
       </c>
       <c r="K244">
-        <v>33.46135925946218</v>
+        <v>-0.1653864074053781</v>
       </c>
       <c r="L244">
         <v>-0.01250522482471366</v>
@@ -18799,13 +18799,13 @@
         <v>-0.5249999999999773</v>
       </c>
       <c r="U244">
-        <v>0.999878229266191</v>
+        <v>-0.0001217707338090346</v>
       </c>
       <c r="V244">
-        <v>0.999718764061797</v>
+        <v>-0.0002812359382029506</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18840,7 +18840,7 @@
         <v>0.5028861258218683</v>
       </c>
       <c r="K245">
-        <v>33.46135925946218</v>
+        <v>-0.1653864074053781</v>
       </c>
       <c r="L245">
         <v>-0.01440237022175074</v>
@@ -18870,13 +18870,13 @@
         <v>-0.5937500000000568</v>
       </c>
       <c r="U245">
-        <v>0.9998407419551268</v>
+        <v>-0.0001592580448731562</v>
       </c>
       <c r="V245">
-        <v>0.9997186849458937</v>
+        <v>-0.0002813150541063347</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18911,7 +18911,7 @@
         <v>0.5594970563316678</v>
       </c>
       <c r="K246">
-        <v>35.87676257932455</v>
+        <v>-0.1412323742067545</v>
       </c>
       <c r="L246">
         <v>-0.01579698973846869</v>
@@ -18941,13 +18941,13 @@
         <v>-0.6312499999999659</v>
       </c>
       <c r="U246">
-        <v>0.9998500862004346</v>
+        <v>-0.0001499137995654154</v>
       </c>
       <c r="V246">
-        <v>0.9997373653997673</v>
+        <v>-0.0002626346002326807</v>
       </c>
       <c r="W246">
-        <v>1.000282007896221</v>
+        <v>0.0002820078962209038</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18982,7 +18982,7 @@
         <v>0.5594970563316679</v>
       </c>
       <c r="K247">
-        <v>35.87676257932456</v>
+        <v>-0.1412323742067544</v>
       </c>
       <c r="L247">
         <v>-0.0167410016587613</v>
@@ -19012,13 +19012,13 @@
         <v>-0.5812499999999545</v>
       </c>
       <c r="U247">
-        <v>0.999868805757553</v>
+        <v>-0.0001311942424470081</v>
       </c>
       <c r="V247">
-        <v>0.9997372964047138</v>
+        <v>-0.00026270359528624</v>
       </c>
       <c r="W247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19053,7 +19053,7 @@
         <v>0.6222238491403458</v>
       </c>
       <c r="K248">
-        <v>38.35622620577774</v>
+        <v>-0.1164377379422226</v>
       </c>
       <c r="L248">
         <v>-0.01718871296847679</v>
@@ -19083,13 +19083,13 @@
         <v>-0.5124999999999886</v>
       </c>
       <c r="U248">
-        <v>0.9998875330371703</v>
+        <v>-0.0001124669628297381</v>
       </c>
       <c r="V248">
-        <v>0.9997559968467286</v>
+        <v>-0.0002440031532714437</v>
       </c>
       <c r="W248">
-        <v>1.000281928390189</v>
+        <v>0.0002819283901889236</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19124,7 +19124,7 @@
         <v>0.6222238491403458</v>
       </c>
       <c r="K249">
-        <v>38.35622620577774</v>
+        <v>-0.1164377379422226</v>
       </c>
       <c r="L249">
         <v>-0.0172446910603802</v>
@@ -19154,13 +19154,13 @@
         <v>-0.4187500000000455</v>
       </c>
       <c r="U249">
-        <v>0.9998968936880192</v>
+        <v>-0.0001031063119808495</v>
       </c>
       <c r="V249">
-        <v>0.9997559372946588</v>
+        <v>-0.0002440627053411637</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19195,7 +19195,7 @@
         <v>0.514868548987345</v>
       </c>
       <c r="K250">
-        <v>33.98767169148259</v>
+        <v>-0.1601232830851741</v>
       </c>
       <c r="L250">
         <v>-0.01730421339614522</v>
@@ -19225,13 +19225,13 @@
         <v>-0.3187500000000227</v>
       </c>
       <c r="U250">
-        <v>0.99985938598547</v>
+        <v>-0.0001406140145300272</v>
       </c>
       <c r="V250">
-        <v>0.999755877713513</v>
+        <v>-0.0002441222864869586</v>
       </c>
       <c r="W250">
-        <v>0.9991544532130777</v>
+        <v>-0.0008455467869222799</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19266,7 +19266,7 @@
         <v>0.5148685489873451</v>
       </c>
       <c r="K251">
-        <v>33.9876716914826</v>
+        <v>-0.160123283085174</v>
       </c>
       <c r="L251">
         <v>-0.01729927114252233</v>
@@ -19296,13 +19296,13 @@
         <v>-0.2500000000000568</v>
       </c>
       <c r="U251">
-        <v>0.9998499906244138</v>
+        <v>-0.0001500093755861798</v>
       </c>
       <c r="V251">
-        <v>0.9997370348804447</v>
+        <v>-0.0002629651195552585</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19337,7 +19337,7 @@
         <v>0.5148685489873451</v>
       </c>
       <c r="K252">
-        <v>33.9876716914826</v>
+        <v>-0.160123283085174</v>
       </c>
       <c r="L252">
         <v>-0.01719274895024454</v>
@@ -19367,13 +19367,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U252">
-        <v>0.9998499681182252</v>
+        <v>-0.0001500318817747592</v>
       </c>
       <c r="V252">
-        <v>0.9997369657116018</v>
+        <v>-0.0002630342883982451</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19408,7 +19408,7 @@
         <v>0.5148685489873451</v>
       </c>
       <c r="K253">
-        <v>33.9876716914826</v>
+        <v>-0.160123283085174</v>
       </c>
       <c r="L253">
         <v>-0.01696898733404571</v>
@@ -19438,13 +19438,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U253">
-        <v>0.9998593240049519</v>
+        <v>-0.0001406759950480785</v>
       </c>
       <c r="V253">
-        <v>0.9997744827197385</v>
+        <v>-0.0002255172802615446</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19479,7 +19479,7 @@
         <v>0.5148685489873451</v>
       </c>
       <c r="K254">
-        <v>33.9876716914826</v>
+        <v>-0.160123283085174</v>
       </c>
       <c r="L254">
         <v>-0.01662675520764714</v>
@@ -19509,13 +19509,13 @@
         <v>-0.05000000000006821</v>
       </c>
       <c r="U254">
-        <v>0.9998593042124319</v>
+        <v>-0.0001406957875681458</v>
       </c>
       <c r="V254">
-        <v>0.9999060132709262</v>
+        <v>-9.398672907379169E-05</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19550,7 +19550,7 @@
         <v>0.514868548987345</v>
       </c>
       <c r="K255">
-        <v>33.98767169148259</v>
+        <v>-0.1601232830851741</v>
       </c>
       <c r="L255">
         <v>-0.01617407763327159</v>
@@ -19580,13 +19580,13 @@
         <v>-0.04375000000004547</v>
       </c>
       <c r="U255">
-        <v>0.9998029981800785</v>
+        <v>-0.0001970018199215495</v>
       </c>
       <c r="V255">
-        <v>0.9999248035492724</v>
+        <v>-7.519645072762149E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19621,7 +19621,7 @@
         <v>0.4775094876417987</v>
       </c>
       <c r="K256">
-        <v>32.318539517735</v>
+        <v>-0.1768146048226499</v>
       </c>
       <c r="L256">
         <v>-0.01572698753509891</v>
@@ -19651,13 +19651,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U256">
-        <v>0.9998029593627141</v>
+        <v>-0.0001970406372858724</v>
       </c>
       <c r="V256">
-        <v>0.9999435984207556</v>
+        <v>-5.64015792443584E-05</v>
       </c>
       <c r="W256">
-        <v>0.9997179125528913</v>
+        <v>-0.0002820874471086698</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19692,7 +19692,7 @@
         <v>0.4775094876417988</v>
       </c>
       <c r="K257">
-        <v>32.31853951773502</v>
+        <v>-0.1768146048226498</v>
       </c>
       <c r="L257">
         <v>-0.01525458937178356</v>
@@ -19722,13 +19722,13 @@
         <v>-0.09374999999994316</v>
       </c>
       <c r="U257">
-        <v>0.9998123052667143</v>
+        <v>-0.0001876947332857259</v>
       </c>
       <c r="V257">
-        <v>0.999981198413146</v>
+        <v>-1.880158685396704E-05</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19763,7 +19763,7 @@
         <v>0.5579088087981152</v>
       </c>
       <c r="K258">
-        <v>35.81139060562388</v>
+        <v>-0.1418860939437612</v>
       </c>
       <c r="L258">
         <v>-0.01463894036281038</v>
@@ -19793,13 +19793,13 @@
         <v>-0.09374999999994316</v>
       </c>
       <c r="U258">
-        <v>0.9998592025230908</v>
+        <v>-0.0001407974769092046</v>
       </c>
       <c r="V258">
-        <v>0.9999811980596398</v>
+        <v>-1.880194036019134E-05</v>
       </c>
       <c r="W258">
-        <v>1.000282167042889</v>
+        <v>0.0002821670428894141</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19834,7 +19834,7 @@
         <v>0.4771462154965974</v>
       </c>
       <c r="K259">
-        <v>32.30189472720457</v>
+        <v>-0.1769810527279543</v>
       </c>
       <c r="L259">
         <v>-0.01412752629625945</v>
@@ -19864,13 +19864,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U259">
-        <v>0.9998310192356439</v>
+        <v>-0.0001689807643561192</v>
       </c>
       <c r="V259">
-        <v>0.9999435931183605</v>
+        <v>-5.640688163954799E-05</v>
       </c>
       <c r="W259">
-        <v>0.9994358251057828</v>
+        <v>-0.0005641748942172287</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19905,7 +19905,7 @@
         <v>0.4771462154965974</v>
       </c>
       <c r="K260">
-        <v>32.30189472720457</v>
+        <v>-0.1769810527279543</v>
       </c>
       <c r="L260">
         <v>-0.01366049598346026</v>
@@ -19935,13 +19935,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U260">
-        <v>0.9998309906763189</v>
+        <v>-0.0001690093236811352</v>
       </c>
       <c r="V260">
-        <v>0.9999435899364445</v>
+        <v>-5.641006355550093E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19976,7 +19976,7 @@
         <v>0.5573453776141277</v>
       </c>
       <c r="K261">
-        <v>35.78816784161184</v>
+        <v>-0.1421183215838816</v>
       </c>
       <c r="L261">
         <v>-0.0130978604978951</v>
@@ -20006,13 +20006,13 @@
         <v>-0.1062499999999318</v>
       </c>
       <c r="U261">
-        <v>0.9998403531013758</v>
+        <v>-0.0001596468986242439</v>
       </c>
       <c r="V261">
-        <v>0.9999435867541697</v>
+        <v>-5.641324583027796E-05</v>
       </c>
       <c r="W261">
-        <v>1.000282246683601</v>
+        <v>0.0002822466836014392</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20047,7 +20047,7 @@
         <v>0.4768361921818914</v>
       </c>
       <c r="K262">
-        <v>32.28768327226659</v>
+        <v>-0.1771231672773341</v>
       </c>
       <c r="L262">
         <v>-0.01267065336393407</v>
@@ -20077,13 +20077,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U262">
-        <v>0.9998215426231356</v>
+        <v>-0.0001784573768643938</v>
       </c>
       <c r="V262">
-        <v>0.999905972619227</v>
+        <v>-9.402738077302075E-05</v>
       </c>
       <c r="W262">
-        <v>0.9994356659142213</v>
+        <v>-0.0005643340857787171</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20118,7 +20118,7 @@
         <v>0.4431452233122</v>
       </c>
       <c r="K263">
-        <v>30.70690434709861</v>
+        <v>-0.1929309565290139</v>
       </c>
       <c r="L263">
         <v>-0.01240927238904097</v>
@@ -20148,13 +20148,13 @@
         <v>-0.125</v>
       </c>
       <c r="U263">
-        <v>0.9998121166004379</v>
+        <v>-0.0001878833995621054</v>
       </c>
       <c r="V263">
-        <v>0.9998683492881456</v>
+        <v>-0.0001316507118543919</v>
       </c>
       <c r="W263">
-        <v>0.9997176736307172</v>
+        <v>-0.000282326369282826</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20189,7 +20189,7 @@
         <v>0.3064112049818838</v>
       </c>
       <c r="K264">
-        <v>23.45442260548683</v>
+        <v>-0.2654557739451318</v>
       </c>
       <c r="L264">
         <v>-0.0128356492360873</v>
@@ -20219,13 +20219,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U264">
-        <v>0.999755705681722</v>
+        <v>-0.0002442943182779933</v>
       </c>
       <c r="V264">
-        <v>0.9997554736287714</v>
+        <v>-0.0002445263712286261</v>
       </c>
       <c r="W264">
-        <v>0.9983055634001694</v>
+        <v>-0.001694436599830595</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20260,7 +20260,7 @@
         <v>0.5229399906398007</v>
       </c>
       <c r="K265">
-        <v>34.33753095025818</v>
+        <v>-0.1566246904974182</v>
       </c>
       <c r="L265">
         <v>-0.01319461428648918</v>
@@ -20290,13 +20290,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U265">
-        <v>0.9998214336061954</v>
+        <v>-0.0001785663938046467</v>
       </c>
       <c r="V265">
-        <v>0.9998871140712311</v>
+        <v>-0.0001128859287689021</v>
       </c>
       <c r="W265">
-        <v>1.001131541725601</v>
+        <v>0.001131541725601037</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20331,7 +20331,7 @@
         <v>0.5229399906398007</v>
       </c>
       <c r="K266">
-        <v>34.33753095025818</v>
+        <v>-0.1566246904974182</v>
       </c>
       <c r="L266">
         <v>-0.01344195175404129</v>
@@ -20361,13 +20361,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U266">
-        <v>0.9998120018047827</v>
+        <v>-0.0001879981952173093</v>
       </c>
       <c r="V266">
-        <v>0.9998871013265593</v>
+        <v>-0.0001128986734406645</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20402,7 +20402,7 @@
         <v>0.5829202636752517</v>
       </c>
       <c r="K267">
-        <v>36.82562394657943</v>
+        <v>-0.1317437605342057</v>
       </c>
       <c r="L267">
         <v>-0.01345440205811426</v>
@@ -20432,13 +20432,13 @@
         <v>-0.2062499999999545</v>
       </c>
       <c r="U267">
-        <v>0.9998213681320748</v>
+        <v>-0.0001786318679252163</v>
       </c>
       <c r="V267">
-        <v>0.9999059071491747</v>
+        <v>-9.409285082528918E-05</v>
       </c>
       <c r="W267">
-        <v>1.000282565696524</v>
+        <v>0.0002825656965244061</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20473,7 +20473,7 @@
         <v>0.5829202636752517</v>
       </c>
       <c r="K268">
-        <v>36.82562394657943</v>
+        <v>-0.1317437605342057</v>
       </c>
       <c r="L268">
         <v>-0.01327480047432555</v>
@@ -20503,13 +20503,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U268">
-        <v>0.9998401429310262</v>
+        <v>-0.0001598570689738121</v>
       </c>
       <c r="V268">
-        <v>0.9999058982948772</v>
+        <v>-9.410170512280658E-05</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20544,7 +20544,7 @@
         <v>0.915220945312024</v>
       </c>
       <c r="K269">
-        <v>47.78670301994416</v>
+        <v>-0.02213296980055846</v>
       </c>
       <c r="L269">
         <v>-0.012428541365934</v>
@@ -20574,13 +20574,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U269">
-        <v>0.9999529756978407</v>
+        <v>-4.70243021593042E-05</v>
       </c>
       <c r="V269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W269">
-        <v>1.001412429378531</v>
+        <v>0.001412429378531144</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20615,7 +20615,7 @@
         <v>0.9152209453120242</v>
       </c>
       <c r="K270">
-        <v>47.78670301994417</v>
+        <v>-0.02213296980055829</v>
       </c>
       <c r="L270">
         <v>-0.01118685760578454</v>
@@ -20645,13 +20645,13 @@
         <v>-0.1624999999999659</v>
       </c>
       <c r="U270">
-        <v>0.9999623787891614</v>
+        <v>-3.762121083861203E-05</v>
       </c>
       <c r="V270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20686,7 +20686,7 @@
         <v>0.7977310517847639</v>
       </c>
       <c r="K271">
-        <v>44.37432679336472</v>
+        <v>-0.05625673206635284</v>
       </c>
       <c r="L271">
         <v>-0.009949265891475144</v>
@@ -20716,13 +20716,13 @@
         <v>-0.1249999999999432</v>
       </c>
       <c r="U271">
-        <v>0.9999623773737526</v>
+        <v>-3.76226262474022E-05</v>
       </c>
       <c r="V271">
-        <v>0.9999811778877826</v>
+        <v>-1.882211221737595E-05</v>
       </c>
       <c r="W271">
-        <v>0.9994358251057828</v>
+        <v>-0.0005641748942172287</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20757,7 +20757,7 @@
         <v>0.8652959238341899</v>
       </c>
       <c r="K272">
-        <v>46.38920359915544</v>
+        <v>-0.03610796400844557</v>
       </c>
       <c r="L272">
         <v>-0.008654028052477414</v>
@@ -20787,13 +20787,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U272">
-        <v>0.9999905939895595</v>
+        <v>-9.406010440526913E-06</v>
       </c>
       <c r="V272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W272">
-        <v>1.000282246683601</v>
+        <v>0.0002822466836014392</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20828,7 +20828,7 @@
         <v>0.8652959238341897</v>
       </c>
       <c r="K273">
-        <v>46.38920359915544</v>
+        <v>-0.03610796400844557</v>
       </c>
       <c r="L273">
         <v>-0.007374835800275138</v>
@@ -20858,13 +20858,13 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="U273">
-        <v>0.9999811878021708</v>
+        <v>-1.881219782917665E-05</v>
       </c>
       <c r="V273">
-        <v>0.9999811775335041</v>
+        <v>-1.882246649587138E-05</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20899,7 +20899,7 @@
         <v>0.8652959238341897</v>
       </c>
       <c r="K274">
-        <v>46.38920359915544</v>
+        <v>-0.03610796400844557</v>
       </c>
       <c r="L274">
         <v>-0.006159991472575638</v>
@@ -20929,13 +20929,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U274">
-        <v>0.9999811874482655</v>
+        <v>-1.881255173452612E-05</v>
       </c>
       <c r="V274">
-        <v>1.000018822820788</v>
+        <v>1.882282078780051E-05</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20970,7 +20970,7 @@
         <v>0.9441002650494856</v>
       </c>
       <c r="K275">
-        <v>48.56232376602522</v>
+        <v>-0.01437676233974783</v>
       </c>
       <c r="L275">
         <v>-0.004936352503301385</v>
@@ -21000,13 +21000,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U275">
-        <v>0.9999905935471733</v>
+        <v>-9.406452826654643E-06</v>
       </c>
       <c r="V275">
-        <v>1.000037644932992</v>
+        <v>3.764493299196481E-05</v>
       </c>
       <c r="W275">
-        <v>1.000282167042889</v>
+        <v>0.0002821670428894141</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21041,7 +21041,7 @@
         <v>0.9441002650494856</v>
       </c>
       <c r="K276">
-        <v>48.56232376602522</v>
+        <v>-0.01437676233974783</v>
       </c>
       <c r="L276">
         <v>-0.00376736054690612</v>
@@ -21071,13 +21071,13 @@
         <v>0.21875</v>
       </c>
       <c r="U276">
-        <v>0.9999811869173824</v>
+        <v>-1.881308261764136E-05</v>
       </c>
       <c r="V276">
-        <v>1.000018821757952</v>
+        <v>1.882175795242524E-05</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21112,7 +21112,7 @@
         <v>0.9441002650494857</v>
       </c>
       <c r="K277">
-        <v>48.56232376602522</v>
+        <v>-0.01437676233974783</v>
       </c>
       <c r="L277">
         <v>-0.002692241095889235</v>
@@ -21142,13 +21142,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U277">
-        <v>0.9999811865634436</v>
+        <v>-1.881343655640855E-05</v>
       </c>
       <c r="V277">
-        <v>1.000056464211101</v>
+        <v>5.64642111007263E-05</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21183,7 +21183,7 @@
         <v>0.7974985004768206</v>
       </c>
       <c r="K278">
-        <v>44.36713022376758</v>
+        <v>-0.05632869776232419</v>
       </c>
       <c r="L278">
         <v>-0.001938212647268194</v>
@@ -21213,13 +21213,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U278">
-        <v>0.9999529655237288</v>
+        <v>-4.703447627119051E-05</v>
       </c>
       <c r="V278">
-        <v>1.000037640682049</v>
+        <v>3.764068204925586E-05</v>
       </c>
       <c r="W278">
-        <v>0.9994358251057828</v>
+        <v>-0.0005641748942172287</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21254,7 +21254,7 @@
         <v>0.7974985004768206</v>
       </c>
       <c r="K279">
-        <v>44.36713022376758</v>
+        <v>-0.05632869776232419</v>
       </c>
       <c r="L279">
         <v>-0.001419720263486873</v>
@@ -21284,13 +21284,13 @@
         <v>0.1687500000000455</v>
       </c>
       <c r="U279">
-        <v>0.9999529633113829</v>
+        <v>-4.703668861705257E-05</v>
       </c>
       <c r="V279">
-        <v>1.000150557061126</v>
+        <v>0.0001505570611259888</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21325,7 +21325,7 @@
         <v>0.7343253691584493</v>
       </c>
       <c r="K280">
-        <v>42.34069236470707</v>
+        <v>-0.07659307635292928</v>
       </c>
       <c r="L280">
         <v>-0.001174561497746342</v>
@@ -21355,13 +21355,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U280">
-        <v>0.9999717766592972</v>
+        <v>-2.822334070284871E-05</v>
       </c>
       <c r="V280">
-        <v>1.000056450398916</v>
+        <v>5.645039891621906E-05</v>
       </c>
       <c r="W280">
-        <v>0.9997177533163984</v>
+        <v>-0.0002822466836015503</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21396,7 +21396,7 @@
         <v>0.8177086393802088</v>
       </c>
       <c r="K281">
-        <v>44.98568261517567</v>
+        <v>-0.05014317384824329</v>
       </c>
       <c r="L281">
         <v>-0.001003589344272628</v>
@@ -21426,13 +21426,13 @@
         <v>0.0625</v>
       </c>
       <c r="U281">
-        <v>0.9999811839084787</v>
+        <v>-1.881609152132313E-05</v>
       </c>
       <c r="V281">
-        <v>1.000075262949931</v>
+        <v>7.526294993143168E-05</v>
       </c>
       <c r="W281">
-        <v>1.000282326369283</v>
+        <v>0.000282326369283048</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21467,7 +21467,7 @@
         <v>0.8177086393802089</v>
       </c>
       <c r="K282">
-        <v>44.98568261517567</v>
+        <v>-0.05014317384824329</v>
       </c>
       <c r="L282">
         <v>-0.0008848034431838132</v>
@@ -21497,13 +21497,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U282">
-        <v>0.9999811835544264</v>
+        <v>-1.881644557355511E-05</v>
       </c>
       <c r="V282">
-        <v>1.000056442964384</v>
+        <v>5.644296438434004E-05</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21538,7 +21538,7 @@
         <v>0.8177086393802088</v>
       </c>
       <c r="K283">
-        <v>44.98568261517567</v>
+        <v>-0.05014317384824329</v>
       </c>
       <c r="L283">
         <v>-0.0008019818630014336</v>
@@ -21568,13 +21568,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U283">
-        <v>0.9999811832003614</v>
+        <v>-1.881679963855465E-05</v>
       </c>
       <c r="V283">
-        <v>1.000056439778756</v>
+        <v>5.643977875613437E-05</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21609,7 +21609,7 @@
         <v>0.8177086393802087</v>
       </c>
       <c r="K284">
-        <v>44.98568261517566</v>
+        <v>-0.05014317384824341</v>
       </c>
       <c r="L284">
         <v>-0.0007433064161200249</v>
@@ -21639,13 +21639,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U284">
-        <v>0.9999811828462826</v>
+        <v>-1.881715371743198E-05</v>
       </c>
       <c r="V284">
-        <v>0.9999623756043419</v>
+        <v>-3.762439565813125E-05</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21680,7 +21680,7 @@
         <v>0.8177086393802087</v>
       </c>
       <c r="K285">
-        <v>44.98568261517566</v>
+        <v>-0.05014317384824341</v>
       </c>
       <c r="L285">
         <v>-0.0007002921272886257</v>
@@ -21710,13 +21710,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U285">
-        <v>0.9999811824921907</v>
+        <v>-1.881750780929892E-05</v>
       </c>
       <c r="V285">
-        <v>0.9999623741886935</v>
+        <v>-3.762581130650755E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21751,7 +21751,7 @@
         <v>0.6727224009626182</v>
       </c>
       <c r="K286">
-        <v>40.21721718890593</v>
+        <v>-0.09782782811094065</v>
       </c>
       <c r="L286">
         <v>-0.000872486633872324</v>
@@ -21781,13 +21781,13 @@
         <v>-0.07499999999993179</v>
       </c>
       <c r="U286">
-        <v>0.9999717732071283</v>
+        <v>-2.82267928717328E-05</v>
       </c>
       <c r="V286">
-        <v>0.9999623727729384</v>
+        <v>-3.762722706157628E-05</v>
       </c>
       <c r="W286">
-        <v>0.9994355066327971</v>
+        <v>-0.0005644933672028785</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21822,7 +21822,7 @@
         <v>0.6727224009626182</v>
       </c>
       <c r="K287">
-        <v>40.21721718890593</v>
+        <v>-0.09782782811094065</v>
       </c>
       <c r="L287">
         <v>-0.001160916541217648</v>
@@ -21852,13 +21852,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U287">
-        <v>0.999971772410354</v>
+        <v>-2.822758964604599E-05</v>
       </c>
       <c r="V287">
-        <v>0.9999435570356155</v>
+        <v>-5.644296438445107E-05</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21893,7 +21893,7 @@
         <v>0.9674170463113407</v>
       </c>
       <c r="K288">
-        <v>49.17193576853092</v>
+        <v>-0.008280642314690778</v>
       </c>
       <c r="L288">
         <v>-0.001188865058597558</v>
@@ -21923,13 +21923,13 @@
         <v>-0.06249999999994316</v>
       </c>
       <c r="U288">
-        <v>0.9999905905378449</v>
+        <v>-9.40946215510774E-06</v>
       </c>
       <c r="V288">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W288">
-        <v>1.000847218299915</v>
+        <v>0.0008472182999150757</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21964,7 +21964,7 @@
         <v>0.9674170463113406</v>
       </c>
       <c r="K289">
-        <v>49.17193576853092</v>
+        <v>-0.008280642314690778</v>
       </c>
       <c r="L289">
         <v>-0.00105289144206192</v>
@@ -21994,13 +21994,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U289">
-        <v>1.000009409550694</v>
+        <v>9.409550693728619E-06</v>
       </c>
       <c r="V289">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22035,7 +22035,7 @@
         <v>0.7944706121247433</v>
       </c>
       <c r="K290">
-        <v>44.27325846167245</v>
+        <v>-0.05726741538327551</v>
       </c>
       <c r="L290">
         <v>-0.00102797341447107</v>
@@ -22065,13 +22065,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U290">
-        <v>0.999990590537845</v>
+        <v>-9.409462154996717E-06</v>
       </c>
       <c r="V290">
-        <v>0.9999435538496275</v>
+        <v>-5.644615037248002E-05</v>
       </c>
       <c r="W290">
-        <v>0.9994356659142213</v>
+        <v>-0.0005643340857787171</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22106,7 +22106,7 @@
         <v>0.8885607869802206</v>
       </c>
       <c r="K291">
-        <v>47.04962599594242</v>
+        <v>-0.02950374004057577</v>
       </c>
       <c r="L291">
         <v>-0.0009654135335325342</v>
@@ -22136,13 +22136,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U291">
-        <v>0.999990590449306</v>
+        <v>-9.409550693950663E-06</v>
       </c>
       <c r="V291">
-        <v>0.9999623671088532</v>
+        <v>-3.763289114677715E-05</v>
       </c>
       <c r="W291">
-        <v>1.000282326369283</v>
+        <v>0.000282326369283048</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22177,7 +22177,7 @@
         <v>0.8885607869802206</v>
       </c>
       <c r="K292">
-        <v>47.04962599594242</v>
+        <v>-0.02950374004057577</v>
       </c>
       <c r="L292">
         <v>-0.0008805194414990839</v>
@@ -22207,13 +22207,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U292">
-        <v>1.000009409639234</v>
+        <v>9.409639234458922E-06</v>
       </c>
       <c r="V292">
-        <v>0.9999623656925654</v>
+        <v>-3.763430743464191E-05</v>
       </c>
       <c r="W292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22248,7 +22248,7 @@
         <v>0.8885607869802207</v>
       </c>
       <c r="K293">
-        <v>47.04962599594242</v>
+        <v>-0.02950374004057577</v>
       </c>
       <c r="L293">
         <v>-0.0007842974690202375</v>
@@ -22278,13 +22278,13 @@
         <v>-0.01249999999993179</v>
       </c>
       <c r="U293">
-        <v>1.000018819101388</v>
+        <v>1.881910138767928E-05</v>
       </c>
       <c r="V293">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22319,7 +22319,7 @@
         <v>0.8885607869802207</v>
       </c>
       <c r="K294">
-        <v>47.04962599594242</v>
+        <v>-0.02950374004057577</v>
       </c>
       <c r="L294">
         <v>-0.0006844879746598575</v>
@@ -22349,13 +22349,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U294">
-        <v>1.000075274988944</v>
+        <v>7.527498894432938E-05</v>
       </c>
       <c r="V294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22390,7 +22390,7 @@
         <v>0.8885607869802207</v>
       </c>
       <c r="K295">
-        <v>47.04962599594242</v>
+        <v>-0.02950374004057577</v>
       </c>
       <c r="L295">
         <v>-0.000586372488208286</v>
@@ -22420,13 +22420,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U295">
-        <v>1.000037634661523</v>
+        <v>3.763466152317818E-05</v>
       </c>
       <c r="V295">
-        <v>1.000018817861914</v>
+        <v>1.881786191448853E-05</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22461,7 +22461,7 @@
         <v>1.131756684670452</v>
       </c>
       <c r="K296">
-        <v>53.09033121879995</v>
+        <v>0.03090331218799958</v>
       </c>
       <c r="L296">
         <v>-0.0002878517005537378</v>
@@ -22491,13 +22491,13 @@
         <v>0.03125</v>
       </c>
       <c r="U296">
-        <v>1.000056449867813</v>
+        <v>5.644986781327965E-05</v>
       </c>
       <c r="V296">
-        <v>1.000037635015619</v>
+        <v>3.763501561859783E-05</v>
       </c>
       <c r="W296">
-        <v>1.000564493367203</v>
+        <v>0.0005644933672028785</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22532,7 +22532,7 @@
         <v>1.131756684670452</v>
       </c>
       <c r="K297">
-        <v>53.09033121879995</v>
+        <v>0.03090331218799958</v>
       </c>
       <c r="L297">
         <v>0.000114107743475625</v>
@@ -22562,13 +22562,13 @@
         <v>0.03125</v>
       </c>
       <c r="U297">
-        <v>1.000047038901171</v>
+        <v>4.703890117130349E-05</v>
       </c>
       <c r="V297">
-        <v>1.000037633599278</v>
+        <v>3.763359927755339E-05</v>
       </c>
       <c r="W297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22603,7 +22603,7 @@
         <v>1.131756684670452</v>
       </c>
       <c r="K298">
-        <v>53.09033121879995</v>
+        <v>0.03090331218799958</v>
       </c>
       <c r="L298">
         <v>0.0005527014019008002</v>
@@ -22633,13 +22633,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U298">
-        <v>1.000047036688617</v>
+        <v>4.703668861716359E-05</v>
       </c>
       <c r="V298">
-        <v>1.000037632183043</v>
+        <v>3.763218304286831E-05</v>
       </c>
       <c r="W298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22674,7 +22674,7 @@
         <v>1.273582547152038</v>
       </c>
       <c r="K299">
-        <v>56.01655188404609</v>
+        <v>0.06016551884046084</v>
       </c>
       <c r="L299">
         <v>0.001086296214477287</v>
@@ -22704,13 +22704,13 @@
         <v>0.07499999999993179</v>
       </c>
       <c r="U299">
-        <v>1.000009406895254</v>
+        <v>9.406895254304715E-06</v>
       </c>
       <c r="V299">
-        <v>1.000056446150373</v>
+        <v>5.644615037270206E-05</v>
       </c>
       <c r="W299">
-        <v>1.000282087447109</v>
+        <v>0.0002820874471085588</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22745,7 +22745,7 @@
         <v>0.9807495870283442</v>
       </c>
       <c r="K300">
-        <v>49.51406242622177</v>
+        <v>-0.004859375737782279</v>
       </c>
       <c r="L300">
         <v>0.001433930101208092</v>
@@ -22775,13 +22775,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U300">
-        <v>0.9999905931932346</v>
+        <v>-9.406806765421827E-06</v>
       </c>
       <c r="V300">
-        <v>1.000018814321461</v>
+        <v>1.881432146122464E-05</v>
       </c>
       <c r="W300">
-        <v>0.9994359842075576</v>
+        <v>-0.0005640157924423628</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22816,7 +22816,7 @@
         <v>1.222779616312373</v>
       </c>
       <c r="K301">
-        <v>55.01128439988953</v>
+        <v>0.05011284399889537</v>
       </c>
       <c r="L301">
         <v>0.001847069033021093</v>
@@ -22846,13 +22846,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U301">
-        <v>1.000028220685763</v>
+        <v>2.82206857626921E-05</v>
       </c>
       <c r="V301">
-        <v>1.000094069837448</v>
+        <v>9.406983744764119E-05</v>
       </c>
       <c r="W301">
-        <v>1.000564334085779</v>
+        <v>0.0005643340857788282</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22887,7 +22887,7 @@
         <v>1.084616573638822</v>
       </c>
       <c r="K302">
-        <v>52.0295476566014</v>
+        <v>0.02029547656601405</v>
       </c>
       <c r="L302">
         <v>0.00216405665016527</v>
@@ -22917,13 +22917,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U302">
-        <v>1.000009406629793</v>
+        <v>9.406629792652055E-06</v>
       </c>
       <c r="V302">
-        <v>1.000075248791316</v>
+        <v>7.52487913162625E-05</v>
       </c>
       <c r="W302">
-        <v>0.9997179921037789</v>
+        <v>-0.0002820078962211259</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22958,7 +22958,7 @@
         <v>1.084616573638822</v>
       </c>
       <c r="K303">
-        <v>52.0295476566014</v>
+        <v>0.02029547656601405</v>
       </c>
       <c r="L303">
         <v>0.002394706716542157</v>
@@ -22988,13 +22988,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U303">
-        <v>1.000009406541309</v>
+        <v>9.406541308765171E-06</v>
       </c>
       <c r="V303">
-        <v>1.00001881078234</v>
+        <v>1.881078234045042E-05</v>
       </c>
       <c r="W303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23029,7 +23029,7 @@
         <v>1.084616573638822</v>
       </c>
       <c r="K304">
-        <v>52.02954765660139</v>
+        <v>0.02029547656601383</v>
       </c>
       <c r="L304">
         <v>0.002549628198826882</v>
@@ -23059,13 +23059,13 @@
         <v>0.09374999999994316</v>
       </c>
       <c r="U304">
-        <v>1.000009406452827</v>
+        <v>9.406452826654643E-06</v>
       </c>
       <c r="V304">
-        <v>1.000018810428501</v>
+        <v>1.881042850149228E-05</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23100,7 +23100,7 @@
         <v>1.348190762215832</v>
       </c>
       <c r="K305">
-        <v>57.4140220594188</v>
+        <v>0.07414022059418801</v>
       </c>
       <c r="L305">
         <v>0.002845035380901979</v>
@@ -23130,13 +23130,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U305">
-        <v>1.000018812728692</v>
+        <v>1.881272869219686E-05</v>
       </c>
       <c r="V305">
-        <v>1.00009405037338</v>
+        <v>9.405037337995026E-05</v>
       </c>
       <c r="W305">
-        <v>1.000564174894217</v>
+        <v>0.0005641748942171176</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23171,7 +23171,7 @@
         <v>1.055379420690246</v>
       </c>
       <c r="K306">
-        <v>51.34718242609554</v>
+        <v>0.01347182426095539</v>
       </c>
       <c r="L306">
         <v>0.002990827176039859</v>
@@ -23201,13 +23201,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V306">
-        <v>1.000037616611496</v>
+        <v>3.76166114957055E-05</v>
       </c>
       <c r="W306">
-        <v>0.9994361432196223</v>
+        <v>-0.0005638567803777361</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23242,7 +23242,7 @@
         <v>1.28399874771871</v>
       </c>
       <c r="K307">
-        <v>56.21713886669972</v>
+        <v>0.06217138866699723</v>
       </c>
       <c r="L307">
         <v>0.003231309267537846</v>
@@ -23272,13 +23272,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U307">
-        <v>1.00001881237478</v>
+        <v>1.881237478018605E-05</v>
       </c>
       <c r="V307">
-        <v>1.000075230393079</v>
+        <v>7.523039307866242E-05</v>
       </c>
       <c r="W307">
-        <v>1.000564174894217</v>
+        <v>0.0005641748942171176</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23313,7 +23313,7 @@
         <v>1.644976632500529</v>
       </c>
       <c r="K308">
-        <v>62.1924826211182</v>
+        <v>0.1219248262111819</v>
       </c>
       <c r="L308">
         <v>0.003810303206554379</v>
@@ -23343,13 +23343,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U308">
-        <v>1.000065842073085</v>
+        <v>6.584207308479861E-05</v>
       </c>
       <c r="V308">
-        <v>1.000131643284312</v>
+        <v>0.000131643284312144</v>
       </c>
       <c r="W308">
-        <v>1.000845785170567</v>
+        <v>0.0008457851705667707</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23384,7 +23384,7 @@
         <v>1.460048487049907</v>
       </c>
       <c r="K309">
-        <v>59.35039470708966</v>
+        <v>0.0935039470708966</v>
       </c>
       <c r="L309">
         <v>0.004440796117389102</v>
@@ -23414,13 +23414,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U309">
-        <v>1.000056432347021</v>
+        <v>5.64323470211292E-05</v>
       </c>
       <c r="V309">
-        <v>1.000112822248547</v>
+        <v>0.0001128222485473618</v>
       </c>
       <c r="W309">
-        <v>0.9997183098591549</v>
+        <v>-0.0002816901408451145</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23455,7 +23455,7 @@
         <v>1.460048487049907</v>
       </c>
       <c r="K310">
-        <v>59.35039470708966</v>
+        <v>0.0935039470708966</v>
       </c>
       <c r="L310">
         <v>0.005046090894271482</v>
@@ -23485,13 +23485,13 @@
         <v>0.1124999999999545</v>
       </c>
       <c r="U310">
-        <v>1.000065834023023</v>
+        <v>6.583402302329233E-05</v>
       </c>
       <c r="V310">
-        <v>1.000112809521124</v>
+        <v>0.0001128095211235802</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23526,7 +23526,7 @@
         <v>1.460048487049907</v>
       </c>
       <c r="K311">
-        <v>59.35039470708966</v>
+        <v>0.0935039470708966</v>
       </c>
       <c r="L311">
         <v>0.005579125734290678</v>
@@ -23556,13 +23556,13 @@
         <v>0.125</v>
       </c>
       <c r="U311">
-        <v>1.000056425447877</v>
+        <v>5.642544787720638E-05</v>
       </c>
       <c r="V311">
-        <v>1.00007519786438</v>
+        <v>7.519786438048293E-05</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23597,7 +23597,7 @@
         <v>1.722290615513306</v>
       </c>
       <c r="K312">
-        <v>63.26622902413953</v>
+        <v>0.1326622902413953</v>
       </c>
       <c r="L312">
         <v>0.006219524283427993</v>
@@ -23627,13 +23627,13 @@
         <v>0.1624999999999659</v>
       </c>
       <c r="U312">
-        <v>1.000075229685634</v>
+        <v>7.522968563389298E-05</v>
       </c>
       <c r="V312">
-        <v>1.000112788315131</v>
+        <v>0.0001127883151306186</v>
       </c>
       <c r="W312">
-        <v>1.000563539025078</v>
+        <v>0.0005635390250775529</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23668,7 +23668,7 @@
         <v>1.722290615513306</v>
       </c>
       <c r="K313">
-        <v>63.26622902413953</v>
+        <v>0.1326622902413953</v>
       </c>
       <c r="L313">
         <v>0.006861427955358749</v>
@@ -23698,13 +23698,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U313">
-        <v>1.000075224026554</v>
+        <v>7.522402655402161E-05</v>
       </c>
       <c r="V313">
-        <v>1.000112775595361</v>
+        <v>0.0001127755953611587</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23739,7 +23739,7 @@
         <v>1.867577113276879</v>
       </c>
       <c r="K314">
-        <v>65.12735454017954</v>
+        <v>0.1512735454017954</v>
       </c>
       <c r="L314">
         <v>0.007540996143931651</v>
@@ -23769,13 +23769,13 @@
         <v>0.2187499999999432</v>
       </c>
       <c r="U314">
-        <v>1.000084620664366</v>
+        <v>8.462066436631943E-05</v>
       </c>
       <c r="V314">
-        <v>1.000112762878461</v>
+        <v>0.000112762878460515</v>
       </c>
       <c r="W314">
-        <v>1.000281610813855</v>
+        <v>0.0002816108138552487</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23810,7 +23810,7 @@
         <v>1.430144186605498</v>
       </c>
       <c r="K315">
-        <v>58.85017829346038</v>
+        <v>0.08850178293460376</v>
       </c>
       <c r="L315">
         <v>0.00796709667065919</v>
@@ -23840,13 +23840,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U315">
-        <v>1.000065810503356</v>
+        <v>6.581050335641159E-05</v>
       </c>
       <c r="V315">
-        <v>1.000112750164427</v>
+        <v>0.0001127501644273554</v>
       </c>
       <c r="W315">
-        <v>0.9994369369369369</v>
+        <v>-0.0005630630630630851</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23881,7 +23881,7 @@
         <v>1.044031427559553</v>
       </c>
       <c r="K316">
-        <v>51.07707315469519</v>
+        <v>0.01077073154695185</v>
       </c>
       <c r="L316">
         <v>0.007875335394816219</v>
@@ -23911,13 +23911,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U316">
-        <v>1.000056405290816</v>
+        <v>5.640529081607504E-05</v>
       </c>
       <c r="V316">
-        <v>1.000018789575543</v>
+        <v>1.878957554346528E-05</v>
       </c>
       <c r="W316">
-        <v>0.9991549295774648</v>
+        <v>-0.0008450704225352323</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23952,7 +23952,7 @@
         <v>1.13876184868607</v>
       </c>
       <c r="K317">
-        <v>53.24397615310271</v>
+        <v>0.03243976153102712</v>
       </c>
       <c r="L317">
         <v>0.007549774815252684</v>
@@ -23982,13 +23982,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U317">
-        <v>1.000065802461012</v>
+        <v>6.580246101206555E-05</v>
       </c>
       <c r="V317">
-        <v>1.000056367667506</v>
+        <v>5.636766750583E-05</v>
       </c>
       <c r="W317">
-        <v>1.000281928390189</v>
+        <v>0.0002819283901889236</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24023,7 +24023,7 @@
         <v>1.13876184868607</v>
       </c>
       <c r="K318">
-        <v>53.24397615310271</v>
+        <v>0.03243976153102712</v>
       </c>
       <c r="L318">
         <v>0.007075860352393205</v>
@@ -24053,13 +24053,13 @@
         <v>0.1187500000000909</v>
       </c>
       <c r="U318">
-        <v>1.00003759893219</v>
+        <v>3.759893219035249E-05</v>
       </c>
       <c r="V318">
-        <v>1.000056364490371</v>
+        <v>5.636449037105251E-05</v>
       </c>
       <c r="W318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24094,7 +24094,7 @@
         <v>1.13876184868607</v>
       </c>
       <c r="K319">
-        <v>53.24397615310271</v>
+        <v>0.03243976153102712</v>
       </c>
       <c r="L319">
         <v>0.006516530316367186</v>
@@ -24124,13 +24124,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U319">
-        <v>1.000037597518564</v>
+        <v>3.759751856380333E-05</v>
       </c>
       <c r="V319">
-        <v>1.000056361313594</v>
+        <v>5.636131359421093E-05</v>
       </c>
       <c r="W319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24165,7 +24165,7 @@
         <v>1.13876184868607</v>
       </c>
       <c r="K320">
-        <v>53.24397615310271</v>
+        <v>0.03243976153102712</v>
       </c>
       <c r="L320">
         <v>0.005917387650853071</v>
@@ -24195,13 +24195,13 @@
         <v>0.03125</v>
       </c>
       <c r="U320">
-        <v>1.000056394157565</v>
+        <v>5.63941575653093E-05</v>
       </c>
       <c r="V320">
-        <v>1.000018786045725</v>
+        <v>1.878604572547182E-05</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24236,7 +24236,7 @@
         <v>1.020117943403205</v>
       </c>
       <c r="K321">
-        <v>50.49793982249652</v>
+        <v>0.004979398224965181</v>
       </c>
       <c r="L321">
         <v>0.005208104720660229</v>
@@ -24266,13 +24266,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U321">
-        <v>1.000037593984963</v>
+        <v>3.75939849626139E-05</v>
       </c>
       <c r="V321">
-        <v>1.000037571385633</v>
+        <v>3.757138563265094E-05</v>
       </c>
       <c r="W321">
-        <v>0.9997181510710259</v>
+        <v>-0.0002818489289740933</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24307,7 +24307,7 @@
         <v>1.020117943403204</v>
       </c>
       <c r="K322">
-        <v>50.49793982249652</v>
+        <v>0.004979398224965181</v>
       </c>
       <c r="L322">
         <v>0.004458358373405594</v>
@@ -24337,13 +24337,13 @@
         <v>-0.09374999999994316</v>
       </c>
       <c r="U322">
-        <v>1.000037592571708</v>
+        <v>3.759257170754537E-05</v>
       </c>
       <c r="V322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24378,7 +24378,7 @@
         <v>0.9145411286056556</v>
       </c>
       <c r="K323">
-        <v>47.76816308311477</v>
+        <v>-0.02231836916885227</v>
       </c>
       <c r="L323">
         <v>0.003613000110989343</v>
@@ -24408,13 +24408,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U323">
-        <v>1.00002819336892</v>
+        <v>2.819336891968227E-05</v>
       </c>
       <c r="V323">
-        <v>0.9999248600518467</v>
+        <v>-7.513994815333547E-05</v>
       </c>
       <c r="W323">
-        <v>0.9997180716098112</v>
+        <v>-0.0002819283901888125</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24449,7 +24449,7 @@
         <v>0.9145411286056557</v>
       </c>
       <c r="K324">
-        <v>47.76816308311477</v>
+        <v>-0.02231836916885227</v>
       </c>
       <c r="L324">
         <v>0.002750453088818305</v>
@@ -24479,13 +24479,13 @@
         <v>-0.1250000000000568</v>
       </c>
       <c r="U324">
-        <v>1.000028192574076</v>
+        <v>2.819257407593589E-05</v>
       </c>
       <c r="V324">
-        <v>0.999943640804058</v>
+        <v>-5.635919594204619E-05</v>
       </c>
       <c r="W324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24520,7 +24520,7 @@
         <v>1.029216711983817</v>
       </c>
       <c r="K325">
-        <v>50.71990122620402</v>
+        <v>0.007199012262040116</v>
       </c>
       <c r="L325">
         <v>0.002025102812679402</v>
@@ -24550,13 +24550,13 @@
         <v>-0.125</v>
       </c>
       <c r="U325">
-        <v>1.000037589039036</v>
+        <v>3.758903903627875E-05</v>
       </c>
       <c r="V325">
-        <v>0.9999624250850131</v>
+        <v>-3.757491498690424E-05</v>
       </c>
       <c r="W325">
-        <v>1.000282007896221</v>
+        <v>0.0002820078962209038</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24591,7 +24591,7 @@
         <v>1.391350133178147</v>
       </c>
       <c r="K326">
-        <v>58.18261884256228</v>
+        <v>0.08182618842562284</v>
       </c>
       <c r="L326">
         <v>0.001729660617965334</v>
@@ -24621,13 +24621,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U326">
-        <v>1.000046984532692</v>
+        <v>4.698453269180725E-05</v>
       </c>
       <c r="V326">
-        <v>1.000018788163457</v>
+        <v>1.878816345723955E-05</v>
       </c>
       <c r="W326">
-        <v>1.000845785170567</v>
+        <v>0.0008457851705667707</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24662,7 +24662,7 @@
         <v>1.518414491491971</v>
       </c>
       <c r="K327">
-        <v>60.29247753384809</v>
+        <v>0.1029247753384809</v>
       </c>
       <c r="L327">
         <v>0.001809823015185276</v>
@@ -24692,13 +24692,13 @@
         <v>-0.08124999999995453</v>
       </c>
       <c r="U327">
-        <v>1.000056378790299</v>
+        <v>5.637879029918302E-05</v>
       </c>
       <c r="V327">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W327">
-        <v>1.000281690140845</v>
+        <v>0.0002816901408451145</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24733,7 +24733,7 @@
         <v>1.785918403731525</v>
       </c>
       <c r="K328">
-        <v>64.10519422749151</v>
+        <v>0.1410519422749151</v>
       </c>
       <c r="L328">
         <v>0.002311110050551579</v>
@@ -24763,13 +24763,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U328">
-        <v>1.000075167482547</v>
+        <v>7.516748254721151E-05</v>
       </c>
       <c r="V328">
-        <v>1.000037575620937</v>
+        <v>3.757562093720246E-05</v>
       </c>
       <c r="W328">
-        <v>1.00056322162771</v>
+        <v>0.0005632216277104973</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24804,7 +24804,7 @@
         <v>1.926709936489145</v>
       </c>
       <c r="K329">
-        <v>65.83194024346699</v>
+        <v>0.1583194024346699</v>
       </c>
       <c r="L329">
         <v>0.003129773096065877</v>
@@ -24834,13 +24834,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U329">
-        <v>1.000075161832821</v>
+        <v>7.516183282119115E-05</v>
       </c>
       <c r="V329">
-        <v>1.000037574209063</v>
+        <v>3.757420906280728E-05</v>
       </c>
       <c r="W329">
-        <v>1.000281452293836</v>
+        <v>0.0002814522938361375</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24875,7 +24875,7 @@
         <v>1.678024062982351</v>
       </c>
       <c r="K330">
-        <v>62.65903604740723</v>
+        <v>0.1265903604740723</v>
       </c>
       <c r="L330">
         <v>0.003974448006289609</v>
@@ -24905,13 +24905,13 @@
         <v>0.1062500000000455</v>
       </c>
       <c r="U330">
-        <v>1.000084550706938</v>
+        <v>8.455070693780264E-05</v>
       </c>
       <c r="V330">
-        <v>1.000056359195942</v>
+        <v>5.635919594193517E-05</v>
       </c>
       <c r="W330">
-        <v>0.9997186268992685</v>
+        <v>-0.0002813731007315079</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24946,7 +24946,7 @@
         <v>1.477307961951195</v>
       </c>
       <c r="K331">
-        <v>59.63360166120111</v>
+        <v>0.09633601661201108</v>
       </c>
       <c r="L331">
         <v>0.004663892384959711</v>
@@ -24976,13 +24976,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U331">
-        <v>1.00005636237248</v>
+        <v>5.636237248030085E-05</v>
       </c>
       <c r="V331">
-        <v>1.000093926699604</v>
+        <v>9.392669960384126E-05</v>
       </c>
       <c r="W331">
-        <v>0.9997185477061638</v>
+        <v>-0.0002814522938362485</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25017,7 +25017,7 @@
         <v>1.477307961951195</v>
       </c>
       <c r="K332">
-        <v>59.6336016612011</v>
+        <v>0.09633601661201097</v>
       </c>
       <c r="L332">
         <v>0.005198339779991407</v>
@@ -25047,13 +25047,13 @@
         <v>0.2125000000000341</v>
       </c>
       <c r="U332">
-        <v>1.000065752395266</v>
+        <v>6.575239526585008E-05</v>
       </c>
       <c r="V332">
-        <v>1.000075134302566</v>
+        <v>7.513430256578246E-05</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25088,7 +25088,7 @@
         <v>1.477307961951195</v>
       </c>
       <c r="K333">
-        <v>59.63360166120111</v>
+        <v>0.09633601661201108</v>
       </c>
       <c r="L333">
         <v>0.005585869195574123</v>
@@ -25118,13 +25118,13 @@
         <v>0.25</v>
       </c>
       <c r="U333">
-        <v>1.000065748072173</v>
+        <v>6.574807217263334E-05</v>
       </c>
       <c r="V333">
-        <v>1.000075128657827</v>
+        <v>7.512865782666189E-05</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25159,7 +25159,7 @@
         <v>1.296438542064623</v>
       </c>
       <c r="K334">
-        <v>56.45431037309861</v>
+        <v>0.06454310373098615</v>
       </c>
       <c r="L334">
         <v>0.005736712411805111</v>
@@ -25189,13 +25189,13 @@
         <v>0.2437499999999204</v>
       </c>
       <c r="U334">
-        <v>1.000056351785412</v>
+        <v>5.635178541241181E-05</v>
       </c>
       <c r="V334">
-        <v>1.000056342260452</v>
+        <v>5.634226045159174E-05</v>
       </c>
       <c r="W334">
-        <v>0.9997184684684686</v>
+        <v>-0.0002815315315314315</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25230,7 +25230,7 @@
         <v>1.296438542064623</v>
       </c>
       <c r="K335">
-        <v>56.45431037309862</v>
+        <v>0.06454310373098626</v>
       </c>
       <c r="L335">
         <v>0.005713666248406598</v>
@@ -25260,13 +25260,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U335">
-        <v>1.000037565740045</v>
+        <v>3.756574004509794E-05</v>
       </c>
       <c r="V335">
-        <v>1.00005633908618</v>
+        <v>5.633908617985739E-05</v>
       </c>
       <c r="W335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25301,7 +25301,7 @@
         <v>1.296438542064624</v>
       </c>
       <c r="K336">
-        <v>56.45431037309862</v>
+        <v>0.06454310373098626</v>
       </c>
       <c r="L336">
         <v>0.00556594228295107</v>
@@ -25331,13 +25331,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U336">
-        <v>1.00005634649337</v>
+        <v>5.634649336960784E-05</v>
       </c>
       <c r="V336">
-        <v>1.000075114549688</v>
+        <v>7.511454968844866E-05</v>
       </c>
       <c r="W336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25372,7 +25372,7 @@
         <v>1.296438542064623</v>
       </c>
       <c r="K337">
-        <v>56.45431037309861</v>
+        <v>0.06454310373098615</v>
       </c>
       <c r="L337">
         <v>0.005331837759960451</v>
@@ -25402,13 +25402,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U337">
-        <v>1.000037562212414</v>
+        <v>3.756221241424385E-05</v>
       </c>
       <c r="V337">
-        <v>1.000075108907917</v>
+        <v>7.510890791651015E-05</v>
       </c>
       <c r="W337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25443,7 +25443,7 @@
         <v>1.127030048276481</v>
       </c>
       <c r="K338">
-        <v>52.98608965067071</v>
+        <v>0.02986089650670709</v>
       </c>
       <c r="L338">
         <v>0.004938313291279238</v>
@@ -25473,13 +25473,13 @@
         <v>0.0625</v>
       </c>
       <c r="U338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V338">
-        <v>1.000075103266992</v>
+        <v>7.510326699211589E-05</v>
       </c>
       <c r="W338">
-        <v>0.9997183891861446</v>
+        <v>-0.0002816108138553597</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25514,7 +25514,7 @@
         <v>1.264579746559378</v>
       </c>
       <c r="K339">
-        <v>55.84169638895162</v>
+        <v>0.05841696388951623</v>
       </c>
       <c r="L339">
         <v>0.00455791823394805</v>
@@ -25544,13 +25544,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U339">
-        <v>1.000018780400774</v>
+        <v>1.878040077385457E-05</v>
       </c>
       <c r="V339">
-        <v>1.000093872033644</v>
+        <v>9.387203364386032E-05</v>
       </c>
       <c r="W339">
-        <v>1.000281690140845</v>
+        <v>0.0002816901408451145</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25585,7 +25585,7 @@
         <v>1.264579746559378</v>
       </c>
       <c r="K340">
-        <v>55.84169638895162</v>
+        <v>0.05841696388951623</v>
       </c>
       <c r="L340">
         <v>0.004193121401381688</v>
@@ -25615,13 +25615,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U340">
-        <v>1.000018780048077</v>
+        <v>1.878004807709388E-05</v>
       </c>
       <c r="V340">
-        <v>1.00007509057801</v>
+        <v>7.509057800980656E-05</v>
       </c>
       <c r="W340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25656,7 +25656,7 @@
         <v>1.264579746559378</v>
       </c>
       <c r="K341">
-        <v>55.84169638895163</v>
+        <v>0.05841696388951623</v>
       </c>
       <c r="L341">
         <v>0.003845752751500295</v>
@@ -25686,13 +25686,13 @@
         <v>-0.06249999999994316</v>
       </c>
       <c r="U341">
-        <v>1.000018779695393</v>
+        <v>1.877969539321178E-05</v>
       </c>
       <c r="V341">
-        <v>1.000018771234959</v>
+        <v>1.877123495930277E-05</v>
       </c>
       <c r="W341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25727,7 +25727,7 @@
         <v>1.264579746559378</v>
       </c>
       <c r="K342">
-        <v>55.84169638895163</v>
+        <v>0.05841696388951623</v>
       </c>
       <c r="L342">
         <v>0.003517075114784595</v>
@@ -25757,13 +25757,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V342">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25798,7 +25798,7 @@
         <v>1.433454691696778</v>
       </c>
       <c r="K343">
-        <v>58.9061590744996</v>
+        <v>0.08906159074499598</v>
       </c>
       <c r="L343">
         <v>0.003310435085534906</v>
@@ -25828,13 +25828,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U343">
-        <v>1.000009389671362</v>
+        <v>9.389671361548224E-06</v>
       </c>
       <c r="V343">
-        <v>0.9999812291173931</v>
+        <v>-1.877088260693327E-05</v>
       </c>
       <c r="W343">
-        <v>1.000281610813855</v>
+        <v>0.0002816108138552487</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25869,7 +25869,7 @@
         <v>1.217099339859388</v>
       </c>
       <c r="K344">
-        <v>54.89602193181739</v>
+        <v>0.04896021931817385</v>
       </c>
       <c r="L344">
         <v>0.003076258453106563</v>
@@ -25899,13 +25899,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U344">
-        <v>0.9999906104168036</v>
+        <v>-9.38958319640637E-06</v>
       </c>
       <c r="V344">
-        <v>0.9999436862951212</v>
+        <v>-5.63137048787965E-05</v>
       </c>
       <c r="W344">
-        <v>0.9997184684684686</v>
+        <v>-0.0002815315315314315</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -25940,7 +25940,7 @@
         <v>1.217099339859388</v>
       </c>
       <c r="K345">
-        <v>54.89602193181739</v>
+        <v>0.04896021931817385</v>
       </c>
       <c r="L345">
         <v>0.002829123139271808</v>
@@ -25970,13 +25970,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U345">
-        <v>1.000009389671362</v>
+        <v>9.389671361548224E-06</v>
       </c>
       <c r="V345">
-        <v>0.9999624554158063</v>
+        <v>-3.754458419369389E-05</v>
       </c>
       <c r="W345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26011,7 +26011,7 @@
         <v>1.217099339859388</v>
       </c>
       <c r="K346">
-        <v>54.89602193181738</v>
+        <v>0.04896021931817385</v>
       </c>
       <c r="L346">
         <v>0.002579585815334219</v>
@@ -26041,13 +26041,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U346">
-        <v>1.000037558332786</v>
+        <v>3.755833278562548E-05</v>
       </c>
       <c r="V346">
-        <v>0.9999812270030788</v>
+        <v>-1.877299692121248E-05</v>
       </c>
       <c r="W346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26082,7 +26082,7 @@
         <v>1.034912683365077</v>
       </c>
       <c r="K347">
-        <v>50.85784229589996</v>
+        <v>0.008578422958999576</v>
       </c>
       <c r="L347">
         <v>0.002232539344732153</v>
@@ -26112,13 +26112,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U347">
-        <v>1.000018778461105</v>
+        <v>1.87784611049846E-05</v>
       </c>
       <c r="V347">
-        <v>0.9999624533012935</v>
+        <v>-3.754669870648097E-05</v>
       </c>
       <c r="W347">
-        <v>0.9997183891861446</v>
+        <v>-0.0002816108138553597</v>
       </c>
     </row>
   </sheetData>
